--- a/DataAnalysis.xlsx
+++ b/DataAnalysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b4a5232a0414c816/Desktop/CS/Projects/AI/DinoBot-NEAT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="309" documentId="8_{DD3677FD-A2AB-4BC8-9CAD-5FE5C560B1A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F72FFE88-C3CB-4649-8110-1154BFD673E4}"/>
+  <xr:revisionPtr revIDLastSave="311" documentId="8_{DD3677FD-A2AB-4BC8-9CAD-5FE5C560B1A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A8308C95-66A3-4A9D-B967-563C40A32872}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{F16A38F1-B42C-4B58-9450-487B8984C1BF}"/>
   </bookViews>
@@ -227,7 +227,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -255,7 +255,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2832,154 +2831,154 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>265.25</c:v>
+                  <c:v>248.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>520.5</c:v>
+                  <c:v>469.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>702.5</c:v>
+                  <c:v>663</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>640.25</c:v>
+                  <c:v>652.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>706</c:v>
+                  <c:v>613.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>743.75</c:v>
+                  <c:v>710</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>765.75</c:v>
+                  <c:v>763.25</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>649.25</c:v>
+                  <c:v>649</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>732.25</c:v>
+                  <c:v>806.75</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>528.75</c:v>
+                  <c:v>737.75</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>655.75</c:v>
+                  <c:v>851.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>761.25</c:v>
+                  <c:v>930.25</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>788</c:v>
+                  <c:v>990.75</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>959.75</c:v>
+                  <c:v>1237.25</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>691</c:v>
+                  <c:v>872.75</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>722</c:v>
+                  <c:v>821.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>780.25</c:v>
+                  <c:v>950.5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>797</c:v>
+                  <c:v>886</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>740.25</c:v>
+                  <c:v>881.75</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>421.5</c:v>
+                  <c:v>536.25</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>665.5</c:v>
+                  <c:v>779.25</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>627</c:v>
+                  <c:v>755.5</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>598</c:v>
+                  <c:v>745.25</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>598.5</c:v>
+                  <c:v>800.5</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>772</c:v>
+                  <c:v>887</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>704.25</c:v>
+                  <c:v>859.75</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>626.25</c:v>
+                  <c:v>853</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>482</c:v>
+                  <c:v>688.75</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>710.5</c:v>
+                  <c:v>893.5</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>673.75</c:v>
+                  <c:v>802.25</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>635.75</c:v>
+                  <c:v>751.25</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>564.25</c:v>
+                  <c:v>668.5</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>634.75</c:v>
+                  <c:v>703.25</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>661.75</c:v>
+                  <c:v>766.75</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>760.75</c:v>
+                  <c:v>861.25</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>850</c:v>
+                  <c:v>918.5</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>739.75</c:v>
+                  <c:v>854.5</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>809.25</c:v>
+                  <c:v>910</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>711</c:v>
+                  <c:v>839.25</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>768.75</c:v>
+                  <c:v>887.25</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>804.75</c:v>
+                  <c:v>972.75</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>767</c:v>
+                  <c:v>909.25</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>671.25</c:v>
+                  <c:v>770.5</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>688</c:v>
+                  <c:v>869.5</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>787.25</c:v>
+                  <c:v>1031.5</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>945.25</c:v>
+                  <c:v>1266</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>762</c:v>
+                  <c:v>895.75</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>599.25</c:v>
+                  <c:v>843.25</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>707.25</c:v>
+                  <c:v>951</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>722.75</c:v>
+                  <c:v>1012</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3038,19 +3037,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>265.5</c:v>
+                  <c:v>232</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>470.5</c:v>
+                  <c:v>368</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>703</c:v>
+                  <c:v>624.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>629.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>745</c:v>
+                  <c:v>741.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>690</c:v>
@@ -3062,79 +3061,79 @@
                   <c:v>623.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>683.5</c:v>
+                  <c:v>783</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>568</c:v>
+                  <c:v>688.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>738.5</c:v>
+                  <c:v>911.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>874.5</c:v>
+                  <c:v>986</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>897</c:v>
+                  <c:v>1033</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1112.5</c:v>
+                  <c:v>1253.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>688.5</c:v>
+                  <c:v>853</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>798</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>886</c:v>
+                  <c:v>911.5</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>986</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>832</c:v>
+                  <c:v>857</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>472.5</c:v>
+                  <c:v>505.5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>684.5</c:v>
+                  <c:v>745.5</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>632</c:v>
+                  <c:v>691.5</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>691.5</c:v>
+                  <c:v>716</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>691.5</c:v>
+                  <c:v>805</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>823.5</c:v>
+                  <c:v>852.5</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>763</c:v>
+                  <c:v>904</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>721</c:v>
+                  <c:v>830</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>370</c:v>
+                  <c:v>731.5</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>659</c:v>
+                  <c:v>825.5</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>627</c:v>
+                  <c:v>687.5</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>602.5</c:v>
+                  <c:v>800.5</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>571.5</c:v>
+                  <c:v>740</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>623.5</c:v>
+                  <c:v>760.5</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>768.5</c:v>
@@ -3152,13 +3151,13 @@
                   <c:v>851.5</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>770</c:v>
+                  <c:v>828.5</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>881</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>845</c:v>
+                  <c:v>982</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>935.5</c:v>
@@ -3167,25 +3166,25 @@
                   <c:v>797</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>830</c:v>
+                  <c:v>858.5</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>878.5</c:v>
+                  <c:v>1087.5</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>955.5</c:v>
+                  <c:v>1284</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>825</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>627</c:v>
+                  <c:v>799</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>631</c:v>
+                  <c:v>919.5</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>796.5</c:v>
+                  <c:v>961.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5450,19 +5449,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>265.5</c:v>
+                  <c:v>232</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>470.5</c:v>
+                  <c:v>368</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>703</c:v>
+                  <c:v>624.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>629.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>745</c:v>
+                  <c:v>741.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>690</c:v>
@@ -5474,79 +5473,79 @@
                   <c:v>623.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>683.5</c:v>
+                  <c:v>783</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>568</c:v>
+                  <c:v>688.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>738.5</c:v>
+                  <c:v>911.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>874.5</c:v>
+                  <c:v>986</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>897</c:v>
+                  <c:v>1033</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1112.5</c:v>
+                  <c:v>1253.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>688.5</c:v>
+                  <c:v>853</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>798</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>886</c:v>
+                  <c:v>911.5</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>986</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>832</c:v>
+                  <c:v>857</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>472.5</c:v>
+                  <c:v>505.5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>684.5</c:v>
+                  <c:v>745.5</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>632</c:v>
+                  <c:v>691.5</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>691.5</c:v>
+                  <c:v>716</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>691.5</c:v>
+                  <c:v>805</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>823.5</c:v>
+                  <c:v>852.5</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>763</c:v>
+                  <c:v>904</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>721</c:v>
+                  <c:v>830</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>370</c:v>
+                  <c:v>731.5</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>659</c:v>
+                  <c:v>825.5</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>627</c:v>
+                  <c:v>687.5</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>602.5</c:v>
+                  <c:v>800.5</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>571.5</c:v>
+                  <c:v>740</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>623.5</c:v>
+                  <c:v>760.5</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>768.5</c:v>
@@ -5564,13 +5563,13 @@
                   <c:v>851.5</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>770</c:v>
+                  <c:v>828.5</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>881</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>845</c:v>
+                  <c:v>982</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>935.5</c:v>
@@ -5579,25 +5578,25 @@
                   <c:v>797</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>830</c:v>
+                  <c:v>858.5</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>878.5</c:v>
+                  <c:v>1087.5</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>955.5</c:v>
+                  <c:v>1284</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>825</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>627</c:v>
+                  <c:v>799</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>631</c:v>
+                  <c:v>919.5</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>796.5</c:v>
+                  <c:v>961.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6218,7 +6217,7 @@
                 <c:order val="1"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Population Analysis'!$O$5</c15:sqref>
@@ -6247,7 +6246,7 @@
                 </c:marker>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Population Analysis'!$O$6:$O$55</c15:sqref>
@@ -6411,7 +6410,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-474C-425F-B0E4-81A8B5CC7D96}"/>
                   </c:ext>
@@ -10769,6 +10768,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -11088,8 +11091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{900E8F99-93E9-4FEE-AE22-1E57C01964FE}">
   <dimension ref="A1:AV104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AD85" sqref="AD85"/>
+    <sheetView tabSelected="1" topLeftCell="M57" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AJ89" sqref="AJ89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -11384,18 +11387,18 @@
         <v>230</v>
       </c>
       <c r="AA6" s="11">
-        <v>300</v>
+        <v>233</v>
       </c>
       <c r="AB6" s="11">
         <v>231</v>
       </c>
       <c r="AD6" s="12">
         <f>AVERAGE(Y6:AC6)</f>
-        <v>265.25</v>
+        <v>248.5</v>
       </c>
       <c r="AE6" s="12">
         <f>MEDIAN(Y6:AC6)</f>
-        <v>265.5</v>
+        <v>232</v>
       </c>
       <c r="AF6" s="6"/>
       <c r="AG6" s="11">
@@ -11513,18 +11516,18 @@
         <v>504</v>
       </c>
       <c r="AA7" s="11">
-        <v>437</v>
+        <v>232</v>
       </c>
       <c r="AB7" s="11">
         <v>911</v>
       </c>
       <c r="AD7" s="12">
         <f t="shared" ref="AD7:AD55" si="6">AVERAGE(Y7:AC7)</f>
-        <v>520.5</v>
+        <v>469.25</v>
       </c>
       <c r="AE7" s="12">
         <f t="shared" ref="AE7:AE55" si="7">MEDIAN(Y7:AC7)</f>
-        <v>470.5</v>
+        <v>368</v>
       </c>
       <c r="AF7" s="6"/>
       <c r="AG7" s="11">
@@ -11561,7 +11564,7 @@
         <v>1063</v>
       </c>
       <c r="AT7" s="12">
-        <f t="shared" ref="AT7:AT56" si="10">AVERAGE(AO7:AS7)</f>
+        <f t="shared" ref="AT7:AT55" si="10">AVERAGE(AO7:AS7)</f>
         <v>746.75</v>
       </c>
       <c r="AU7" s="12">
@@ -11642,18 +11645,18 @@
         <v>441</v>
       </c>
       <c r="AA8" s="11">
-        <v>966</v>
+        <v>808</v>
       </c>
       <c r="AB8" s="11">
         <v>965</v>
       </c>
       <c r="AD8" s="12">
         <f t="shared" si="6"/>
-        <v>702.5</v>
+        <v>663</v>
       </c>
       <c r="AE8" s="12">
         <f t="shared" si="7"/>
-        <v>703</v>
+        <v>624.5</v>
       </c>
       <c r="AF8" s="6"/>
       <c r="AG8" s="11">
@@ -11771,14 +11774,14 @@
         <v>627</v>
       </c>
       <c r="AA9" s="11">
-        <v>864</v>
+        <v>913</v>
       </c>
       <c r="AB9" s="11">
         <v>632</v>
       </c>
       <c r="AD9" s="12">
         <f t="shared" si="6"/>
-        <v>640.25</v>
+        <v>652.5</v>
       </c>
       <c r="AE9" s="12">
         <f t="shared" si="7"/>
@@ -11900,18 +11903,18 @@
         <v>748</v>
       </c>
       <c r="AA10" s="11">
-        <v>1111</v>
+        <v>741</v>
       </c>
       <c r="AB10" s="11">
         <v>742</v>
       </c>
       <c r="AD10" s="12">
         <f t="shared" si="6"/>
-        <v>706</v>
+        <v>613.5</v>
       </c>
       <c r="AE10" s="12">
         <f t="shared" si="7"/>
-        <v>745</v>
+        <v>741.5</v>
       </c>
       <c r="AF10" s="6"/>
       <c r="AG10" s="11">
@@ -12029,14 +12032,14 @@
         <v>630</v>
       </c>
       <c r="AA11" s="11">
-        <v>1154</v>
+        <v>1019</v>
       </c>
       <c r="AB11" s="11">
         <v>750</v>
       </c>
       <c r="AD11" s="12">
         <f t="shared" si="6"/>
-        <v>743.75</v>
+        <v>710</v>
       </c>
       <c r="AE11" s="12">
         <f t="shared" si="7"/>
@@ -12158,14 +12161,14 @@
         <v>857</v>
       </c>
       <c r="AA12" s="11">
-        <v>1019</v>
+        <v>1009</v>
       </c>
       <c r="AB12" s="11">
         <v>560</v>
       </c>
       <c r="AD12" s="12">
         <f t="shared" si="6"/>
-        <v>765.75</v>
+        <v>763.25</v>
       </c>
       <c r="AE12" s="12">
         <f t="shared" si="7"/>
@@ -12287,14 +12290,14 @@
         <v>743</v>
       </c>
       <c r="AA13" s="11">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="AB13" s="11">
         <v>437</v>
       </c>
       <c r="AD13" s="12">
         <f t="shared" si="6"/>
-        <v>649.25</v>
+        <v>649</v>
       </c>
       <c r="AE13" s="12">
         <f t="shared" si="7"/>
@@ -12416,18 +12419,18 @@
         <v>502</v>
       </c>
       <c r="AA14" s="11">
-        <v>861</v>
+        <v>1159</v>
       </c>
       <c r="AB14" s="11">
         <v>506</v>
       </c>
       <c r="AD14" s="12">
         <f t="shared" si="6"/>
-        <v>732.25</v>
+        <v>806.75</v>
       </c>
       <c r="AE14" s="12">
         <f t="shared" si="7"/>
-        <v>683.5</v>
+        <v>783</v>
       </c>
       <c r="AF14" s="6"/>
       <c r="AG14" s="11">
@@ -12545,18 +12548,18 @@
         <v>629</v>
       </c>
       <c r="AA15" s="11">
-        <v>231</v>
+        <v>1067</v>
       </c>
       <c r="AB15" s="11">
         <v>748</v>
       </c>
       <c r="AD15" s="12">
         <f t="shared" si="6"/>
-        <v>528.75</v>
+        <v>737.75</v>
       </c>
       <c r="AE15" s="12">
         <f t="shared" si="7"/>
-        <v>568</v>
+        <v>688.5</v>
       </c>
       <c r="AF15" s="6"/>
       <c r="AG15" s="11">
@@ -12674,18 +12677,18 @@
         <v>568</v>
       </c>
       <c r="AA16" s="11">
-        <v>232</v>
+        <v>1015</v>
       </c>
       <c r="AB16" s="11">
         <v>914</v>
       </c>
       <c r="AD16" s="12">
         <f t="shared" si="6"/>
-        <v>655.75</v>
+        <v>851.5</v>
       </c>
       <c r="AE16" s="12">
         <f t="shared" si="7"/>
-        <v>738.5</v>
+        <v>911.5</v>
       </c>
       <c r="AF16" s="6"/>
       <c r="AG16" s="11">
@@ -12803,18 +12806,18 @@
         <v>688</v>
       </c>
       <c r="AA17" s="11">
-        <v>235</v>
+        <v>911</v>
       </c>
       <c r="AB17" s="11">
         <v>1061</v>
       </c>
       <c r="AD17" s="12">
         <f t="shared" si="6"/>
-        <v>761.25</v>
+        <v>930.25</v>
       </c>
       <c r="AE17" s="12">
         <f t="shared" si="7"/>
-        <v>874.5</v>
+        <v>986</v>
       </c>
       <c r="AF17" s="6"/>
       <c r="AG17" s="11">
@@ -12932,18 +12935,18 @@
         <v>689</v>
       </c>
       <c r="AA18" s="11">
-        <v>150</v>
+        <v>961</v>
       </c>
       <c r="AB18" s="11">
         <v>1208</v>
       </c>
       <c r="AD18" s="12">
         <f t="shared" si="6"/>
-        <v>788</v>
+        <v>990.75</v>
       </c>
       <c r="AE18" s="12">
         <f t="shared" si="7"/>
-        <v>897</v>
+        <v>1033</v>
       </c>
       <c r="AF18" s="6"/>
       <c r="AG18" s="11">
@@ -13061,18 +13064,18 @@
         <v>1381</v>
       </c>
       <c r="AA19" s="11">
-        <v>233</v>
+        <v>1343</v>
       </c>
       <c r="AB19" s="11">
         <v>1164</v>
       </c>
       <c r="AD19" s="12">
         <f t="shared" si="6"/>
-        <v>959.75</v>
+        <v>1237.25</v>
       </c>
       <c r="AE19" s="12">
         <f t="shared" si="7"/>
-        <v>1112.5</v>
+        <v>1253.5</v>
       </c>
       <c r="AF19" s="6"/>
       <c r="AG19" s="11">
@@ -13190,18 +13193,18 @@
         <v>747</v>
       </c>
       <c r="AA20" s="11">
-        <v>232</v>
+        <v>959</v>
       </c>
       <c r="AB20" s="11">
         <v>630</v>
       </c>
       <c r="AD20" s="12">
         <f t="shared" si="6"/>
-        <v>691</v>
+        <v>872.75</v>
       </c>
       <c r="AE20" s="12">
         <f t="shared" si="7"/>
-        <v>688.5</v>
+        <v>853</v>
       </c>
       <c r="AF20" s="6"/>
       <c r="AG20" s="11">
@@ -13319,14 +13322,14 @@
         <v>911</v>
       </c>
       <c r="AA21" s="11">
-        <v>230</v>
+        <v>628</v>
       </c>
       <c r="AB21" s="11">
         <v>685</v>
       </c>
       <c r="AD21" s="12">
         <f t="shared" si="6"/>
-        <v>722</v>
+        <v>821.5</v>
       </c>
       <c r="AE21" s="12">
         <f t="shared" si="7"/>
@@ -13448,18 +13451,18 @@
         <v>911</v>
       </c>
       <c r="AA22" s="11">
-        <v>231</v>
+        <v>912</v>
       </c>
       <c r="AB22" s="11">
         <v>861</v>
       </c>
       <c r="AD22" s="12">
         <f t="shared" si="6"/>
-        <v>780.25</v>
+        <v>950.5</v>
       </c>
       <c r="AE22" s="12">
         <f t="shared" si="7"/>
-        <v>886</v>
+        <v>911.5</v>
       </c>
       <c r="AF22" s="6"/>
       <c r="AG22" s="11">
@@ -13577,14 +13580,14 @@
         <v>1061</v>
       </c>
       <c r="AA23" s="11">
-        <v>150</v>
+        <v>506</v>
       </c>
       <c r="AB23" s="11">
         <v>911</v>
       </c>
       <c r="AD23" s="12">
         <f t="shared" si="6"/>
-        <v>797</v>
+        <v>886</v>
       </c>
       <c r="AE23" s="12">
         <f t="shared" si="7"/>
@@ -13706,18 +13709,18 @@
         <v>915</v>
       </c>
       <c r="AA24" s="11">
-        <v>233</v>
+        <v>799</v>
       </c>
       <c r="AB24" s="11">
         <v>749</v>
       </c>
       <c r="AD24" s="12">
         <f t="shared" si="6"/>
-        <v>740.25</v>
+        <v>881.75</v>
       </c>
       <c r="AE24" s="12">
         <f t="shared" si="7"/>
-        <v>832</v>
+        <v>857</v>
       </c>
       <c r="AF24" s="6"/>
       <c r="AG24" s="11">
@@ -13835,18 +13838,18 @@
         <v>508</v>
       </c>
       <c r="AA25" s="11">
-        <v>233</v>
+        <v>692</v>
       </c>
       <c r="AB25" s="11">
         <v>503</v>
       </c>
       <c r="AD25" s="12">
         <f t="shared" si="6"/>
-        <v>421.5</v>
+        <v>536.25</v>
       </c>
       <c r="AE25" s="12">
         <f t="shared" si="7"/>
-        <v>472.5</v>
+        <v>505.5</v>
       </c>
       <c r="AF25" s="6"/>
       <c r="AG25" s="11">
@@ -13964,18 +13967,18 @@
         <v>1061</v>
       </c>
       <c r="AA26" s="11">
-        <v>232</v>
+        <v>687</v>
       </c>
       <c r="AB26" s="11">
         <v>804</v>
       </c>
       <c r="AD26" s="12">
         <f t="shared" si="6"/>
-        <v>665.5</v>
+        <v>779.25</v>
       </c>
       <c r="AE26" s="12">
         <f t="shared" si="7"/>
-        <v>684.5</v>
+        <v>745.5</v>
       </c>
       <c r="AF26" s="6"/>
       <c r="AG26" s="11">
@@ -14093,18 +14096,18 @@
         <v>1011</v>
       </c>
       <c r="AA27" s="11">
-        <v>233</v>
+        <v>747</v>
       </c>
       <c r="AB27" s="11">
         <v>628</v>
       </c>
       <c r="AD27" s="12">
         <f t="shared" si="6"/>
-        <v>627</v>
+        <v>755.5</v>
       </c>
       <c r="AE27" s="12">
         <f t="shared" si="7"/>
-        <v>632</v>
+        <v>691.5</v>
       </c>
       <c r="AF27" s="6"/>
       <c r="AG27" s="11">
@@ -14222,18 +14225,18 @@
         <v>691</v>
       </c>
       <c r="AA28" s="11">
-        <v>151</v>
+        <v>740</v>
       </c>
       <c r="AB28" s="11">
         <v>692</v>
       </c>
       <c r="AD28" s="12">
         <f t="shared" si="6"/>
-        <v>598</v>
+        <v>745.25</v>
       </c>
       <c r="AE28" s="12">
         <f t="shared" si="7"/>
-        <v>691.5</v>
+        <v>716</v>
       </c>
       <c r="AF28" s="6"/>
       <c r="AG28" s="11">
@@ -14351,18 +14354,18 @@
         <v>750</v>
       </c>
       <c r="AA29" s="11">
-        <v>151</v>
+        <v>959</v>
       </c>
       <c r="AB29" s="11">
         <v>633</v>
       </c>
       <c r="AD29" s="12">
         <f t="shared" si="6"/>
-        <v>598.5</v>
+        <v>800.5</v>
       </c>
       <c r="AE29" s="12">
         <f t="shared" si="7"/>
-        <v>691.5</v>
+        <v>805</v>
       </c>
       <c r="AF29" s="6"/>
       <c r="AG29" s="11">
@@ -14480,18 +14483,18 @@
         <v>1209</v>
       </c>
       <c r="AA30" s="11">
-        <v>232</v>
+        <v>692</v>
       </c>
       <c r="AB30" s="11">
         <v>1013</v>
       </c>
       <c r="AD30" s="12">
         <f t="shared" si="6"/>
-        <v>772</v>
+        <v>887</v>
       </c>
       <c r="AE30" s="12">
         <f t="shared" si="7"/>
-        <v>823.5</v>
+        <v>852.5</v>
       </c>
       <c r="AF30" s="6"/>
       <c r="AG30" s="11">
@@ -14609,18 +14612,18 @@
         <v>955</v>
       </c>
       <c r="AA31" s="11">
-        <v>231</v>
+        <v>853</v>
       </c>
       <c r="AB31" s="11">
         <v>1060</v>
       </c>
       <c r="AD31" s="12">
         <f t="shared" si="6"/>
-        <v>704.25</v>
+        <v>859.75</v>
       </c>
       <c r="AE31" s="12">
         <f t="shared" si="7"/>
-        <v>763</v>
+        <v>904</v>
       </c>
       <c r="AF31" s="6"/>
       <c r="AG31" s="11">
@@ -14738,18 +14741,18 @@
         <v>911</v>
       </c>
       <c r="AA32" s="11">
-        <v>152</v>
+        <v>1059</v>
       </c>
       <c r="AB32" s="11">
         <v>749</v>
       </c>
       <c r="AD32" s="12">
         <f t="shared" si="6"/>
-        <v>626.25</v>
+        <v>853</v>
       </c>
       <c r="AE32" s="12">
         <f t="shared" si="7"/>
-        <v>721</v>
+        <v>830</v>
       </c>
       <c r="AF32" s="6"/>
       <c r="AG32" s="11">
@@ -14867,18 +14870,18 @@
         <v>957</v>
       </c>
       <c r="AA33" s="11">
-        <v>234</v>
+        <v>1061</v>
       </c>
       <c r="AB33" s="11">
         <v>231</v>
       </c>
       <c r="AD33" s="12">
         <f t="shared" si="6"/>
-        <v>482</v>
+        <v>688.75</v>
       </c>
       <c r="AE33" s="12">
         <f t="shared" si="7"/>
-        <v>370</v>
+        <v>731.5</v>
       </c>
       <c r="AF33" s="6"/>
       <c r="AG33" s="11">
@@ -14996,18 +14999,18 @@
         <v>1293</v>
       </c>
       <c r="AA34" s="11">
-        <v>231</v>
+        <v>963</v>
       </c>
       <c r="AB34" s="11">
         <v>688</v>
       </c>
       <c r="AD34" s="12">
         <f t="shared" si="6"/>
-        <v>710.5</v>
+        <v>893.5</v>
       </c>
       <c r="AE34" s="12">
         <f t="shared" si="7"/>
-        <v>659</v>
+        <v>825.5</v>
       </c>
       <c r="AF34" s="6"/>
       <c r="AG34" s="11">
@@ -15125,18 +15128,18 @@
         <v>1210</v>
       </c>
       <c r="AA35" s="11">
-        <v>231</v>
+        <v>745</v>
       </c>
       <c r="AB35" s="11">
         <v>630</v>
       </c>
       <c r="AD35" s="12">
         <f t="shared" si="6"/>
-        <v>673.75</v>
+        <v>802.25</v>
       </c>
       <c r="AE35" s="12">
         <f t="shared" si="7"/>
-        <v>627</v>
+        <v>687.5</v>
       </c>
       <c r="AF35" s="6"/>
       <c r="AG35" s="11">
@@ -15254,18 +15257,18 @@
         <v>1106</v>
       </c>
       <c r="AA36" s="11">
-        <v>232</v>
+        <v>694</v>
       </c>
       <c r="AB36" s="11">
         <v>298</v>
       </c>
       <c r="AD36" s="12">
         <f t="shared" si="6"/>
-        <v>635.75</v>
+        <v>751.25</v>
       </c>
       <c r="AE36" s="12">
         <f t="shared" si="7"/>
-        <v>602.5</v>
+        <v>800.5</v>
       </c>
       <c r="AF36" s="6"/>
       <c r="AG36" s="11">
@@ -15383,18 +15386,18 @@
         <v>912</v>
       </c>
       <c r="AA37" s="11">
-        <v>151</v>
+        <v>568</v>
       </c>
       <c r="AB37" s="11">
         <v>231</v>
       </c>
       <c r="AD37" s="12">
         <f t="shared" si="6"/>
-        <v>564.25</v>
+        <v>668.5</v>
       </c>
       <c r="AE37" s="12">
         <f t="shared" si="7"/>
-        <v>571.5</v>
+        <v>740</v>
       </c>
       <c r="AF37" s="6"/>
       <c r="AG37" s="11">
@@ -15512,18 +15515,18 @@
         <v>1016</v>
       </c>
       <c r="AA38" s="11">
-        <v>231</v>
+        <v>505</v>
       </c>
       <c r="AB38" s="11">
         <v>231</v>
       </c>
       <c r="AD38" s="12">
         <f t="shared" si="6"/>
-        <v>634.75</v>
+        <v>703.25</v>
       </c>
       <c r="AE38" s="12">
         <f t="shared" si="7"/>
-        <v>623.5</v>
+        <v>760.5</v>
       </c>
       <c r="AF38" s="6"/>
       <c r="AG38" s="11">
@@ -15641,14 +15644,14 @@
         <v>959</v>
       </c>
       <c r="AA39" s="11">
-        <v>151</v>
+        <v>571</v>
       </c>
       <c r="AB39" s="11">
         <v>626</v>
       </c>
       <c r="AD39" s="12">
         <f t="shared" si="6"/>
-        <v>661.75</v>
+        <v>766.75</v>
       </c>
       <c r="AE39" s="12">
         <f t="shared" si="7"/>
@@ -15770,14 +15773,14 @@
         <v>1208</v>
       </c>
       <c r="AA40" s="11">
-        <v>233</v>
+        <v>635</v>
       </c>
       <c r="AB40" s="11">
         <v>636</v>
       </c>
       <c r="AD40" s="12">
         <f t="shared" si="6"/>
-        <v>760.75</v>
+        <v>861.25</v>
       </c>
       <c r="AE40" s="12">
         <f t="shared" si="7"/>
@@ -15899,14 +15902,14 @@
         <v>965</v>
       </c>
       <c r="AA41" s="11">
-        <v>232</v>
+        <v>506</v>
       </c>
       <c r="AB41" s="11">
         <v>687</v>
       </c>
       <c r="AD41" s="12">
         <f t="shared" si="6"/>
-        <v>850</v>
+        <v>918.5</v>
       </c>
       <c r="AE41" s="12">
         <f t="shared" si="7"/>
@@ -16028,14 +16031,14 @@
         <v>917</v>
       </c>
       <c r="AA42" s="11">
-        <v>231</v>
+        <v>690</v>
       </c>
       <c r="AB42" s="11">
         <v>750</v>
       </c>
       <c r="AD42" s="12">
         <f t="shared" si="6"/>
-        <v>739.75</v>
+        <v>854.5</v>
       </c>
       <c r="AE42" s="12">
         <f t="shared" si="7"/>
@@ -16157,14 +16160,14 @@
         <v>1011</v>
       </c>
       <c r="AA43" s="11">
-        <v>231</v>
+        <v>634</v>
       </c>
       <c r="AB43" s="11">
         <v>692</v>
       </c>
       <c r="AD43" s="12">
         <f t="shared" si="6"/>
-        <v>809.25</v>
+        <v>910</v>
       </c>
       <c r="AE43" s="12">
         <f t="shared" si="7"/>
@@ -16286,18 +16289,18 @@
         <v>911</v>
       </c>
       <c r="AA44" s="11">
-        <v>233</v>
+        <v>746</v>
       </c>
       <c r="AB44" s="11">
         <v>629</v>
       </c>
       <c r="AD44" s="12">
         <f t="shared" si="6"/>
-        <v>711</v>
+        <v>839.25</v>
       </c>
       <c r="AE44" s="12">
         <f t="shared" si="7"/>
-        <v>770</v>
+        <v>828.5</v>
       </c>
       <c r="AF44" s="6"/>
       <c r="AG44" s="11">
@@ -16415,14 +16418,14 @@
         <v>955</v>
       </c>
       <c r="AA45" s="11">
-        <v>151</v>
+        <v>625</v>
       </c>
       <c r="AB45" s="11">
         <v>807</v>
       </c>
       <c r="AD45" s="12">
         <f t="shared" si="6"/>
-        <v>768.75</v>
+        <v>887.25</v>
       </c>
       <c r="AE45" s="12">
         <f t="shared" si="7"/>
@@ -16544,18 +16547,18 @@
         <v>1060</v>
       </c>
       <c r="AA46" s="11">
-        <v>232</v>
+        <v>904</v>
       </c>
       <c r="AB46" s="11">
         <v>630</v>
       </c>
       <c r="AD46" s="12">
         <f t="shared" si="6"/>
-        <v>804.75</v>
+        <v>972.75</v>
       </c>
       <c r="AE46" s="12">
         <f t="shared" si="7"/>
-        <v>845</v>
+        <v>982</v>
       </c>
       <c r="AF46" s="6"/>
       <c r="AG46" s="11">
@@ -16673,14 +16676,14 @@
         <v>961</v>
       </c>
       <c r="AA47" s="11">
-        <v>233</v>
+        <v>802</v>
       </c>
       <c r="AB47" s="11">
         <v>910</v>
       </c>
       <c r="AD47" s="12">
         <f t="shared" si="6"/>
-        <v>767</v>
+        <v>909.25</v>
       </c>
       <c r="AE47" s="12">
         <f t="shared" si="7"/>
@@ -16802,14 +16805,14 @@
         <v>859</v>
       </c>
       <c r="AA48" s="11">
-        <v>232</v>
+        <v>629</v>
       </c>
       <c r="AB48" s="11">
         <v>794</v>
       </c>
       <c r="AD48" s="12">
         <f t="shared" si="6"/>
-        <v>671.25</v>
+        <v>770.5</v>
       </c>
       <c r="AE48" s="12">
         <f t="shared" si="7"/>
@@ -16931,18 +16934,18 @@
         <v>857</v>
       </c>
       <c r="AA49" s="11">
-        <v>232</v>
+        <v>958</v>
       </c>
       <c r="AB49" s="11">
         <v>803</v>
       </c>
       <c r="AD49" s="12">
         <f t="shared" si="6"/>
-        <v>688</v>
+        <v>869.5</v>
       </c>
       <c r="AE49" s="12">
         <f t="shared" si="7"/>
-        <v>830</v>
+        <v>858.5</v>
       </c>
       <c r="AF49" s="6"/>
       <c r="AG49" s="11">
@@ -17060,18 +17063,18 @@
         <v>1161</v>
       </c>
       <c r="AA50" s="11">
-        <v>231</v>
+        <v>1208</v>
       </c>
       <c r="AB50" s="11">
         <v>743</v>
       </c>
       <c r="AD50" s="12">
         <f t="shared" si="6"/>
-        <v>787.25</v>
+        <v>1031.5</v>
       </c>
       <c r="AE50" s="12">
         <f t="shared" si="7"/>
-        <v>878.5</v>
+        <v>1087.5</v>
       </c>
       <c r="AF50" s="6"/>
       <c r="AG50" s="11">
@@ -17189,18 +17192,18 @@
         <v>857</v>
       </c>
       <c r="AA51" s="11">
-        <v>231</v>
+        <v>1514</v>
       </c>
       <c r="AB51" s="11">
         <v>1054</v>
       </c>
       <c r="AD51" s="12">
         <f t="shared" si="6"/>
-        <v>945.25</v>
+        <v>1266</v>
       </c>
       <c r="AE51" s="12">
         <f t="shared" si="7"/>
-        <v>955.5</v>
+        <v>1284</v>
       </c>
       <c r="AF51" s="6"/>
       <c r="AG51" s="11">
@@ -17318,14 +17321,14 @@
         <v>740</v>
       </c>
       <c r="AA52" s="11">
-        <v>152</v>
+        <v>687</v>
       </c>
       <c r="AB52" s="11">
         <v>910</v>
       </c>
       <c r="AD52" s="12">
         <f t="shared" si="6"/>
-        <v>762</v>
+        <v>895.75</v>
       </c>
       <c r="AE52" s="12">
         <f t="shared" si="7"/>
@@ -17447,18 +17450,18 @@
         <v>568</v>
       </c>
       <c r="AA53" s="11">
-        <v>231</v>
+        <v>1207</v>
       </c>
       <c r="AB53" s="11">
         <v>686</v>
       </c>
       <c r="AD53" s="12">
         <f t="shared" si="6"/>
-        <v>599.25</v>
+        <v>843.25</v>
       </c>
       <c r="AE53" s="12">
         <f t="shared" si="7"/>
-        <v>627</v>
+        <v>799</v>
       </c>
       <c r="AF53" s="6"/>
       <c r="AG53" s="11">
@@ -17576,18 +17579,18 @@
         <v>633</v>
       </c>
       <c r="AA54" s="11">
-        <v>231</v>
+        <v>1206</v>
       </c>
       <c r="AB54" s="11">
         <v>629</v>
       </c>
       <c r="AD54" s="12">
         <f t="shared" si="6"/>
-        <v>707.25</v>
+        <v>951</v>
       </c>
       <c r="AE54" s="12">
         <f t="shared" si="7"/>
-        <v>631</v>
+        <v>919.5</v>
       </c>
       <c r="AF54" s="6"/>
       <c r="AG54" s="11">
@@ -17705,18 +17708,18 @@
         <v>737</v>
       </c>
       <c r="AA55" s="11">
-        <v>231</v>
+        <v>1388</v>
       </c>
       <c r="AB55" s="11">
         <v>856</v>
       </c>
       <c r="AD55" s="12">
         <f t="shared" si="6"/>
-        <v>722.75</v>
+        <v>1012</v>
       </c>
       <c r="AE55" s="12">
         <f t="shared" si="7"/>
-        <v>796.5</v>
+        <v>961.5</v>
       </c>
       <c r="AF55" s="6"/>
       <c r="AG55" s="11">
@@ -17773,10 +17776,10 @@
       <c r="I56" s="14"/>
       <c r="M56" s="11"/>
       <c r="O56" s="11"/>
-      <c r="AS56" s="15"/>
-      <c r="AT56" s="15"/>
-      <c r="AU56" s="15"/>
-      <c r="AV56" s="15"/>
+      <c r="AS56" s="14"/>
+      <c r="AT56" s="14"/>
+      <c r="AU56" s="14"/>
+      <c r="AV56" s="14"/>
     </row>
     <row r="57" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A57" s="14"/>

--- a/DataAnalysis.xlsx
+++ b/DataAnalysis.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b4a5232a0414c816/Desktop/CS/Projects/AI/DinoBot-NEAT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="361" documentId="8_{DD3677FD-A2AB-4BC8-9CAD-5FE5C560B1A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8BAFE5F1-BB49-4825-A89F-3140D16D613E}"/>
+  <xr:revisionPtr revIDLastSave="633" documentId="8_{DD3677FD-A2AB-4BC8-9CAD-5FE5C560B1A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ECEAAAFF-98F9-4CC2-A313-125883397D90}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{F16A38F1-B42C-4B58-9450-487B8984C1BF}"/>
+    <workbookView xWindow="38280" yWindow="2640" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{F16A38F1-B42C-4B58-9450-487B8984C1BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Population Analysis" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="NEAT" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="48">
   <si>
     <t xml:space="preserve">Population Trials:  </t>
   </si>
@@ -114,12 +113,81 @@
   <si>
     <t>Median[100</t>
   </si>
+  <si>
+    <t>NEAT Algorithm Optimization</t>
+  </si>
+  <si>
+    <t>Trial 6</t>
+  </si>
+  <si>
+    <t>Trial 7</t>
+  </si>
+  <si>
+    <t>Trial 8</t>
+  </si>
+  <si>
+    <t>Trial 9</t>
+  </si>
+  <si>
+    <t>Trial 10</t>
+  </si>
+  <si>
+    <t>Running genome size of 50 with varying input to see most optimal algorithm</t>
+  </si>
+  <si>
+    <t>Random Ouput</t>
+  </si>
+  <si>
+    <t>2 Inputs [Y distance of Dino, Distance between Dino and midtop of obstacle]</t>
+  </si>
+  <si>
+    <t>3 Inputs [Y distance of Dino, Distance between Dino and topleft of obstacle,  Distance between Dino and top right of obstacle]</t>
+  </si>
+  <si>
+    <t>trial 1</t>
+  </si>
+  <si>
+    <t>trial 2</t>
+  </si>
+  <si>
+    <t>trial 3</t>
+  </si>
+  <si>
+    <t>trial 4</t>
+  </si>
+  <si>
+    <t>trial 5</t>
+  </si>
+  <si>
+    <t>trial 6</t>
+  </si>
+  <si>
+    <t>trial 7</t>
+  </si>
+  <si>
+    <t>trial 8</t>
+  </si>
+  <si>
+    <t>trial 9</t>
+  </si>
+  <si>
+    <t>trial 10</t>
+  </si>
+  <si>
+    <t>2 Inputs [Y distance of Dino, Distance between Dino and topleft of obstacle]</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,8 +245,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -205,6 +288,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEEB7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -237,7 +344,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -264,6 +371,29 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -271,6 +401,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFEEB7"/>
+      <color rgb="FFFFD961"/>
+      <color rgb="FFFFFF99"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -6749,6 +6886,1073 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Average Score Over Gen</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>NEAT!$K$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:val>
+            <c:numRef>
+              <c:f>NEAT!$K$6:$K$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>154.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>155.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>163.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>170.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>186.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>177.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>162.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>177.3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>154.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>162.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>177.3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>154.4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>171.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>155.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>194.4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>155.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>176.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>161.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>155.4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>162.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>163.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>163.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>178.3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>178.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>177.7</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>171.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>155.6</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>187.4</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>178.7</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>186.1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>176.4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>155.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>163.5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>169.1</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>171.9</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>155.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>178.7</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>155.9</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>163.4</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>161.9</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>170.3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>161.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>169.2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>155.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>155.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>170.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0B29-4772-ADB1-392CEE061DA3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>NEAT!$V$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:val>
+            <c:numRef>
+              <c:f>NEAT!$V$6:$V$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>362.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>545.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>624.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>621.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>584</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>666.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>718.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>667.9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>599.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>542.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>615.70000000000005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>642.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>589.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>586.29999999999995</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>672.9</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>676.6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>665.9</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>731.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>649.1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>613.4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>660.3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>589.9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>684.9</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>593.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>578.79999999999995</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>688</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>723.7</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>769.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>674.3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>662</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>692.9</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>682.1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>784.3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>746.8</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>777.7</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>721.9</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>778.6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>730.9</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>803.1</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>745.2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>769.8</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>757.7</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>776.1</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>741.4</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>781.8</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>696.9</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>640.4</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>559.5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>742.6</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>728.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0B29-4772-ADB1-392CEE061DA3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:val>
+            <c:numRef>
+              <c:f>NEAT!$AG$6:$AG$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>429.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>523.29999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>579.29999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>597</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>696.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>810</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>694.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>722.9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>801.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>744.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>681.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>785.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>853.4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>932.4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>759</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>798.2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>717.8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>758.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>733.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>676.6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>723.9</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>714.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>735.9</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>784.3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>855.2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>674.8</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>626.9</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>750.1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>649.29999999999995</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>721.6</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>609.70000000000005</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>722.4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>572.1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>717.1</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>621.9</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>685.1</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>616.20000000000005</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>674.3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>811.2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>769.3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>712.9</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>836.7</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>837.8</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>635.5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>805</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>817.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>965.4</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>845.8</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>748.7</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>804</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-0B29-4772-ADB1-392CEE061DA3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:val>
+            <c:numRef>
+              <c:f>NEAT!$AR$6:$AR$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>365.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>392.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>497.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>659.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>773.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>621.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>768.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>600.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>613.70000000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>618.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>664.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>728.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>668.4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>725.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>810.2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>756.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>696.9</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>796.1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>750.4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>731.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>742.7</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>839.9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>727.4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>707.8</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>713.6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>766.9</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>850.9</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>775.8</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>702</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>860.3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>799.7</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>878.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>656.4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>721.6</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>781.8</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>772.9</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>890</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>775.3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>751.8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>731.8</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>810.2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>679.5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>770.5</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>927.9</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>756.7</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>778.4</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>885.6</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>865.7</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>810.9</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>882.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-0B29-4772-ADB1-392CEE061DA3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1028605775"/>
+        <c:axId val="1028603375"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1028605775"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1028603375"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1028603375"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1028605775"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -6990,6 +8194,46 @@
 </file>
 
 <file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -10621,6 +11865,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -10888,8 +12648,45 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>15874</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>167568</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D9C182F-AC87-AB92-8991-6F494906F8EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11211,8 +13008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{900E8F99-93E9-4FEE-AE22-1E57C01964FE}">
   <dimension ref="A1:AV104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="59" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AE59" sqref="AE59"/>
+    <sheetView topLeftCell="A36" zoomScale="59" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AF59" sqref="AF59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -11229,7 +13026,10 @@
     <col min="24" max="29" width="8.7265625" style="2"/>
     <col min="30" max="30" width="12.81640625" style="2" customWidth="1"/>
     <col min="31" max="31" width="11.36328125" style="2" customWidth="1"/>
-    <col min="32" max="37" width="8.7265625" style="2"/>
+    <col min="32" max="32" width="13.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="8.7265625" style="2"/>
+    <col min="34" max="34" width="13.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="37" width="8.7265625" style="2"/>
     <col min="38" max="38" width="12.90625" style="2" customWidth="1"/>
     <col min="39" max="39" width="12" style="2" customWidth="1"/>
     <col min="40" max="45" width="8.7265625" style="2"/>
@@ -19336,114 +21136,7401 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CA6133C-7B8D-4CE6-BC4F-0E80738E6184}">
-  <dimension ref="E4:E36"/>
+  <dimension ref="A1:BF315"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+    <sheetView tabSelected="1" topLeftCell="K17" zoomScale="64" zoomScaleNormal="72" workbookViewId="0">
+      <selection activeCell="AK64" sqref="AK64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="28" max="28" width="9.90625" customWidth="1"/>
+    <col min="44" max="44" width="10.36328125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="4" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E4" s="1"/>
+    <row r="1" spans="1:58" x14ac:dyDescent="0.35">
+      <c r="A1" s="14" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="5" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E5" s="1"/>
+    <row r="2" spans="1:58" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="6" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E6" s="1"/>
+    <row r="4" spans="1:58" s="15" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="5"/>
+      <c r="AE4" s="5"/>
+      <c r="AF4" s="5"/>
+      <c r="AG4" s="5"/>
+      <c r="AH4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI4" s="4"/>
+      <c r="AJ4" s="4"/>
+      <c r="AK4" s="4"/>
+      <c r="AL4" s="5"/>
+      <c r="AM4" s="5"/>
+      <c r="AN4" s="5"/>
+      <c r="AO4" s="5"/>
+      <c r="AP4" s="5"/>
+      <c r="AQ4" s="5"/>
+      <c r="AR4" s="5"/>
+      <c r="AS4" s="4"/>
+      <c r="AT4" s="4"/>
+      <c r="AU4" s="4"/>
+      <c r="AV4" s="4"/>
+      <c r="AW4" s="5"/>
     </row>
-    <row r="7" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E7" s="1"/>
+    <row r="5" spans="1:58" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K5" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="V5" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="X5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG5" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AM5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AN5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AO5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AP5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AQ5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AR5" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="AS5" s="16"/>
+      <c r="AT5" s="16"/>
+      <c r="AU5" s="16"/>
+      <c r="AV5" s="16"/>
+      <c r="AW5" s="17"/>
+      <c r="AX5" s="16"/>
+      <c r="AY5" s="16"/>
+      <c r="AZ5" s="16"/>
+      <c r="BA5" s="16"/>
+      <c r="BB5" s="17"/>
+      <c r="BC5" s="18"/>
+      <c r="BD5" s="18"/>
+      <c r="BE5" s="18"/>
+      <c r="BF5" s="18"/>
     </row>
-    <row r="8" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E8" s="1"/>
+    <row r="6" spans="1:58" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="19">
+        <v>152</v>
+      </c>
+      <c r="B6" s="19">
+        <v>156</v>
+      </c>
+      <c r="C6" s="19">
+        <v>153</v>
+      </c>
+      <c r="D6" s="19">
+        <v>155</v>
+      </c>
+      <c r="E6" s="19">
+        <v>156</v>
+      </c>
+      <c r="F6" s="19">
+        <v>155</v>
+      </c>
+      <c r="G6" s="19">
+        <v>157</v>
+      </c>
+      <c r="H6" s="19">
+        <v>154</v>
+      </c>
+      <c r="I6" s="19">
+        <v>155</v>
+      </c>
+      <c r="J6" s="19">
+        <v>154</v>
+      </c>
+      <c r="K6" s="23">
+        <f>AVERAGE(A6:J6)</f>
+        <v>154.69999999999999</v>
+      </c>
+      <c r="L6" s="20">
+        <v>226</v>
+      </c>
+      <c r="M6" s="20">
+        <v>230</v>
+      </c>
+      <c r="N6" s="20">
+        <v>232</v>
+      </c>
+      <c r="O6" s="20">
+        <v>233</v>
+      </c>
+      <c r="P6" s="20">
+        <v>234</v>
+      </c>
+      <c r="Q6" s="20">
+        <v>233</v>
+      </c>
+      <c r="R6" s="20">
+        <v>569</v>
+      </c>
+      <c r="S6" s="20">
+        <v>748</v>
+      </c>
+      <c r="T6" s="20">
+        <v>689</v>
+      </c>
+      <c r="U6" s="20">
+        <v>234</v>
+      </c>
+      <c r="V6" s="23">
+        <f>AVERAGE(L6:U6)</f>
+        <v>362.8</v>
+      </c>
+      <c r="W6" s="21">
+        <v>1011</v>
+      </c>
+      <c r="X6" s="21">
+        <v>232</v>
+      </c>
+      <c r="Y6" s="21">
+        <v>233</v>
+      </c>
+      <c r="Z6" s="21">
+        <v>438</v>
+      </c>
+      <c r="AA6" s="21">
+        <v>437</v>
+      </c>
+      <c r="AB6" s="3">
+        <v>1014</v>
+      </c>
+      <c r="AC6" s="3">
+        <v>233</v>
+      </c>
+      <c r="AD6" s="3">
+        <v>234</v>
+      </c>
+      <c r="AE6" s="3">
+        <v>233</v>
+      </c>
+      <c r="AF6" s="1">
+        <v>234</v>
+      </c>
+      <c r="AG6" s="23">
+        <f>AVERAGE(W6:AF6)</f>
+        <v>429.9</v>
+      </c>
+      <c r="AH6" s="24">
+        <v>152</v>
+      </c>
+      <c r="AI6" s="24">
+        <v>233</v>
+      </c>
+      <c r="AJ6" s="24">
+        <v>233</v>
+      </c>
+      <c r="AK6" s="24">
+        <v>233</v>
+      </c>
+      <c r="AL6" s="24">
+        <v>565</v>
+      </c>
+      <c r="AM6" s="24">
+        <v>306</v>
+      </c>
+      <c r="AN6" s="3">
+        <v>958</v>
+      </c>
+      <c r="AO6" s="3">
+        <v>441</v>
+      </c>
+      <c r="AP6" s="3">
+        <v>301</v>
+      </c>
+      <c r="AQ6" s="3">
+        <v>230</v>
+      </c>
+      <c r="AR6" s="23">
+        <f>AVERAGE(AH6:AQ6)</f>
+        <v>365.2</v>
+      </c>
+      <c r="AS6" s="18"/>
+      <c r="AT6" s="18"/>
+      <c r="AU6" s="18"/>
+      <c r="AV6" s="18"/>
+      <c r="AW6" s="18"/>
+      <c r="AX6" s="18"/>
+      <c r="AY6" s="18"/>
+      <c r="AZ6" s="18"/>
+      <c r="BA6" s="18"/>
+      <c r="BB6" s="18"/>
+      <c r="BC6" s="18"/>
+      <c r="BD6" s="18"/>
+      <c r="BE6" s="18"/>
+      <c r="BF6" s="18"/>
     </row>
-    <row r="9" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E9" s="1"/>
+    <row r="7" spans="1:58" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="19">
+        <v>152</v>
+      </c>
+      <c r="B7" s="19">
+        <v>158</v>
+      </c>
+      <c r="C7" s="19">
+        <v>155</v>
+      </c>
+      <c r="D7" s="19">
+        <v>154</v>
+      </c>
+      <c r="E7" s="19">
+        <v>156</v>
+      </c>
+      <c r="F7" s="19">
+        <v>153</v>
+      </c>
+      <c r="G7" s="19">
+        <v>157</v>
+      </c>
+      <c r="H7" s="19">
+        <v>155</v>
+      </c>
+      <c r="I7" s="19">
+        <v>159</v>
+      </c>
+      <c r="J7" s="19">
+        <v>155</v>
+      </c>
+      <c r="K7" s="23">
+        <f t="shared" ref="K7:K55" si="0">AVERAGE(A7:J7)</f>
+        <v>155.4</v>
+      </c>
+      <c r="L7" s="20">
+        <v>796</v>
+      </c>
+      <c r="M7" s="20">
+        <v>624</v>
+      </c>
+      <c r="N7" s="20">
+        <v>151</v>
+      </c>
+      <c r="O7" s="20">
+        <v>232</v>
+      </c>
+      <c r="P7" s="20">
+        <v>302</v>
+      </c>
+      <c r="Q7" s="20">
+        <v>1014</v>
+      </c>
+      <c r="R7" s="20">
+        <v>748</v>
+      </c>
+      <c r="S7" s="20">
+        <v>748</v>
+      </c>
+      <c r="T7" s="20">
+        <v>684</v>
+      </c>
+      <c r="U7" s="20">
+        <v>152</v>
+      </c>
+      <c r="V7" s="23">
+        <f t="shared" ref="V7:V55" si="1">AVERAGE(L7:U7)</f>
+        <v>545.1</v>
+      </c>
+      <c r="W7" s="21">
+        <v>855</v>
+      </c>
+      <c r="X7" s="21">
+        <v>298</v>
+      </c>
+      <c r="Y7" s="21">
+        <v>305</v>
+      </c>
+      <c r="Z7" s="21">
+        <v>508</v>
+      </c>
+      <c r="AA7" s="21">
+        <v>686</v>
+      </c>
+      <c r="AB7" s="3">
+        <v>303</v>
+      </c>
+      <c r="AC7" s="3">
+        <v>1067</v>
+      </c>
+      <c r="AD7" s="3">
+        <v>748</v>
+      </c>
+      <c r="AE7" s="3">
+        <v>231</v>
+      </c>
+      <c r="AF7" s="1">
+        <v>232</v>
+      </c>
+      <c r="AG7" s="23">
+        <f t="shared" ref="AG7:AG55" si="2">AVERAGE(W7:AF7)</f>
+        <v>523.29999999999995</v>
+      </c>
+      <c r="AH7" s="24">
+        <v>232</v>
+      </c>
+      <c r="AI7" s="24">
+        <v>231</v>
+      </c>
+      <c r="AJ7" s="24">
+        <v>376</v>
+      </c>
+      <c r="AK7" s="24">
+        <v>151</v>
+      </c>
+      <c r="AL7" s="24">
+        <v>631</v>
+      </c>
+      <c r="AM7" s="24">
+        <v>622</v>
+      </c>
+      <c r="AN7" s="3">
+        <v>919</v>
+      </c>
+      <c r="AO7" s="3">
+        <v>231</v>
+      </c>
+      <c r="AP7" s="3">
+        <v>226</v>
+      </c>
+      <c r="AQ7" s="3">
+        <v>302</v>
+      </c>
+      <c r="AR7" s="23">
+        <f>AVERAGE(AH7:AQ7)</f>
+        <v>392.1</v>
+      </c>
     </row>
-    <row r="10" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E10" s="1"/>
+    <row r="8" spans="1:58" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="19">
+        <v>154</v>
+      </c>
+      <c r="B8" s="19">
+        <v>156</v>
+      </c>
+      <c r="C8" s="19">
+        <v>153</v>
+      </c>
+      <c r="D8" s="19">
+        <v>237</v>
+      </c>
+      <c r="E8" s="19">
+        <v>157</v>
+      </c>
+      <c r="F8" s="19">
+        <v>155</v>
+      </c>
+      <c r="G8" s="19">
+        <v>154</v>
+      </c>
+      <c r="H8" s="19">
+        <v>155</v>
+      </c>
+      <c r="I8" s="19">
+        <v>158</v>
+      </c>
+      <c r="J8" s="19">
+        <v>155</v>
+      </c>
+      <c r="K8" s="23">
+        <f t="shared" si="0"/>
+        <v>163.4</v>
+      </c>
+      <c r="L8" s="20">
+        <v>802</v>
+      </c>
+      <c r="M8" s="20">
+        <v>633</v>
+      </c>
+      <c r="N8" s="20">
+        <v>503</v>
+      </c>
+      <c r="O8" s="20">
+        <v>231</v>
+      </c>
+      <c r="P8" s="20">
+        <v>230</v>
+      </c>
+      <c r="Q8" s="20">
+        <v>1348</v>
+      </c>
+      <c r="R8" s="20">
+        <v>438</v>
+      </c>
+      <c r="S8" s="20">
+        <v>743</v>
+      </c>
+      <c r="T8" s="20">
+        <v>691</v>
+      </c>
+      <c r="U8" s="20">
+        <v>630</v>
+      </c>
+      <c r="V8" s="23">
+        <f t="shared" si="1"/>
+        <v>624.9</v>
+      </c>
+      <c r="W8" s="21">
+        <v>741</v>
+      </c>
+      <c r="X8" s="21">
+        <v>232</v>
+      </c>
+      <c r="Y8" s="21">
+        <v>231</v>
+      </c>
+      <c r="Z8" s="21">
+        <v>628</v>
+      </c>
+      <c r="AA8" s="21">
+        <v>908</v>
+      </c>
+      <c r="AB8" s="3">
+        <v>909</v>
+      </c>
+      <c r="AC8" s="3">
+        <v>1244</v>
+      </c>
+      <c r="AD8" s="3">
+        <v>435</v>
+      </c>
+      <c r="AE8" s="3">
+        <v>233</v>
+      </c>
+      <c r="AF8" s="1">
+        <v>232</v>
+      </c>
+      <c r="AG8" s="23">
+        <f t="shared" si="2"/>
+        <v>579.29999999999995</v>
+      </c>
+      <c r="AH8" s="24">
+        <v>159</v>
+      </c>
+      <c r="AI8" s="24">
+        <v>437</v>
+      </c>
+      <c r="AJ8" s="24">
+        <v>628</v>
+      </c>
+      <c r="AK8" s="24">
+        <v>231</v>
+      </c>
+      <c r="AL8" s="24">
+        <v>1012</v>
+      </c>
+      <c r="AM8" s="24">
+        <v>510</v>
+      </c>
+      <c r="AN8" s="3">
+        <v>960</v>
+      </c>
+      <c r="AO8" s="3">
+        <v>441</v>
+      </c>
+      <c r="AP8" s="3">
+        <v>299</v>
+      </c>
+      <c r="AQ8" s="3">
+        <v>301</v>
+      </c>
+      <c r="AR8" s="23">
+        <f>AVERAGE(AH8:AQ8)</f>
+        <v>497.8</v>
+      </c>
     </row>
-    <row r="11" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E11" s="1"/>
+    <row r="9" spans="1:58" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="19">
+        <v>154</v>
+      </c>
+      <c r="B9" s="19">
+        <v>154</v>
+      </c>
+      <c r="C9" s="19">
+        <v>155</v>
+      </c>
+      <c r="D9" s="19">
+        <v>157</v>
+      </c>
+      <c r="E9" s="19">
+        <v>151</v>
+      </c>
+      <c r="F9" s="19">
+        <v>236</v>
+      </c>
+      <c r="G9" s="19">
+        <v>235</v>
+      </c>
+      <c r="H9" s="19">
+        <v>154</v>
+      </c>
+      <c r="I9" s="19">
+        <v>153</v>
+      </c>
+      <c r="J9" s="19">
+        <v>152</v>
+      </c>
+      <c r="K9" s="23">
+        <f t="shared" si="0"/>
+        <v>170.1</v>
+      </c>
+      <c r="L9" s="20">
+        <v>810</v>
+      </c>
+      <c r="M9" s="20">
+        <v>630</v>
+      </c>
+      <c r="N9" s="20">
+        <v>1156</v>
+      </c>
+      <c r="O9" s="20">
+        <v>230</v>
+      </c>
+      <c r="P9" s="20">
+        <v>231</v>
+      </c>
+      <c r="Q9" s="20">
+        <v>749</v>
+      </c>
+      <c r="R9" s="20">
+        <v>441</v>
+      </c>
+      <c r="S9" s="20">
+        <v>958</v>
+      </c>
+      <c r="T9" s="20">
+        <v>507</v>
+      </c>
+      <c r="U9" s="20">
+        <v>503</v>
+      </c>
+      <c r="V9" s="23">
+        <f t="shared" si="1"/>
+        <v>621.5</v>
+      </c>
+      <c r="W9" s="21">
+        <v>232</v>
+      </c>
+      <c r="X9" s="21">
+        <v>446</v>
+      </c>
+      <c r="Y9" s="21">
+        <v>231</v>
+      </c>
+      <c r="Z9" s="21">
+        <v>632</v>
+      </c>
+      <c r="AA9" s="21">
+        <v>1010</v>
+      </c>
+      <c r="AB9" s="3">
+        <v>302</v>
+      </c>
+      <c r="AC9" s="3">
+        <v>1068</v>
+      </c>
+      <c r="AD9" s="3">
+        <v>567</v>
+      </c>
+      <c r="AE9" s="3">
+        <v>1250</v>
+      </c>
+      <c r="AF9" s="1">
+        <v>232</v>
+      </c>
+      <c r="AG9" s="23">
+        <f t="shared" si="2"/>
+        <v>597</v>
+      </c>
+      <c r="AH9" s="24">
+        <v>441</v>
+      </c>
+      <c r="AI9" s="24">
+        <v>439</v>
+      </c>
+      <c r="AJ9" s="24">
+        <v>629</v>
+      </c>
+      <c r="AK9" s="24">
+        <v>227</v>
+      </c>
+      <c r="AL9" s="24">
+        <v>957</v>
+      </c>
+      <c r="AM9" s="24">
+        <v>861</v>
+      </c>
+      <c r="AN9" s="3">
+        <v>915</v>
+      </c>
+      <c r="AO9" s="3">
+        <v>809</v>
+      </c>
+      <c r="AP9" s="3">
+        <v>629</v>
+      </c>
+      <c r="AQ9" s="3">
+        <v>688</v>
+      </c>
+      <c r="AR9" s="23">
+        <f>AVERAGE(AH9:AQ9)</f>
+        <v>659.5</v>
+      </c>
     </row>
-    <row r="12" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E12" s="1"/>
+    <row r="10" spans="1:58" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="19">
+        <v>154</v>
+      </c>
+      <c r="B10" s="19">
+        <v>154</v>
+      </c>
+      <c r="C10" s="19">
+        <v>156</v>
+      </c>
+      <c r="D10" s="19">
+        <v>157</v>
+      </c>
+      <c r="E10" s="19">
+        <v>309</v>
+      </c>
+      <c r="F10" s="19">
+        <v>156</v>
+      </c>
+      <c r="G10" s="19">
+        <v>155</v>
+      </c>
+      <c r="H10" s="19">
+        <v>232</v>
+      </c>
+      <c r="I10" s="19">
+        <v>153</v>
+      </c>
+      <c r="J10" s="19">
+        <v>236</v>
+      </c>
+      <c r="K10" s="23">
+        <f t="shared" si="0"/>
+        <v>186.2</v>
+      </c>
+      <c r="L10" s="20">
+        <v>685</v>
+      </c>
+      <c r="M10" s="20">
+        <v>507</v>
+      </c>
+      <c r="N10" s="20">
+        <v>807</v>
+      </c>
+      <c r="O10" s="20">
+        <v>233</v>
+      </c>
+      <c r="P10" s="20">
+        <v>232</v>
+      </c>
+      <c r="Q10" s="20">
+        <v>748</v>
+      </c>
+      <c r="R10" s="20">
+        <v>504</v>
+      </c>
+      <c r="S10" s="20">
+        <v>688</v>
+      </c>
+      <c r="T10" s="20">
+        <v>687</v>
+      </c>
+      <c r="U10" s="20">
+        <v>749</v>
+      </c>
+      <c r="V10" s="23">
+        <f t="shared" si="1"/>
+        <v>584</v>
+      </c>
+      <c r="W10" s="21">
+        <v>232</v>
+      </c>
+      <c r="X10" s="21">
+        <v>1550</v>
+      </c>
+      <c r="Y10" s="21">
+        <v>232</v>
+      </c>
+      <c r="Z10" s="21">
+        <v>623</v>
+      </c>
+      <c r="AA10" s="21">
+        <v>964</v>
+      </c>
+      <c r="AB10" s="3">
+        <v>232</v>
+      </c>
+      <c r="AC10" s="3">
+        <v>1061</v>
+      </c>
+      <c r="AD10" s="3">
+        <v>630</v>
+      </c>
+      <c r="AE10" s="3">
+        <v>1210</v>
+      </c>
+      <c r="AF10" s="1">
+        <v>230</v>
+      </c>
+      <c r="AG10" s="23">
+        <f t="shared" si="2"/>
+        <v>696.4</v>
+      </c>
+      <c r="AH10" s="24">
+        <v>501</v>
+      </c>
+      <c r="AI10" s="24">
+        <v>439</v>
+      </c>
+      <c r="AJ10" s="24">
+        <v>565</v>
+      </c>
+      <c r="AK10" s="24">
+        <v>299</v>
+      </c>
+      <c r="AL10" s="24">
+        <v>1016</v>
+      </c>
+      <c r="AM10" s="24">
+        <v>1055</v>
+      </c>
+      <c r="AN10" s="3">
+        <v>963</v>
+      </c>
+      <c r="AO10" s="3">
+        <v>1017</v>
+      </c>
+      <c r="AP10" s="3">
+        <v>1251</v>
+      </c>
+      <c r="AQ10" s="3">
+        <v>627</v>
+      </c>
+      <c r="AR10" s="23">
+        <f>AVERAGE(AH10:AQ10)</f>
+        <v>773.3</v>
+      </c>
     </row>
-    <row r="13" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E13" s="1"/>
+    <row r="11" spans="1:58" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="19">
+        <v>154</v>
+      </c>
+      <c r="B11" s="19">
+        <v>156</v>
+      </c>
+      <c r="C11" s="19">
+        <v>228</v>
+      </c>
+      <c r="D11" s="19">
+        <v>155</v>
+      </c>
+      <c r="E11" s="19">
+        <v>154</v>
+      </c>
+      <c r="F11" s="19">
+        <v>225</v>
+      </c>
+      <c r="G11" s="19">
+        <v>236</v>
+      </c>
+      <c r="H11" s="19">
+        <v>156</v>
+      </c>
+      <c r="I11" s="19">
+        <v>154</v>
+      </c>
+      <c r="J11" s="19">
+        <v>154</v>
+      </c>
+      <c r="K11" s="23">
+        <f t="shared" si="0"/>
+        <v>177.2</v>
+      </c>
+      <c r="L11" s="20">
+        <v>744</v>
+      </c>
+      <c r="M11" s="20">
+        <v>1116</v>
+      </c>
+      <c r="N11" s="20">
+        <v>303</v>
+      </c>
+      <c r="O11" s="20">
+        <v>152</v>
+      </c>
+      <c r="P11" s="20">
+        <v>230</v>
+      </c>
+      <c r="Q11" s="20">
+        <v>912</v>
+      </c>
+      <c r="R11" s="20">
+        <v>685</v>
+      </c>
+      <c r="S11" s="20">
+        <v>807</v>
+      </c>
+      <c r="T11" s="20">
+        <v>750</v>
+      </c>
+      <c r="U11" s="20">
+        <v>963</v>
+      </c>
+      <c r="V11" s="23">
+        <f t="shared" si="1"/>
+        <v>666.2</v>
+      </c>
+      <c r="W11" s="21">
+        <v>443</v>
+      </c>
+      <c r="X11" s="21">
+        <v>914</v>
+      </c>
+      <c r="Y11" s="21">
+        <v>232</v>
+      </c>
+      <c r="Z11" s="21">
+        <v>1589</v>
+      </c>
+      <c r="AA11" s="21">
+        <v>1250</v>
+      </c>
+      <c r="AB11" s="3">
+        <v>627</v>
+      </c>
+      <c r="AC11" s="3">
+        <v>910</v>
+      </c>
+      <c r="AD11" s="3">
+        <v>565</v>
+      </c>
+      <c r="AE11" s="3">
+        <v>1336</v>
+      </c>
+      <c r="AF11" s="1">
+        <v>234</v>
+      </c>
+      <c r="AG11" s="23">
+        <f t="shared" si="2"/>
+        <v>810</v>
+      </c>
+      <c r="AH11" s="24">
+        <v>505</v>
+      </c>
+      <c r="AI11" s="24">
+        <v>442</v>
+      </c>
+      <c r="AJ11" s="24">
+        <v>507</v>
+      </c>
+      <c r="AK11" s="24">
+        <v>1014</v>
+      </c>
+      <c r="AL11" s="24">
+        <v>967</v>
+      </c>
+      <c r="AM11" s="24">
+        <v>442</v>
+      </c>
+      <c r="AN11" s="3">
+        <v>509</v>
+      </c>
+      <c r="AO11" s="3">
+        <v>232</v>
+      </c>
+      <c r="AP11" s="3">
+        <v>1293</v>
+      </c>
+      <c r="AQ11" s="3">
+        <v>300</v>
+      </c>
+      <c r="AR11" s="23">
+        <f>AVERAGE(AH11:AQ11)</f>
+        <v>621.1</v>
+      </c>
     </row>
-    <row r="14" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E14" s="1"/>
+    <row r="12" spans="1:58" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="19">
+        <v>153</v>
+      </c>
+      <c r="B12" s="19">
+        <v>154</v>
+      </c>
+      <c r="C12" s="19">
+        <v>158</v>
+      </c>
+      <c r="D12" s="19">
+        <v>155</v>
+      </c>
+      <c r="E12" s="19">
+        <v>154</v>
+      </c>
+      <c r="F12" s="19">
+        <v>153</v>
+      </c>
+      <c r="G12" s="19">
+        <v>156</v>
+      </c>
+      <c r="H12" s="19">
+        <v>157</v>
+      </c>
+      <c r="I12" s="19">
+        <v>155</v>
+      </c>
+      <c r="J12" s="19">
+        <v>155</v>
+      </c>
+      <c r="K12" s="23">
+        <f t="shared" si="0"/>
+        <v>155</v>
+      </c>
+      <c r="L12" s="20">
+        <v>749</v>
+      </c>
+      <c r="M12" s="20">
+        <v>1160</v>
+      </c>
+      <c r="N12" s="20">
+        <v>687</v>
+      </c>
+      <c r="O12" s="20">
+        <v>231</v>
+      </c>
+      <c r="P12" s="20">
+        <v>231</v>
+      </c>
+      <c r="Q12" s="20">
+        <v>962</v>
+      </c>
+      <c r="R12" s="20">
+        <v>1110</v>
+      </c>
+      <c r="S12" s="20">
+        <v>803</v>
+      </c>
+      <c r="T12" s="20">
+        <v>507</v>
+      </c>
+      <c r="U12" s="20">
+        <v>743</v>
+      </c>
+      <c r="V12" s="23">
+        <f t="shared" si="1"/>
+        <v>718.3</v>
+      </c>
+      <c r="W12" s="21">
+        <v>633</v>
+      </c>
+      <c r="X12" s="21">
+        <v>627</v>
+      </c>
+      <c r="Y12" s="21">
+        <v>232</v>
+      </c>
+      <c r="Z12" s="21">
+        <v>963</v>
+      </c>
+      <c r="AA12" s="21">
+        <v>1063</v>
+      </c>
+      <c r="AB12" s="3">
+        <v>506</v>
+      </c>
+      <c r="AC12" s="3">
+        <v>694</v>
+      </c>
+      <c r="AD12" s="3">
+        <v>683</v>
+      </c>
+      <c r="AE12" s="3">
+        <v>628</v>
+      </c>
+      <c r="AF12" s="1">
+        <v>912</v>
+      </c>
+      <c r="AG12" s="23">
+        <f t="shared" si="2"/>
+        <v>694.1</v>
+      </c>
+      <c r="AH12" s="24">
+        <v>437</v>
+      </c>
+      <c r="AI12" s="24">
+        <v>622</v>
+      </c>
+      <c r="AJ12" s="24">
+        <v>1510</v>
+      </c>
+      <c r="AK12" s="24">
+        <v>233</v>
+      </c>
+      <c r="AL12" s="24">
+        <v>1021</v>
+      </c>
+      <c r="AM12" s="24">
+        <v>1550</v>
+      </c>
+      <c r="AN12" s="3">
+        <v>630</v>
+      </c>
+      <c r="AO12" s="3">
+        <v>692</v>
+      </c>
+      <c r="AP12" s="3">
+        <v>233</v>
+      </c>
+      <c r="AQ12" s="3">
+        <v>753</v>
+      </c>
+      <c r="AR12" s="23">
+        <f>AVERAGE(AH12:AQ12)</f>
+        <v>768.1</v>
+      </c>
     </row>
-    <row r="15" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E15" s="1"/>
+    <row r="13" spans="1:58" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="19">
+        <v>225</v>
+      </c>
+      <c r="B13" s="19">
+        <v>154</v>
+      </c>
+      <c r="C13" s="19">
+        <v>155</v>
+      </c>
+      <c r="D13" s="19">
+        <v>154</v>
+      </c>
+      <c r="E13" s="19">
+        <v>152</v>
+      </c>
+      <c r="F13" s="19">
+        <v>155</v>
+      </c>
+      <c r="G13" s="19">
+        <v>159</v>
+      </c>
+      <c r="H13" s="19">
+        <v>157</v>
+      </c>
+      <c r="I13" s="19">
+        <v>155</v>
+      </c>
+      <c r="J13" s="19">
+        <v>158</v>
+      </c>
+      <c r="K13" s="23">
+        <f t="shared" si="0"/>
+        <v>162.4</v>
+      </c>
+      <c r="L13" s="20">
+        <v>628</v>
+      </c>
+      <c r="M13" s="20">
+        <v>1013</v>
+      </c>
+      <c r="N13" s="20">
+        <v>693</v>
+      </c>
+      <c r="O13" s="20">
+        <v>234</v>
+      </c>
+      <c r="P13" s="20">
+        <v>630</v>
+      </c>
+      <c r="Q13" s="20">
+        <v>688</v>
+      </c>
+      <c r="R13" s="20">
+        <v>627</v>
+      </c>
+      <c r="S13" s="20">
+        <v>623</v>
+      </c>
+      <c r="T13" s="20">
+        <v>697</v>
+      </c>
+      <c r="U13" s="20">
+        <v>846</v>
+      </c>
+      <c r="V13" s="23">
+        <f t="shared" si="1"/>
+        <v>667.9</v>
+      </c>
+      <c r="W13" s="21">
+        <v>738</v>
+      </c>
+      <c r="X13" s="21">
+        <v>807</v>
+      </c>
+      <c r="Y13" s="21">
+        <v>151</v>
+      </c>
+      <c r="Z13" s="21">
+        <v>438</v>
+      </c>
+      <c r="AA13" s="21">
+        <v>908</v>
+      </c>
+      <c r="AB13" s="3">
+        <v>1054</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>694</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>857</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>568</v>
+      </c>
+      <c r="AF13" s="1">
+        <v>1014</v>
+      </c>
+      <c r="AG13" s="23">
+        <f t="shared" si="2"/>
+        <v>722.9</v>
+      </c>
+      <c r="AH13" s="24">
+        <v>569</v>
+      </c>
+      <c r="AI13" s="24">
+        <v>742</v>
+      </c>
+      <c r="AJ13" s="24">
+        <v>232</v>
+      </c>
+      <c r="AK13" s="24">
+        <v>229</v>
+      </c>
+      <c r="AL13" s="24">
+        <v>1120</v>
+      </c>
+      <c r="AM13" s="24">
+        <v>1061</v>
+      </c>
+      <c r="AN13" s="3">
+        <v>502</v>
+      </c>
+      <c r="AO13" s="3">
+        <v>691</v>
+      </c>
+      <c r="AP13" s="3">
+        <v>228</v>
+      </c>
+      <c r="AQ13" s="3">
+        <v>630</v>
+      </c>
+      <c r="AR13" s="23">
+        <f>AVERAGE(AH13:AQ13)</f>
+        <v>600.4</v>
+      </c>
     </row>
-    <row r="16" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E16" s="1"/>
+    <row r="14" spans="1:58" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="19">
+        <v>230</v>
+      </c>
+      <c r="B14" s="19">
+        <v>225</v>
+      </c>
+      <c r="C14" s="19">
+        <v>233</v>
+      </c>
+      <c r="D14" s="19">
+        <v>157</v>
+      </c>
+      <c r="E14" s="19">
+        <v>154</v>
+      </c>
+      <c r="F14" s="19">
+        <v>157</v>
+      </c>
+      <c r="G14" s="19">
+        <v>154</v>
+      </c>
+      <c r="H14" s="19">
+        <v>154</v>
+      </c>
+      <c r="I14" s="19">
+        <v>154</v>
+      </c>
+      <c r="J14" s="19">
+        <v>155</v>
+      </c>
+      <c r="K14" s="23">
+        <f t="shared" si="0"/>
+        <v>177.3</v>
+      </c>
+      <c r="L14" s="20">
+        <v>682</v>
+      </c>
+      <c r="M14" s="20">
+        <v>916</v>
+      </c>
+      <c r="N14" s="20">
+        <v>858</v>
+      </c>
+      <c r="O14" s="20">
+        <v>233</v>
+      </c>
+      <c r="P14" s="20">
+        <v>232</v>
+      </c>
+      <c r="Q14" s="20">
+        <v>439</v>
+      </c>
+      <c r="R14" s="20">
+        <v>689</v>
+      </c>
+      <c r="S14" s="20">
+        <v>690</v>
+      </c>
+      <c r="T14" s="20">
+        <v>629</v>
+      </c>
+      <c r="U14" s="20">
+        <v>626</v>
+      </c>
+      <c r="V14" s="23">
+        <f t="shared" si="1"/>
+        <v>599.4</v>
+      </c>
+      <c r="W14" s="21">
+        <v>1060</v>
+      </c>
+      <c r="X14" s="21">
+        <v>623</v>
+      </c>
+      <c r="Y14" s="21">
+        <v>152</v>
+      </c>
+      <c r="Z14" s="21">
+        <v>749</v>
+      </c>
+      <c r="AA14" s="21">
+        <v>1119</v>
+      </c>
+      <c r="AB14" s="3">
+        <v>1066</v>
+      </c>
+      <c r="AC14" s="3">
+        <v>909</v>
+      </c>
+      <c r="AD14" s="3">
+        <v>856</v>
+      </c>
+      <c r="AE14" s="3">
+        <v>570</v>
+      </c>
+      <c r="AF14" s="1">
+        <v>914</v>
+      </c>
+      <c r="AG14" s="23">
+        <f t="shared" si="2"/>
+        <v>801.8</v>
+      </c>
+      <c r="AH14" s="24">
+        <v>749</v>
+      </c>
+      <c r="AI14" s="24">
+        <v>746</v>
+      </c>
+      <c r="AJ14" s="24">
+        <v>152</v>
+      </c>
+      <c r="AK14" s="24">
+        <v>231</v>
+      </c>
+      <c r="AL14" s="24">
+        <v>627</v>
+      </c>
+      <c r="AM14" s="24">
+        <v>1109</v>
+      </c>
+      <c r="AN14" s="3">
+        <v>625</v>
+      </c>
+      <c r="AO14" s="3">
+        <v>690</v>
+      </c>
+      <c r="AP14" s="3">
+        <v>300</v>
+      </c>
+      <c r="AQ14" s="3">
+        <v>908</v>
+      </c>
+      <c r="AR14" s="23">
+        <f>AVERAGE(AH14:AQ14)</f>
+        <v>613.70000000000005</v>
+      </c>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E17" s="1"/>
+    <row r="15" spans="1:58" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="19">
+        <v>155</v>
+      </c>
+      <c r="B15" s="19">
+        <v>151</v>
+      </c>
+      <c r="C15" s="19">
+        <v>155</v>
+      </c>
+      <c r="D15" s="19">
+        <v>155</v>
+      </c>
+      <c r="E15" s="19">
+        <v>157</v>
+      </c>
+      <c r="F15" s="19">
+        <v>157</v>
+      </c>
+      <c r="G15" s="19">
+        <v>155</v>
+      </c>
+      <c r="H15" s="19">
+        <v>153</v>
+      </c>
+      <c r="I15" s="19">
+        <v>154</v>
+      </c>
+      <c r="J15" s="19">
+        <v>154</v>
+      </c>
+      <c r="K15" s="23">
+        <f t="shared" si="0"/>
+        <v>154.6</v>
+      </c>
+      <c r="L15" s="20">
+        <v>628</v>
+      </c>
+      <c r="M15" s="20">
+        <v>232</v>
+      </c>
+      <c r="N15" s="20">
+        <v>750</v>
+      </c>
+      <c r="O15" s="20">
+        <v>231</v>
+      </c>
+      <c r="P15" s="20">
+        <v>151</v>
+      </c>
+      <c r="Q15" s="20">
+        <v>439</v>
+      </c>
+      <c r="R15" s="20">
+        <v>436</v>
+      </c>
+      <c r="S15" s="20">
+        <v>856</v>
+      </c>
+      <c r="T15" s="20">
+        <v>1068</v>
+      </c>
+      <c r="U15" s="20">
+        <v>630</v>
+      </c>
+      <c r="V15" s="23">
+        <f t="shared" si="1"/>
+        <v>542.1</v>
+      </c>
+      <c r="W15" s="21">
+        <v>956</v>
+      </c>
+      <c r="X15" s="21">
+        <v>855</v>
+      </c>
+      <c r="Y15" s="21">
+        <v>232</v>
+      </c>
+      <c r="Z15" s="21">
+        <v>442</v>
+      </c>
+      <c r="AA15" s="21">
+        <v>1109</v>
+      </c>
+      <c r="AB15" s="3">
+        <v>956</v>
+      </c>
+      <c r="AC15" s="3">
+        <v>232</v>
+      </c>
+      <c r="AD15" s="3">
+        <v>1117</v>
+      </c>
+      <c r="AE15" s="3">
+        <v>629</v>
+      </c>
+      <c r="AF15" s="1">
+        <v>913</v>
+      </c>
+      <c r="AG15" s="23">
+        <f t="shared" si="2"/>
+        <v>744.1</v>
+      </c>
+      <c r="AH15" s="24">
+        <v>794</v>
+      </c>
+      <c r="AI15" s="24">
+        <v>630</v>
+      </c>
+      <c r="AJ15" s="24">
+        <v>231</v>
+      </c>
+      <c r="AK15" s="24">
+        <v>150</v>
+      </c>
+      <c r="AL15" s="24">
+        <v>963</v>
+      </c>
+      <c r="AM15" s="24">
+        <v>1011</v>
+      </c>
+      <c r="AN15" s="3">
+        <v>629</v>
+      </c>
+      <c r="AO15" s="3">
+        <v>915</v>
+      </c>
+      <c r="AP15" s="3">
+        <v>231</v>
+      </c>
+      <c r="AQ15" s="3">
+        <v>631</v>
+      </c>
+      <c r="AR15" s="23">
+        <f>AVERAGE(AH15:AQ15)</f>
+        <v>618.5</v>
+      </c>
     </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E18" s="1"/>
+    <row r="16" spans="1:58" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="19">
+        <v>158</v>
+      </c>
+      <c r="B16" s="19">
+        <v>155</v>
+      </c>
+      <c r="C16" s="19">
+        <v>154</v>
+      </c>
+      <c r="D16" s="19">
+        <v>156</v>
+      </c>
+      <c r="E16" s="19">
+        <v>154</v>
+      </c>
+      <c r="F16" s="19">
+        <v>154</v>
+      </c>
+      <c r="G16" s="19">
+        <v>155</v>
+      </c>
+      <c r="H16" s="19">
+        <v>153</v>
+      </c>
+      <c r="I16" s="19">
+        <v>233</v>
+      </c>
+      <c r="J16" s="19">
+        <v>156</v>
+      </c>
+      <c r="K16" s="23">
+        <f t="shared" si="0"/>
+        <v>162.80000000000001</v>
+      </c>
+      <c r="L16" s="20">
+        <v>507</v>
+      </c>
+      <c r="M16" s="20">
+        <v>233</v>
+      </c>
+      <c r="N16" s="20">
+        <v>750</v>
+      </c>
+      <c r="O16" s="20">
+        <v>232</v>
+      </c>
+      <c r="P16" s="20">
+        <v>908</v>
+      </c>
+      <c r="Q16" s="20">
+        <v>445</v>
+      </c>
+      <c r="R16" s="20">
+        <v>444</v>
+      </c>
+      <c r="S16" s="20">
+        <v>746</v>
+      </c>
+      <c r="T16" s="20">
+        <v>1209</v>
+      </c>
+      <c r="U16" s="20">
+        <v>683</v>
+      </c>
+      <c r="V16" s="23">
+        <f t="shared" si="1"/>
+        <v>615.70000000000005</v>
+      </c>
+      <c r="W16" s="21">
+        <v>958</v>
+      </c>
+      <c r="X16" s="21">
+        <v>626</v>
+      </c>
+      <c r="Y16" s="21">
+        <v>151</v>
+      </c>
+      <c r="Z16" s="21">
+        <v>442</v>
+      </c>
+      <c r="AA16" s="21">
+        <v>1067</v>
+      </c>
+      <c r="AB16" s="3">
+        <v>739</v>
+      </c>
+      <c r="AC16" s="3">
+        <v>373</v>
+      </c>
+      <c r="AD16" s="3">
+        <v>629</v>
+      </c>
+      <c r="AE16" s="3">
+        <v>1207</v>
+      </c>
+      <c r="AF16" s="1">
+        <v>623</v>
+      </c>
+      <c r="AG16" s="23">
+        <f t="shared" si="2"/>
+        <v>681.5</v>
+      </c>
+      <c r="AH16" s="24">
+        <v>506</v>
+      </c>
+      <c r="AI16" s="24">
+        <v>693</v>
+      </c>
+      <c r="AJ16" s="24">
+        <v>232</v>
+      </c>
+      <c r="AK16" s="24">
+        <v>233</v>
+      </c>
+      <c r="AL16" s="24">
+        <v>1013</v>
+      </c>
+      <c r="AM16" s="24">
+        <v>958</v>
+      </c>
+      <c r="AN16" s="3">
+        <v>628</v>
+      </c>
+      <c r="AO16" s="3">
+        <v>690</v>
+      </c>
+      <c r="AP16" s="3">
+        <v>1058</v>
+      </c>
+      <c r="AQ16" s="3">
+        <v>631</v>
+      </c>
+      <c r="AR16" s="23">
+        <f>AVERAGE(AH16:AQ16)</f>
+        <v>664.2</v>
+      </c>
     </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E19" s="1"/>
+    <row r="17" spans="1:44" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="19">
+        <v>154</v>
+      </c>
+      <c r="B17" s="19">
+        <v>236</v>
+      </c>
+      <c r="C17" s="19">
+        <v>231</v>
+      </c>
+      <c r="D17" s="19">
+        <v>154</v>
+      </c>
+      <c r="E17" s="19">
+        <v>155</v>
+      </c>
+      <c r="F17" s="19">
+        <v>154</v>
+      </c>
+      <c r="G17" s="19">
+        <v>156</v>
+      </c>
+      <c r="H17" s="19">
+        <v>155</v>
+      </c>
+      <c r="I17" s="19">
+        <v>223</v>
+      </c>
+      <c r="J17" s="19">
+        <v>155</v>
+      </c>
+      <c r="K17" s="23">
+        <f t="shared" si="0"/>
+        <v>177.3</v>
+      </c>
+      <c r="L17" s="20">
+        <v>686</v>
+      </c>
+      <c r="M17" s="20">
+        <v>304</v>
+      </c>
+      <c r="N17" s="20">
+        <v>506</v>
+      </c>
+      <c r="O17" s="20">
+        <v>233</v>
+      </c>
+      <c r="P17" s="20">
+        <v>690</v>
+      </c>
+      <c r="Q17" s="20">
+        <v>683</v>
+      </c>
+      <c r="R17" s="20">
+        <v>508</v>
+      </c>
+      <c r="S17" s="20">
+        <v>911</v>
+      </c>
+      <c r="T17" s="20">
+        <v>1208</v>
+      </c>
+      <c r="U17" s="20">
+        <v>697</v>
+      </c>
+      <c r="V17" s="23">
+        <f t="shared" si="1"/>
+        <v>642.6</v>
+      </c>
+      <c r="W17" s="21">
+        <v>1064</v>
+      </c>
+      <c r="X17" s="21">
+        <v>689</v>
+      </c>
+      <c r="Y17" s="21">
+        <v>232</v>
+      </c>
+      <c r="Z17" s="21">
+        <v>634</v>
+      </c>
+      <c r="AA17" s="21">
+        <v>1017</v>
+      </c>
+      <c r="AB17" s="3">
+        <v>911</v>
+      </c>
+      <c r="AC17" s="3">
+        <v>440</v>
+      </c>
+      <c r="AD17" s="3">
+        <v>746</v>
+      </c>
+      <c r="AE17" s="3">
+        <v>1211</v>
+      </c>
+      <c r="AF17" s="1">
+        <v>907</v>
+      </c>
+      <c r="AG17" s="23">
+        <f t="shared" si="2"/>
+        <v>785.1</v>
+      </c>
+      <c r="AH17" s="24">
+        <v>690</v>
+      </c>
+      <c r="AI17" s="24">
+        <v>746</v>
+      </c>
+      <c r="AJ17" s="24">
+        <v>231</v>
+      </c>
+      <c r="AK17" s="24">
+        <v>233</v>
+      </c>
+      <c r="AL17" s="24">
+        <v>1295</v>
+      </c>
+      <c r="AM17" s="24">
+        <v>908</v>
+      </c>
+      <c r="AN17" s="3">
+        <v>685</v>
+      </c>
+      <c r="AO17" s="3">
+        <v>685</v>
+      </c>
+      <c r="AP17" s="3">
+        <v>1065</v>
+      </c>
+      <c r="AQ17" s="3">
+        <v>743</v>
+      </c>
+      <c r="AR17" s="23">
+        <f>AVERAGE(AH17:AQ17)</f>
+        <v>728.1</v>
+      </c>
     </row>
-    <row r="20" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E20" s="1"/>
+    <row r="18" spans="1:44" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="19">
+        <v>154</v>
+      </c>
+      <c r="B18" s="19">
+        <v>156</v>
+      </c>
+      <c r="C18" s="19">
+        <v>153</v>
+      </c>
+      <c r="D18" s="19">
+        <v>154</v>
+      </c>
+      <c r="E18" s="19">
+        <v>154</v>
+      </c>
+      <c r="F18" s="19">
+        <v>156</v>
+      </c>
+      <c r="G18" s="19">
+        <v>154</v>
+      </c>
+      <c r="H18" s="19">
+        <v>154</v>
+      </c>
+      <c r="I18" s="19">
+        <v>154</v>
+      </c>
+      <c r="J18" s="19">
+        <v>155</v>
+      </c>
+      <c r="K18" s="23">
+        <f t="shared" si="0"/>
+        <v>154.4</v>
+      </c>
+      <c r="L18" s="20">
+        <v>741</v>
+      </c>
+      <c r="M18" s="20">
+        <v>301</v>
+      </c>
+      <c r="N18" s="20">
+        <v>630</v>
+      </c>
+      <c r="O18" s="20">
+        <v>232</v>
+      </c>
+      <c r="P18" s="20">
+        <v>628</v>
+      </c>
+      <c r="Q18" s="20">
+        <v>572</v>
+      </c>
+      <c r="R18" s="20">
+        <v>631</v>
+      </c>
+      <c r="S18" s="20">
+        <v>1017</v>
+      </c>
+      <c r="T18" s="20">
+        <v>233</v>
+      </c>
+      <c r="U18" s="20">
+        <v>911</v>
+      </c>
+      <c r="V18" s="23">
+        <f t="shared" si="1"/>
+        <v>589.6</v>
+      </c>
+      <c r="W18" s="21">
+        <v>912</v>
+      </c>
+      <c r="X18" s="21">
+        <v>1067</v>
+      </c>
+      <c r="Y18" s="21">
+        <v>150</v>
+      </c>
+      <c r="Z18" s="21">
+        <v>1292</v>
+      </c>
+      <c r="AA18" s="21">
+        <v>965</v>
+      </c>
+      <c r="AB18" s="3">
+        <v>907</v>
+      </c>
+      <c r="AC18" s="3">
+        <v>502</v>
+      </c>
+      <c r="AD18" s="3">
+        <v>568</v>
+      </c>
+      <c r="AE18" s="3">
+        <v>1106</v>
+      </c>
+      <c r="AF18" s="1">
+        <v>1065</v>
+      </c>
+      <c r="AG18" s="23">
+        <f t="shared" si="2"/>
+        <v>853.4</v>
+      </c>
+      <c r="AH18" s="24">
+        <v>501</v>
+      </c>
+      <c r="AI18" s="24">
+        <v>685</v>
+      </c>
+      <c r="AJ18" s="24">
+        <v>230</v>
+      </c>
+      <c r="AK18" s="24">
+        <v>226</v>
+      </c>
+      <c r="AL18" s="24">
+        <v>907</v>
+      </c>
+      <c r="AM18" s="24">
+        <v>1210</v>
+      </c>
+      <c r="AN18" s="3">
+        <v>687</v>
+      </c>
+      <c r="AO18" s="3">
+        <v>854</v>
+      </c>
+      <c r="AP18" s="3">
+        <v>696</v>
+      </c>
+      <c r="AQ18" s="3">
+        <v>688</v>
+      </c>
+      <c r="AR18" s="23">
+        <f>AVERAGE(AH18:AQ18)</f>
+        <v>668.4</v>
+      </c>
     </row>
-    <row r="21" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E21" s="1"/>
+    <row r="19" spans="1:44" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="19">
+        <v>153</v>
+      </c>
+      <c r="B19" s="19">
+        <v>156</v>
+      </c>
+      <c r="C19" s="19">
+        <v>154</v>
+      </c>
+      <c r="D19" s="19">
+        <v>154</v>
+      </c>
+      <c r="E19" s="19">
+        <v>158</v>
+      </c>
+      <c r="F19" s="19">
+        <v>155</v>
+      </c>
+      <c r="G19" s="19">
+        <v>155</v>
+      </c>
+      <c r="H19" s="19">
+        <v>232</v>
+      </c>
+      <c r="I19" s="19">
+        <v>235</v>
+      </c>
+      <c r="J19" s="19">
+        <v>160</v>
+      </c>
+      <c r="K19" s="23">
+        <f t="shared" si="0"/>
+        <v>171.2</v>
+      </c>
+      <c r="L19" s="20">
+        <v>1057</v>
+      </c>
+      <c r="M19" s="20">
+        <v>437</v>
+      </c>
+      <c r="N19" s="20">
+        <v>503</v>
+      </c>
+      <c r="O19" s="20">
+        <v>232</v>
+      </c>
+      <c r="P19" s="20">
+        <v>232</v>
+      </c>
+      <c r="Q19" s="20">
+        <v>632</v>
+      </c>
+      <c r="R19" s="20">
+        <v>506</v>
+      </c>
+      <c r="S19" s="20">
+        <v>854</v>
+      </c>
+      <c r="T19" s="20">
+        <v>907</v>
+      </c>
+      <c r="U19" s="20">
+        <v>503</v>
+      </c>
+      <c r="V19" s="23">
+        <f t="shared" si="1"/>
+        <v>586.29999999999995</v>
+      </c>
+      <c r="W19" s="21">
+        <v>963</v>
+      </c>
+      <c r="X19" s="21">
+        <v>913</v>
+      </c>
+      <c r="Y19" s="21">
+        <v>232</v>
+      </c>
+      <c r="Z19" s="21">
+        <v>1297</v>
+      </c>
+      <c r="AA19" s="21">
+        <v>1254</v>
+      </c>
+      <c r="AB19" s="3">
+        <v>909</v>
+      </c>
+      <c r="AC19" s="3">
+        <v>1251</v>
+      </c>
+      <c r="AD19" s="3">
+        <v>629</v>
+      </c>
+      <c r="AE19" s="3">
+        <v>963</v>
+      </c>
+      <c r="AF19" s="1">
+        <v>913</v>
+      </c>
+      <c r="AG19" s="23">
+        <f t="shared" si="2"/>
+        <v>932.4</v>
+      </c>
+      <c r="AH19" s="24">
+        <v>629</v>
+      </c>
+      <c r="AI19" s="24">
+        <v>910</v>
+      </c>
+      <c r="AJ19" s="24">
+        <v>296</v>
+      </c>
+      <c r="AK19" s="24">
+        <v>635</v>
+      </c>
+      <c r="AL19" s="24">
+        <v>914</v>
+      </c>
+      <c r="AM19" s="24">
+        <v>440</v>
+      </c>
+      <c r="AN19" s="3">
+        <v>504</v>
+      </c>
+      <c r="AO19" s="3">
+        <v>864</v>
+      </c>
+      <c r="AP19" s="3">
+        <v>1560</v>
+      </c>
+      <c r="AQ19" s="3">
+        <v>505</v>
+      </c>
+      <c r="AR19" s="23">
+        <f>AVERAGE(AH19:AQ19)</f>
+        <v>725.7</v>
+      </c>
     </row>
-    <row r="22" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E22" s="1"/>
+    <row r="20" spans="1:44" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="19">
+        <v>156</v>
+      </c>
+      <c r="B20" s="19">
+        <v>155</v>
+      </c>
+      <c r="C20" s="19">
+        <v>156</v>
+      </c>
+      <c r="D20" s="19">
+        <v>155</v>
+      </c>
+      <c r="E20" s="19">
+        <v>158</v>
+      </c>
+      <c r="F20" s="19">
+        <v>156</v>
+      </c>
+      <c r="G20" s="19">
+        <v>155</v>
+      </c>
+      <c r="H20" s="19">
+        <v>154</v>
+      </c>
+      <c r="I20" s="19">
+        <v>156</v>
+      </c>
+      <c r="J20" s="19">
+        <v>157</v>
+      </c>
+      <c r="K20" s="23">
+        <f t="shared" si="0"/>
+        <v>155.80000000000001</v>
+      </c>
+      <c r="L20" s="20">
+        <v>804</v>
+      </c>
+      <c r="M20" s="20">
+        <v>438</v>
+      </c>
+      <c r="N20" s="20">
+        <v>1116</v>
+      </c>
+      <c r="O20" s="20">
+        <v>233</v>
+      </c>
+      <c r="P20" s="20">
+        <v>498</v>
+      </c>
+      <c r="Q20" s="20">
+        <v>628</v>
+      </c>
+      <c r="R20" s="20">
+        <v>438</v>
+      </c>
+      <c r="S20" s="20">
+        <v>914</v>
+      </c>
+      <c r="T20" s="20">
+        <v>909</v>
+      </c>
+      <c r="U20" s="20">
+        <v>751</v>
+      </c>
+      <c r="V20" s="23">
+        <f t="shared" si="1"/>
+        <v>672.9</v>
+      </c>
+      <c r="W20" s="21">
+        <v>1015</v>
+      </c>
+      <c r="X20" s="21">
+        <v>908</v>
+      </c>
+      <c r="Y20" s="21">
+        <v>232</v>
+      </c>
+      <c r="Z20" s="21">
+        <v>437</v>
+      </c>
+      <c r="AA20" s="21">
+        <v>906</v>
+      </c>
+      <c r="AB20" s="3">
+        <v>963</v>
+      </c>
+      <c r="AC20" s="3">
+        <v>690</v>
+      </c>
+      <c r="AD20" s="3">
+        <v>563</v>
+      </c>
+      <c r="AE20" s="3">
+        <v>965</v>
+      </c>
+      <c r="AF20" s="1">
+        <v>911</v>
+      </c>
+      <c r="AG20" s="23">
+        <f t="shared" si="2"/>
+        <v>759</v>
+      </c>
+      <c r="AH20" s="24">
+        <v>629</v>
+      </c>
+      <c r="AI20" s="24">
+        <v>1061</v>
+      </c>
+      <c r="AJ20" s="24">
+        <v>232</v>
+      </c>
+      <c r="AK20" s="24">
+        <v>626</v>
+      </c>
+      <c r="AL20" s="24">
+        <v>1057</v>
+      </c>
+      <c r="AM20" s="24">
+        <v>857</v>
+      </c>
+      <c r="AN20" s="3">
+        <v>855</v>
+      </c>
+      <c r="AO20" s="3">
+        <v>1015</v>
+      </c>
+      <c r="AP20" s="3">
+        <v>858</v>
+      </c>
+      <c r="AQ20" s="3">
+        <v>912</v>
+      </c>
+      <c r="AR20" s="23">
+        <f>AVERAGE(AH20:AQ20)</f>
+        <v>810.2</v>
+      </c>
     </row>
-    <row r="23" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E23" s="1"/>
+    <row r="21" spans="1:44" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="19">
+        <v>227</v>
+      </c>
+      <c r="B21" s="19">
+        <v>235</v>
+      </c>
+      <c r="C21" s="19">
+        <v>157</v>
+      </c>
+      <c r="D21" s="19">
+        <v>236</v>
+      </c>
+      <c r="E21" s="19">
+        <v>158</v>
+      </c>
+      <c r="F21" s="19">
+        <v>153</v>
+      </c>
+      <c r="G21" s="19">
+        <v>160</v>
+      </c>
+      <c r="H21" s="19">
+        <v>231</v>
+      </c>
+      <c r="I21" s="19">
+        <v>233</v>
+      </c>
+      <c r="J21" s="19">
+        <v>154</v>
+      </c>
+      <c r="K21" s="23">
+        <f t="shared" si="0"/>
+        <v>194.4</v>
+      </c>
+      <c r="L21" s="20">
+        <v>1015</v>
+      </c>
+      <c r="M21" s="20">
+        <v>621</v>
+      </c>
+      <c r="N21" s="20">
+        <v>1015</v>
+      </c>
+      <c r="O21" s="20">
+        <v>234</v>
+      </c>
+      <c r="P21" s="20">
+        <v>745</v>
+      </c>
+      <c r="Q21" s="20">
+        <v>911</v>
+      </c>
+      <c r="R21" s="20">
+        <v>632</v>
+      </c>
+      <c r="S21" s="20">
+        <v>734</v>
+      </c>
+      <c r="T21" s="20">
+        <v>231</v>
+      </c>
+      <c r="U21" s="20">
+        <v>628</v>
+      </c>
+      <c r="V21" s="23">
+        <f t="shared" si="1"/>
+        <v>676.6</v>
+      </c>
+      <c r="W21" s="21">
+        <v>908</v>
+      </c>
+      <c r="X21" s="21">
+        <v>960</v>
+      </c>
+      <c r="Y21" s="21">
+        <v>231</v>
+      </c>
+      <c r="Z21" s="21">
+        <v>632</v>
+      </c>
+      <c r="AA21" s="21">
+        <v>507</v>
+      </c>
+      <c r="AB21" s="3">
+        <v>964</v>
+      </c>
+      <c r="AC21" s="3">
+        <v>912</v>
+      </c>
+      <c r="AD21" s="3">
+        <v>507</v>
+      </c>
+      <c r="AE21" s="3">
+        <v>1343</v>
+      </c>
+      <c r="AF21" s="1">
+        <v>1018</v>
+      </c>
+      <c r="AG21" s="23">
+        <f t="shared" si="2"/>
+        <v>798.2</v>
+      </c>
+      <c r="AH21" s="24">
+        <v>739</v>
+      </c>
+      <c r="AI21" s="24">
+        <v>1207</v>
+      </c>
+      <c r="AJ21" s="24">
+        <v>231</v>
+      </c>
+      <c r="AK21" s="24">
+        <v>808</v>
+      </c>
+      <c r="AL21" s="24">
+        <v>1060</v>
+      </c>
+      <c r="AM21" s="24">
+        <v>436</v>
+      </c>
+      <c r="AN21" s="3">
+        <v>747</v>
+      </c>
+      <c r="AO21" s="3">
+        <v>912</v>
+      </c>
+      <c r="AP21" s="3">
+        <v>797</v>
+      </c>
+      <c r="AQ21" s="3">
+        <v>628</v>
+      </c>
+      <c r="AR21" s="23">
+        <f>AVERAGE(AH21:AQ21)</f>
+        <v>756.5</v>
+      </c>
     </row>
-    <row r="24" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E24" s="1"/>
+    <row r="22" spans="1:44" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="19">
+        <v>154</v>
+      </c>
+      <c r="B22" s="19">
+        <v>154</v>
+      </c>
+      <c r="C22" s="19">
+        <v>154</v>
+      </c>
+      <c r="D22" s="19">
+        <v>157</v>
+      </c>
+      <c r="E22" s="19">
+        <v>154</v>
+      </c>
+      <c r="F22" s="19">
+        <v>154</v>
+      </c>
+      <c r="G22" s="19">
+        <v>155</v>
+      </c>
+      <c r="H22" s="19">
+        <v>162</v>
+      </c>
+      <c r="I22" s="19">
+        <v>157</v>
+      </c>
+      <c r="J22" s="19">
+        <v>157</v>
+      </c>
+      <c r="K22" s="23">
+        <f t="shared" si="0"/>
+        <v>155.80000000000001</v>
+      </c>
+      <c r="L22" s="20">
+        <v>858</v>
+      </c>
+      <c r="M22" s="20">
+        <v>634</v>
+      </c>
+      <c r="N22" s="20">
+        <v>1109</v>
+      </c>
+      <c r="O22" s="20">
+        <v>299</v>
+      </c>
+      <c r="P22" s="20">
+        <v>631</v>
+      </c>
+      <c r="Q22" s="20">
+        <v>633</v>
+      </c>
+      <c r="R22" s="20">
+        <v>565</v>
+      </c>
+      <c r="S22" s="20">
+        <v>1009</v>
+      </c>
+      <c r="T22" s="20">
+        <v>230</v>
+      </c>
+      <c r="U22" s="20">
+        <v>691</v>
+      </c>
+      <c r="V22" s="23">
+        <f t="shared" si="1"/>
+        <v>665.9</v>
+      </c>
+      <c r="W22" s="21">
+        <v>507</v>
+      </c>
+      <c r="X22" s="21">
+        <v>910</v>
+      </c>
+      <c r="Y22" s="21">
+        <v>232</v>
+      </c>
+      <c r="Z22" s="21">
+        <v>801</v>
+      </c>
+      <c r="AA22" s="21">
+        <v>632</v>
+      </c>
+      <c r="AB22" s="3">
+        <v>908</v>
+      </c>
+      <c r="AC22" s="3">
+        <v>628</v>
+      </c>
+      <c r="AD22" s="3">
+        <v>628</v>
+      </c>
+      <c r="AE22" s="3">
+        <v>1012</v>
+      </c>
+      <c r="AF22" s="1">
+        <v>920</v>
+      </c>
+      <c r="AG22" s="23">
+        <f t="shared" si="2"/>
+        <v>717.8</v>
+      </c>
+      <c r="AH22" s="24">
+        <v>508</v>
+      </c>
+      <c r="AI22" s="24">
+        <v>439</v>
+      </c>
+      <c r="AJ22" s="24">
+        <v>150</v>
+      </c>
+      <c r="AK22" s="24">
+        <v>1018</v>
+      </c>
+      <c r="AL22" s="24">
+        <v>966</v>
+      </c>
+      <c r="AM22" s="24">
+        <v>753</v>
+      </c>
+      <c r="AN22" s="3">
+        <v>962</v>
+      </c>
+      <c r="AO22" s="3">
+        <v>802</v>
+      </c>
+      <c r="AP22" s="3">
+        <v>747</v>
+      </c>
+      <c r="AQ22" s="3">
+        <v>624</v>
+      </c>
+      <c r="AR22" s="23">
+        <f>AVERAGE(AH22:AQ22)</f>
+        <v>696.9</v>
+      </c>
     </row>
-    <row r="25" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E25" s="1"/>
+    <row r="23" spans="1:44" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="19">
+        <v>156</v>
+      </c>
+      <c r="B23" s="19">
+        <v>156</v>
+      </c>
+      <c r="C23" s="19">
+        <v>154</v>
+      </c>
+      <c r="D23" s="19">
+        <v>227</v>
+      </c>
+      <c r="E23" s="19">
+        <v>154</v>
+      </c>
+      <c r="F23" s="19">
+        <v>157</v>
+      </c>
+      <c r="G23" s="19">
+        <v>296</v>
+      </c>
+      <c r="H23" s="19">
+        <v>157</v>
+      </c>
+      <c r="I23" s="19">
+        <v>154</v>
+      </c>
+      <c r="J23" s="19">
+        <v>154</v>
+      </c>
+      <c r="K23" s="23">
+        <f t="shared" si="0"/>
+        <v>176.5</v>
+      </c>
+      <c r="L23" s="20">
+        <v>1012</v>
+      </c>
+      <c r="M23" s="20">
+        <v>1015</v>
+      </c>
+      <c r="N23" s="20">
+        <v>914</v>
+      </c>
+      <c r="O23" s="20">
+        <v>231</v>
+      </c>
+      <c r="P23" s="20">
+        <v>907</v>
+      </c>
+      <c r="Q23" s="20">
+        <v>688</v>
+      </c>
+      <c r="R23" s="20">
+        <v>625</v>
+      </c>
+      <c r="S23" s="20">
+        <v>966</v>
+      </c>
+      <c r="T23" s="20">
+        <v>152</v>
+      </c>
+      <c r="U23" s="20">
+        <v>805</v>
+      </c>
+      <c r="V23" s="23">
+        <f t="shared" si="1"/>
+        <v>731.5</v>
+      </c>
+      <c r="W23" s="21">
+        <v>504</v>
+      </c>
+      <c r="X23" s="21">
+        <v>957</v>
+      </c>
+      <c r="Y23" s="21">
+        <v>152</v>
+      </c>
+      <c r="Z23" s="21">
+        <v>628</v>
+      </c>
+      <c r="AA23" s="21">
+        <v>750</v>
+      </c>
+      <c r="AB23" s="3">
+        <v>912</v>
+      </c>
+      <c r="AC23" s="3">
+        <v>910</v>
+      </c>
+      <c r="AD23" s="3">
+        <v>909</v>
+      </c>
+      <c r="AE23" s="3">
+        <v>1010</v>
+      </c>
+      <c r="AF23" s="1">
+        <v>855</v>
+      </c>
+      <c r="AG23" s="23">
+        <f t="shared" si="2"/>
+        <v>758.7</v>
+      </c>
+      <c r="AH23" s="24">
+        <v>682</v>
+      </c>
+      <c r="AI23" s="24">
+        <v>630</v>
+      </c>
+      <c r="AJ23" s="24">
+        <v>231</v>
+      </c>
+      <c r="AK23" s="24">
+        <v>1151</v>
+      </c>
+      <c r="AL23" s="24">
+        <v>966</v>
+      </c>
+      <c r="AM23" s="24">
+        <v>861</v>
+      </c>
+      <c r="AN23" s="3">
+        <v>913</v>
+      </c>
+      <c r="AO23" s="3">
+        <v>914</v>
+      </c>
+      <c r="AP23" s="3">
+        <v>859</v>
+      </c>
+      <c r="AQ23" s="3">
+        <v>754</v>
+      </c>
+      <c r="AR23" s="23">
+        <f>AVERAGE(AH23:AQ23)</f>
+        <v>796.1</v>
+      </c>
     </row>
-    <row r="26" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E26" s="1"/>
+    <row r="24" spans="1:44" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="19">
+        <v>154</v>
+      </c>
+      <c r="B24" s="19">
+        <v>154</v>
+      </c>
+      <c r="C24" s="19">
+        <v>152</v>
+      </c>
+      <c r="D24" s="19">
+        <v>155</v>
+      </c>
+      <c r="E24" s="19">
+        <v>227</v>
+      </c>
+      <c r="F24" s="19">
+        <v>155</v>
+      </c>
+      <c r="G24" s="19">
+        <v>155</v>
+      </c>
+      <c r="H24" s="19">
+        <v>154</v>
+      </c>
+      <c r="I24" s="19">
+        <v>155</v>
+      </c>
+      <c r="J24" s="19">
+        <v>156</v>
+      </c>
+      <c r="K24" s="23">
+        <f t="shared" si="0"/>
+        <v>161.69999999999999</v>
+      </c>
+      <c r="L24" s="20">
+        <v>507</v>
+      </c>
+      <c r="M24" s="20">
+        <v>231</v>
+      </c>
+      <c r="N24" s="20">
+        <v>966</v>
+      </c>
+      <c r="O24" s="20">
+        <v>232</v>
+      </c>
+      <c r="P24" s="20">
+        <v>1162</v>
+      </c>
+      <c r="Q24" s="20">
+        <v>1011</v>
+      </c>
+      <c r="R24" s="20">
+        <v>804</v>
+      </c>
+      <c r="S24" s="20">
+        <v>437</v>
+      </c>
+      <c r="T24" s="20">
+        <v>232</v>
+      </c>
+      <c r="U24" s="20">
+        <v>909</v>
+      </c>
+      <c r="V24" s="23">
+        <f t="shared" si="1"/>
+        <v>649.1</v>
+      </c>
+      <c r="W24" s="21">
+        <v>1551</v>
+      </c>
+      <c r="X24" s="21">
+        <v>962</v>
+      </c>
+      <c r="Y24" s="21">
+        <v>232</v>
+      </c>
+      <c r="Z24" s="21">
+        <v>1062</v>
+      </c>
+      <c r="AA24" s="21">
+        <v>506</v>
+      </c>
+      <c r="AB24" s="3">
+        <v>862</v>
+      </c>
+      <c r="AC24" s="3">
+        <v>440</v>
+      </c>
+      <c r="AD24" s="3">
+        <v>859</v>
+      </c>
+      <c r="AE24" s="3">
+        <v>631</v>
+      </c>
+      <c r="AF24" s="1">
+        <v>233</v>
+      </c>
+      <c r="AG24" s="23">
+        <f t="shared" si="2"/>
+        <v>733.8</v>
+      </c>
+      <c r="AH24" s="24">
+        <v>622</v>
+      </c>
+      <c r="AI24" s="24">
+        <v>686</v>
+      </c>
+      <c r="AJ24" s="24">
+        <v>231</v>
+      </c>
+      <c r="AK24" s="24">
+        <v>966</v>
+      </c>
+      <c r="AL24" s="24">
+        <v>1017</v>
+      </c>
+      <c r="AM24" s="24">
+        <v>687</v>
+      </c>
+      <c r="AN24" s="3">
+        <v>1062</v>
+      </c>
+      <c r="AO24" s="3">
+        <v>744</v>
+      </c>
+      <c r="AP24" s="3">
+        <v>801</v>
+      </c>
+      <c r="AQ24" s="3">
+        <v>688</v>
+      </c>
+      <c r="AR24" s="23">
+        <f>AVERAGE(AH24:AQ24)</f>
+        <v>750.4</v>
+      </c>
     </row>
-    <row r="27" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E27" s="1"/>
+    <row r="25" spans="1:44" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="19">
+        <v>156</v>
+      </c>
+      <c r="B25" s="19">
+        <v>159</v>
+      </c>
+      <c r="C25" s="19">
+        <v>154</v>
+      </c>
+      <c r="D25" s="19">
+        <v>154</v>
+      </c>
+      <c r="E25" s="19">
+        <v>154</v>
+      </c>
+      <c r="F25" s="19">
+        <v>154</v>
+      </c>
+      <c r="G25" s="19">
+        <v>155</v>
+      </c>
+      <c r="H25" s="19">
+        <v>157</v>
+      </c>
+      <c r="I25" s="19">
+        <v>154</v>
+      </c>
+      <c r="J25" s="19">
+        <v>157</v>
+      </c>
+      <c r="K25" s="23">
+        <f t="shared" si="0"/>
+        <v>155.4</v>
+      </c>
+      <c r="L25" s="20">
+        <v>634</v>
+      </c>
+      <c r="M25" s="20">
+        <v>232</v>
+      </c>
+      <c r="N25" s="20">
+        <v>692</v>
+      </c>
+      <c r="O25" s="20">
+        <v>151</v>
+      </c>
+      <c r="P25" s="20">
+        <v>968</v>
+      </c>
+      <c r="Q25" s="20">
+        <v>908</v>
+      </c>
+      <c r="R25" s="20">
+        <v>802</v>
+      </c>
+      <c r="S25" s="20">
+        <v>852</v>
+      </c>
+      <c r="T25" s="20">
+        <v>150</v>
+      </c>
+      <c r="U25" s="20">
+        <v>745</v>
+      </c>
+      <c r="V25" s="23">
+        <f t="shared" si="1"/>
+        <v>613.4</v>
+      </c>
+      <c r="W25" s="21">
+        <v>561</v>
+      </c>
+      <c r="X25" s="21">
+        <v>625</v>
+      </c>
+      <c r="Y25" s="21">
+        <v>231</v>
+      </c>
+      <c r="Z25" s="21">
+        <v>373</v>
+      </c>
+      <c r="AA25" s="21">
+        <v>1009</v>
+      </c>
+      <c r="AB25" s="3">
+        <v>857</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>964</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>1107</v>
+      </c>
+      <c r="AE25" s="3">
+        <v>807</v>
+      </c>
+      <c r="AF25" s="1">
+        <v>232</v>
+      </c>
+      <c r="AG25" s="23">
+        <f t="shared" si="2"/>
+        <v>676.6</v>
+      </c>
+      <c r="AH25" s="24">
+        <v>504</v>
+      </c>
+      <c r="AI25" s="24">
+        <v>442</v>
+      </c>
+      <c r="AJ25" s="24">
+        <v>231</v>
+      </c>
+      <c r="AK25" s="24">
+        <v>916</v>
+      </c>
+      <c r="AL25" s="24">
+        <v>1064</v>
+      </c>
+      <c r="AM25" s="24">
+        <v>684</v>
+      </c>
+      <c r="AN25" s="3">
+        <v>1070</v>
+      </c>
+      <c r="AO25" s="3">
+        <v>803</v>
+      </c>
+      <c r="AP25" s="3">
+        <v>805</v>
+      </c>
+      <c r="AQ25" s="3">
+        <v>799</v>
+      </c>
+      <c r="AR25" s="23">
+        <f>AVERAGE(AH25:AQ25)</f>
+        <v>731.8</v>
+      </c>
     </row>
-    <row r="28" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E28" s="1"/>
+    <row r="26" spans="1:44" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="19">
+        <v>154</v>
+      </c>
+      <c r="B26" s="19">
+        <v>155</v>
+      </c>
+      <c r="C26" s="19">
+        <v>233</v>
+      </c>
+      <c r="D26" s="19">
+        <v>157</v>
+      </c>
+      <c r="E26" s="19">
+        <v>153</v>
+      </c>
+      <c r="F26" s="19">
+        <v>157</v>
+      </c>
+      <c r="G26" s="19">
+        <v>153</v>
+      </c>
+      <c r="H26" s="19">
+        <v>156</v>
+      </c>
+      <c r="I26" s="19">
+        <v>154</v>
+      </c>
+      <c r="J26" s="19">
+        <v>153</v>
+      </c>
+      <c r="K26" s="23">
+        <f t="shared" si="0"/>
+        <v>162.5</v>
+      </c>
+      <c r="L26" s="20">
+        <v>696</v>
+      </c>
+      <c r="M26" s="20">
+        <v>230</v>
+      </c>
+      <c r="N26" s="20">
+        <v>689</v>
+      </c>
+      <c r="O26" s="20">
+        <v>150</v>
+      </c>
+      <c r="P26" s="20">
+        <v>916</v>
+      </c>
+      <c r="Q26" s="20">
+        <v>1157</v>
+      </c>
+      <c r="R26" s="20">
+        <v>565</v>
+      </c>
+      <c r="S26" s="20">
+        <v>1059</v>
+      </c>
+      <c r="T26" s="20">
+        <v>231</v>
+      </c>
+      <c r="U26" s="20">
+        <v>910</v>
+      </c>
+      <c r="V26" s="23">
+        <f t="shared" si="1"/>
+        <v>660.3</v>
+      </c>
+      <c r="W26" s="21">
+        <v>631</v>
+      </c>
+      <c r="X26" s="21">
+        <v>907</v>
+      </c>
+      <c r="Y26" s="21">
+        <v>232</v>
+      </c>
+      <c r="Z26" s="21">
+        <v>303</v>
+      </c>
+      <c r="AA26" s="21">
+        <v>913</v>
+      </c>
+      <c r="AB26" s="3">
+        <v>1204</v>
+      </c>
+      <c r="AC26" s="3">
+        <v>506</v>
+      </c>
+      <c r="AD26" s="3">
+        <v>1344</v>
+      </c>
+      <c r="AE26" s="3">
+        <v>966</v>
+      </c>
+      <c r="AF26" s="1">
+        <v>233</v>
+      </c>
+      <c r="AG26" s="23">
+        <f t="shared" si="2"/>
+        <v>723.9</v>
+      </c>
+      <c r="AH26" s="24">
+        <v>572</v>
+      </c>
+      <c r="AI26" s="24">
+        <v>440</v>
+      </c>
+      <c r="AJ26" s="24">
+        <v>151</v>
+      </c>
+      <c r="AK26" s="24">
+        <v>1059</v>
+      </c>
+      <c r="AL26" s="24">
+        <v>1337</v>
+      </c>
+      <c r="AM26" s="24">
+        <v>633</v>
+      </c>
+      <c r="AN26" s="3">
+        <v>1010</v>
+      </c>
+      <c r="AO26" s="3">
+        <v>857</v>
+      </c>
+      <c r="AP26" s="3">
+        <v>745</v>
+      </c>
+      <c r="AQ26" s="3">
+        <v>623</v>
+      </c>
+      <c r="AR26" s="23">
+        <f>AVERAGE(AH26:AQ26)</f>
+        <v>742.7</v>
+      </c>
     </row>
-    <row r="29" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E29" s="1"/>
+    <row r="27" spans="1:44" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="19">
+        <v>155</v>
+      </c>
+      <c r="B27" s="19">
+        <v>155</v>
+      </c>
+      <c r="C27" s="19">
+        <v>157</v>
+      </c>
+      <c r="D27" s="19">
+        <v>156</v>
+      </c>
+      <c r="E27" s="19">
+        <v>154</v>
+      </c>
+      <c r="F27" s="19">
+        <v>238</v>
+      </c>
+      <c r="G27" s="19">
+        <v>154</v>
+      </c>
+      <c r="H27" s="19">
+        <v>158</v>
+      </c>
+      <c r="I27" s="19">
+        <v>156</v>
+      </c>
+      <c r="J27" s="19">
+        <v>154</v>
+      </c>
+      <c r="K27" s="23">
+        <f t="shared" si="0"/>
+        <v>163.69999999999999</v>
+      </c>
+      <c r="L27" s="20">
+        <v>631</v>
+      </c>
+      <c r="M27" s="20">
+        <v>230</v>
+      </c>
+      <c r="N27" s="20">
+        <v>686</v>
+      </c>
+      <c r="O27" s="20">
+        <v>232</v>
+      </c>
+      <c r="P27" s="20">
+        <v>739</v>
+      </c>
+      <c r="Q27" s="20">
+        <v>691</v>
+      </c>
+      <c r="R27" s="20">
+        <v>689</v>
+      </c>
+      <c r="S27" s="20">
+        <v>862</v>
+      </c>
+      <c r="T27" s="20">
+        <v>230</v>
+      </c>
+      <c r="U27" s="20">
+        <v>909</v>
+      </c>
+      <c r="V27" s="23">
+        <f t="shared" si="1"/>
+        <v>589.9</v>
+      </c>
+      <c r="W27" s="21">
+        <v>908</v>
+      </c>
+      <c r="X27" s="21">
+        <v>1111</v>
+      </c>
+      <c r="Y27" s="21">
+        <v>232</v>
+      </c>
+      <c r="Z27" s="21">
+        <v>512</v>
+      </c>
+      <c r="AA27" s="21">
+        <v>1061</v>
+      </c>
+      <c r="AB27" s="3">
+        <v>857</v>
+      </c>
+      <c r="AC27" s="3">
+        <v>860</v>
+      </c>
+      <c r="AD27" s="3">
+        <v>745</v>
+      </c>
+      <c r="AE27" s="3">
+        <v>627</v>
+      </c>
+      <c r="AF27" s="1">
+        <v>232</v>
+      </c>
+      <c r="AG27" s="23">
+        <f t="shared" si="2"/>
+        <v>714.5</v>
+      </c>
+      <c r="AH27" s="24">
+        <v>850</v>
+      </c>
+      <c r="AI27" s="24">
+        <v>1054</v>
+      </c>
+      <c r="AJ27" s="24">
+        <v>230</v>
+      </c>
+      <c r="AK27" s="24">
+        <v>914</v>
+      </c>
+      <c r="AL27" s="24">
+        <v>1210</v>
+      </c>
+      <c r="AM27" s="24">
+        <v>624</v>
+      </c>
+      <c r="AN27" s="3">
+        <v>1107</v>
+      </c>
+      <c r="AO27" s="3">
+        <v>910</v>
+      </c>
+      <c r="AP27" s="3">
+        <v>693</v>
+      </c>
+      <c r="AQ27" s="3">
+        <v>807</v>
+      </c>
+      <c r="AR27" s="23">
+        <f>AVERAGE(AH27:AQ27)</f>
+        <v>839.9</v>
+      </c>
     </row>
-    <row r="30" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E30" s="1"/>
+    <row r="28" spans="1:44" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="19">
+        <v>159</v>
+      </c>
+      <c r="B28" s="19">
+        <v>236</v>
+      </c>
+      <c r="C28" s="19">
+        <v>153</v>
+      </c>
+      <c r="D28" s="19">
+        <v>155</v>
+      </c>
+      <c r="E28" s="19">
+        <v>155</v>
+      </c>
+      <c r="F28" s="19">
+        <v>156</v>
+      </c>
+      <c r="G28" s="19">
+        <v>155</v>
+      </c>
+      <c r="H28" s="19">
+        <v>156</v>
+      </c>
+      <c r="I28" s="19">
+        <v>155</v>
+      </c>
+      <c r="J28" s="19">
+        <v>155</v>
+      </c>
+      <c r="K28" s="23">
+        <f t="shared" si="0"/>
+        <v>163.5</v>
+      </c>
+      <c r="L28" s="20">
+        <v>630</v>
+      </c>
+      <c r="M28" s="20">
+        <v>374</v>
+      </c>
+      <c r="N28" s="20">
+        <v>1118</v>
+      </c>
+      <c r="O28" s="20">
+        <v>151</v>
+      </c>
+      <c r="P28" s="20">
+        <v>913</v>
+      </c>
+      <c r="Q28" s="20">
+        <v>631</v>
+      </c>
+      <c r="R28" s="20">
+        <v>509</v>
+      </c>
+      <c r="S28" s="20">
+        <v>742</v>
+      </c>
+      <c r="T28" s="20">
+        <v>231</v>
+      </c>
+      <c r="U28" s="20">
+        <v>1550</v>
+      </c>
+      <c r="V28" s="23">
+        <f t="shared" si="1"/>
+        <v>684.9</v>
+      </c>
+      <c r="W28" s="21">
+        <v>510</v>
+      </c>
+      <c r="X28" s="21">
+        <v>1062</v>
+      </c>
+      <c r="Y28" s="21">
+        <v>231</v>
+      </c>
+      <c r="Z28" s="21">
+        <v>1067</v>
+      </c>
+      <c r="AA28" s="21">
+        <v>1213</v>
+      </c>
+      <c r="AB28" s="3">
+        <v>861</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>811</v>
+      </c>
+      <c r="AD28" s="3">
+        <v>684</v>
+      </c>
+      <c r="AE28" s="3">
+        <v>688</v>
+      </c>
+      <c r="AF28" s="1">
+        <v>232</v>
+      </c>
+      <c r="AG28" s="23">
+        <f t="shared" si="2"/>
+        <v>735.9</v>
+      </c>
+      <c r="AH28" s="24">
+        <v>1118</v>
+      </c>
+      <c r="AI28" s="24">
+        <v>1015</v>
+      </c>
+      <c r="AJ28" s="24">
+        <v>230</v>
+      </c>
+      <c r="AK28" s="24">
+        <v>913</v>
+      </c>
+      <c r="AL28" s="24">
+        <v>629</v>
+      </c>
+      <c r="AM28" s="24">
+        <v>633</v>
+      </c>
+      <c r="AN28" s="3">
+        <v>913</v>
+      </c>
+      <c r="AO28" s="3">
+        <v>688</v>
+      </c>
+      <c r="AP28" s="3">
+        <v>633</v>
+      </c>
+      <c r="AQ28" s="3">
+        <v>502</v>
+      </c>
+      <c r="AR28" s="23">
+        <f>AVERAGE(AH28:AQ28)</f>
+        <v>727.4</v>
+      </c>
     </row>
-    <row r="31" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E31" s="1"/>
+    <row r="29" spans="1:44" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="19">
+        <v>157</v>
+      </c>
+      <c r="B29" s="19">
+        <v>155</v>
+      </c>
+      <c r="C29" s="19">
+        <v>158</v>
+      </c>
+      <c r="D29" s="19">
+        <v>159</v>
+      </c>
+      <c r="E29" s="19">
+        <v>233</v>
+      </c>
+      <c r="F29" s="19">
+        <v>303</v>
+      </c>
+      <c r="G29" s="19">
+        <v>155</v>
+      </c>
+      <c r="H29" s="19">
+        <v>154</v>
+      </c>
+      <c r="I29" s="19">
+        <v>154</v>
+      </c>
+      <c r="J29" s="19">
+        <v>155</v>
+      </c>
+      <c r="K29" s="23">
+        <f t="shared" si="0"/>
+        <v>178.3</v>
+      </c>
+      <c r="L29" s="20">
+        <v>621</v>
+      </c>
+      <c r="M29" s="20">
+        <v>230</v>
+      </c>
+      <c r="N29" s="20">
+        <v>914</v>
+      </c>
+      <c r="O29" s="20">
+        <v>233</v>
+      </c>
+      <c r="P29" s="20">
+        <v>305</v>
+      </c>
+      <c r="Q29" s="20">
+        <v>913</v>
+      </c>
+      <c r="R29" s="20">
+        <v>912</v>
+      </c>
+      <c r="S29" s="20">
+        <v>748</v>
+      </c>
+      <c r="T29" s="20">
+        <v>151</v>
+      </c>
+      <c r="U29" s="20">
+        <v>908</v>
+      </c>
+      <c r="V29" s="23">
+        <f t="shared" si="1"/>
+        <v>593.5</v>
+      </c>
+      <c r="W29" s="21">
+        <v>443</v>
+      </c>
+      <c r="X29" s="21">
+        <v>968</v>
+      </c>
+      <c r="Y29" s="21">
+        <v>231</v>
+      </c>
+      <c r="Z29" s="21">
+        <v>1053</v>
+      </c>
+      <c r="AA29" s="21">
+        <v>1559</v>
+      </c>
+      <c r="AB29" s="3">
+        <v>624</v>
+      </c>
+      <c r="AC29" s="3">
+        <v>1116</v>
+      </c>
+      <c r="AD29" s="3">
+        <v>688</v>
+      </c>
+      <c r="AE29" s="3">
+        <v>1009</v>
+      </c>
+      <c r="AF29" s="1">
+        <v>152</v>
+      </c>
+      <c r="AG29" s="23">
+        <f t="shared" si="2"/>
+        <v>784.3</v>
+      </c>
+      <c r="AH29" s="24">
+        <v>684</v>
+      </c>
+      <c r="AI29" s="24">
+        <v>911</v>
+      </c>
+      <c r="AJ29" s="24">
+        <v>232</v>
+      </c>
+      <c r="AK29" s="24">
+        <v>913</v>
+      </c>
+      <c r="AL29" s="24">
+        <v>808</v>
+      </c>
+      <c r="AM29" s="24">
+        <v>912</v>
+      </c>
+      <c r="AN29" s="3">
+        <v>442</v>
+      </c>
+      <c r="AO29" s="3">
+        <v>857</v>
+      </c>
+      <c r="AP29" s="3">
+        <v>690</v>
+      </c>
+      <c r="AQ29" s="3">
+        <v>629</v>
+      </c>
+      <c r="AR29" s="23">
+        <f>AVERAGE(AH29:AQ29)</f>
+        <v>707.8</v>
+      </c>
     </row>
-    <row r="32" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E32" s="1"/>
+    <row r="30" spans="1:44" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="19">
+        <v>154</v>
+      </c>
+      <c r="B30" s="19">
+        <v>155</v>
+      </c>
+      <c r="C30" s="19">
+        <v>232</v>
+      </c>
+      <c r="D30" s="19">
+        <v>233</v>
+      </c>
+      <c r="E30" s="19">
+        <v>155</v>
+      </c>
+      <c r="F30" s="19">
+        <v>154</v>
+      </c>
+      <c r="G30" s="19">
+        <v>156</v>
+      </c>
+      <c r="H30" s="19">
+        <v>231</v>
+      </c>
+      <c r="I30" s="19">
+        <v>159</v>
+      </c>
+      <c r="J30" s="19">
+        <v>156</v>
+      </c>
+      <c r="K30" s="23">
+        <f t="shared" si="0"/>
+        <v>178.5</v>
+      </c>
+      <c r="L30" s="20">
+        <v>632</v>
+      </c>
+      <c r="M30" s="20">
+        <v>227</v>
+      </c>
+      <c r="N30" s="20">
+        <v>962</v>
+      </c>
+      <c r="O30" s="20">
+        <v>232</v>
+      </c>
+      <c r="P30" s="20">
+        <v>301</v>
+      </c>
+      <c r="Q30" s="20">
+        <v>909</v>
+      </c>
+      <c r="R30" s="20">
+        <v>692</v>
+      </c>
+      <c r="S30" s="20">
+        <v>910</v>
+      </c>
+      <c r="T30" s="20">
+        <v>232</v>
+      </c>
+      <c r="U30" s="20">
+        <v>691</v>
+      </c>
+      <c r="V30" s="23">
+        <f t="shared" si="1"/>
+        <v>578.79999999999995</v>
+      </c>
+      <c r="W30" s="21">
+        <v>502</v>
+      </c>
+      <c r="X30" s="21">
+        <v>1020</v>
+      </c>
+      <c r="Y30" s="21">
+        <v>233</v>
+      </c>
+      <c r="Z30" s="21">
+        <v>912</v>
+      </c>
+      <c r="AA30" s="21">
+        <v>1755</v>
+      </c>
+      <c r="AB30" s="3">
+        <v>1071</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>962</v>
+      </c>
+      <c r="AD30" s="3">
+        <v>798</v>
+      </c>
+      <c r="AE30" s="3">
+        <v>1068</v>
+      </c>
+      <c r="AF30" s="1">
+        <v>231</v>
+      </c>
+      <c r="AG30" s="23">
+        <f t="shared" si="2"/>
+        <v>855.2</v>
+      </c>
+      <c r="AH30" s="24">
+        <v>857</v>
+      </c>
+      <c r="AI30" s="24">
+        <v>628</v>
+      </c>
+      <c r="AJ30" s="24">
+        <v>150</v>
+      </c>
+      <c r="AK30" s="24">
+        <v>502</v>
+      </c>
+      <c r="AL30" s="24">
+        <v>914</v>
+      </c>
+      <c r="AM30" s="24">
+        <v>911</v>
+      </c>
+      <c r="AN30" s="3">
+        <v>443</v>
+      </c>
+      <c r="AO30" s="3">
+        <v>915</v>
+      </c>
+      <c r="AP30" s="3">
+        <v>1012</v>
+      </c>
+      <c r="AQ30" s="3">
+        <v>804</v>
+      </c>
+      <c r="AR30" s="23">
+        <f>AVERAGE(AH30:AQ30)</f>
+        <v>713.6</v>
+      </c>
     </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E33" s="1"/>
+    <row r="31" spans="1:44" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="19">
+        <v>156</v>
+      </c>
+      <c r="B31" s="19">
+        <v>154</v>
+      </c>
+      <c r="C31" s="19">
+        <v>158</v>
+      </c>
+      <c r="D31" s="19">
+        <v>154</v>
+      </c>
+      <c r="E31" s="19">
+        <v>237</v>
+      </c>
+      <c r="F31" s="19">
+        <v>154</v>
+      </c>
+      <c r="G31" s="19">
+        <v>158</v>
+      </c>
+      <c r="H31" s="19">
+        <v>231</v>
+      </c>
+      <c r="I31" s="19">
+        <v>154</v>
+      </c>
+      <c r="J31" s="19">
+        <v>154</v>
+      </c>
+      <c r="K31" s="23">
+        <f t="shared" si="0"/>
+        <v>171</v>
+      </c>
+      <c r="L31" s="20">
+        <v>753</v>
+      </c>
+      <c r="M31" s="20">
+        <v>753</v>
+      </c>
+      <c r="N31" s="20">
+        <v>749</v>
+      </c>
+      <c r="O31" s="20">
+        <v>231</v>
+      </c>
+      <c r="P31" s="20">
+        <v>303</v>
+      </c>
+      <c r="Q31" s="20">
+        <v>1062</v>
+      </c>
+      <c r="R31" s="20">
+        <v>854</v>
+      </c>
+      <c r="S31" s="20">
+        <v>1013</v>
+      </c>
+      <c r="T31" s="20">
+        <v>151</v>
+      </c>
+      <c r="U31" s="20">
+        <v>1011</v>
+      </c>
+      <c r="V31" s="23">
+        <f t="shared" si="1"/>
+        <v>688</v>
+      </c>
+      <c r="W31" s="21">
+        <v>636</v>
+      </c>
+      <c r="X31" s="21">
+        <v>968</v>
+      </c>
+      <c r="Y31" s="21">
+        <v>232</v>
+      </c>
+      <c r="Z31" s="21">
+        <v>906</v>
+      </c>
+      <c r="AA31" s="21">
+        <v>1011</v>
+      </c>
+      <c r="AB31" s="3">
+        <v>439</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>911</v>
+      </c>
+      <c r="AD31" s="3">
+        <v>505</v>
+      </c>
+      <c r="AE31" s="3">
+        <v>910</v>
+      </c>
+      <c r="AF31" s="1">
+        <v>230</v>
+      </c>
+      <c r="AG31" s="23">
+        <f t="shared" si="2"/>
+        <v>674.8</v>
+      </c>
+      <c r="AH31" s="24">
+        <v>741</v>
+      </c>
+      <c r="AI31" s="24">
+        <v>1108</v>
+      </c>
+      <c r="AJ31" s="24">
+        <v>231</v>
+      </c>
+      <c r="AK31" s="24">
+        <v>507</v>
+      </c>
+      <c r="AL31" s="24">
+        <v>912</v>
+      </c>
+      <c r="AM31" s="24">
+        <v>1059</v>
+      </c>
+      <c r="AN31" s="3">
+        <v>505</v>
+      </c>
+      <c r="AO31" s="3">
+        <v>857</v>
+      </c>
+      <c r="AP31" s="3">
+        <v>1064</v>
+      </c>
+      <c r="AQ31" s="3">
+        <v>685</v>
+      </c>
+      <c r="AR31" s="23">
+        <f>AVERAGE(AH31:AQ31)</f>
+        <v>766.9</v>
+      </c>
     </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E34" s="1"/>
+    <row r="32" spans="1:44" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="19">
+        <v>154</v>
+      </c>
+      <c r="B32" s="19">
+        <v>155</v>
+      </c>
+      <c r="C32" s="19">
+        <v>154</v>
+      </c>
+      <c r="D32" s="19">
+        <v>153</v>
+      </c>
+      <c r="E32" s="19">
+        <v>234</v>
+      </c>
+      <c r="F32" s="19">
+        <v>231</v>
+      </c>
+      <c r="G32" s="19">
+        <v>154</v>
+      </c>
+      <c r="H32" s="19">
+        <v>156</v>
+      </c>
+      <c r="I32" s="19">
+        <v>154</v>
+      </c>
+      <c r="J32" s="19">
+        <v>232</v>
+      </c>
+      <c r="K32" s="23">
+        <f t="shared" si="0"/>
+        <v>177.7</v>
+      </c>
+      <c r="L32" s="20">
+        <v>807</v>
+      </c>
+      <c r="M32" s="20">
+        <v>746</v>
+      </c>
+      <c r="N32" s="20">
+        <v>917</v>
+      </c>
+      <c r="O32" s="20">
+        <v>151</v>
+      </c>
+      <c r="P32" s="20">
+        <v>911</v>
+      </c>
+      <c r="Q32" s="20">
+        <v>965</v>
+      </c>
+      <c r="R32" s="20">
+        <v>511</v>
+      </c>
+      <c r="S32" s="20">
+        <v>1117</v>
+      </c>
+      <c r="T32" s="20">
+        <v>150</v>
+      </c>
+      <c r="U32" s="20">
+        <v>962</v>
+      </c>
+      <c r="V32" s="23">
+        <f t="shared" si="1"/>
+        <v>723.7</v>
+      </c>
+      <c r="W32" s="21">
+        <v>504</v>
+      </c>
+      <c r="X32" s="21">
+        <v>803</v>
+      </c>
+      <c r="Y32" s="21">
+        <v>151</v>
+      </c>
+      <c r="Z32" s="21">
+        <v>627</v>
+      </c>
+      <c r="AA32" s="21">
+        <v>1016</v>
+      </c>
+      <c r="AB32" s="3">
+        <v>442</v>
+      </c>
+      <c r="AC32" s="3">
+        <v>751</v>
+      </c>
+      <c r="AD32" s="3">
+        <v>908</v>
+      </c>
+      <c r="AE32" s="3">
+        <v>917</v>
+      </c>
+      <c r="AF32" s="1">
+        <v>150</v>
+      </c>
+      <c r="AG32" s="23">
+        <f t="shared" si="2"/>
+        <v>626.9</v>
+      </c>
+      <c r="AH32" s="24">
+        <v>807</v>
+      </c>
+      <c r="AI32" s="24">
+        <v>1292</v>
+      </c>
+      <c r="AJ32" s="24">
+        <v>232</v>
+      </c>
+      <c r="AK32" s="24">
+        <v>749</v>
+      </c>
+      <c r="AL32" s="24">
+        <v>1015</v>
+      </c>
+      <c r="AM32" s="24">
+        <v>915</v>
+      </c>
+      <c r="AN32" s="3">
+        <v>507</v>
+      </c>
+      <c r="AO32" s="3">
+        <v>912</v>
+      </c>
+      <c r="AP32" s="3">
+        <v>1065</v>
+      </c>
+      <c r="AQ32" s="3">
+        <v>1015</v>
+      </c>
+      <c r="AR32" s="23">
+        <f>AVERAGE(AH32:AQ32)</f>
+        <v>850.9</v>
+      </c>
     </row>
-    <row r="35" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E35" s="1"/>
+    <row r="33" spans="1:44" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="19">
+        <v>155</v>
+      </c>
+      <c r="B33" s="19">
+        <v>158</v>
+      </c>
+      <c r="C33" s="19">
+        <v>156</v>
+      </c>
+      <c r="D33" s="19">
+        <v>154</v>
+      </c>
+      <c r="E33" s="19">
+        <v>233</v>
+      </c>
+      <c r="F33" s="19">
+        <v>155</v>
+      </c>
+      <c r="G33" s="19">
+        <v>159</v>
+      </c>
+      <c r="H33" s="19">
+        <v>156</v>
+      </c>
+      <c r="I33" s="19">
+        <v>155</v>
+      </c>
+      <c r="J33" s="19">
+        <v>234</v>
+      </c>
+      <c r="K33" s="23">
+        <f t="shared" si="0"/>
+        <v>171.5</v>
+      </c>
+      <c r="L33" s="20">
+        <v>908</v>
+      </c>
+      <c r="M33" s="20">
+        <v>1012</v>
+      </c>
+      <c r="N33" s="20">
+        <v>1018</v>
+      </c>
+      <c r="O33" s="20">
+        <v>232</v>
+      </c>
+      <c r="P33" s="20">
+        <v>907</v>
+      </c>
+      <c r="Q33" s="20">
+        <v>1063</v>
+      </c>
+      <c r="R33" s="20">
+        <v>686</v>
+      </c>
+      <c r="S33" s="20">
+        <v>807</v>
+      </c>
+      <c r="T33" s="20">
+        <v>151</v>
+      </c>
+      <c r="U33" s="20">
+        <v>913</v>
+      </c>
+      <c r="V33" s="23">
+        <f t="shared" si="1"/>
+        <v>769.7</v>
+      </c>
+      <c r="W33" s="21">
+        <v>691</v>
+      </c>
+      <c r="X33" s="21">
+        <v>751</v>
+      </c>
+      <c r="Y33" s="21">
+        <v>232</v>
+      </c>
+      <c r="Z33" s="21">
+        <v>798</v>
+      </c>
+      <c r="AA33" s="21">
+        <v>1110</v>
+      </c>
+      <c r="AB33" s="3">
+        <v>438</v>
+      </c>
+      <c r="AC33" s="3">
+        <v>747</v>
+      </c>
+      <c r="AD33" s="3">
+        <v>1596</v>
+      </c>
+      <c r="AE33" s="3">
+        <v>907</v>
+      </c>
+      <c r="AF33" s="1">
+        <v>231</v>
+      </c>
+      <c r="AG33" s="23">
+        <f t="shared" si="2"/>
+        <v>750.1</v>
+      </c>
+      <c r="AH33" s="24">
+        <v>962</v>
+      </c>
+      <c r="AI33" s="24">
+        <v>1018</v>
+      </c>
+      <c r="AJ33" s="24">
+        <v>231</v>
+      </c>
+      <c r="AK33" s="24">
+        <v>1114</v>
+      </c>
+      <c r="AL33" s="24">
+        <v>233</v>
+      </c>
+      <c r="AM33" s="24">
+        <v>1012</v>
+      </c>
+      <c r="AN33" s="3">
+        <v>508</v>
+      </c>
+      <c r="AO33" s="3">
+        <v>858</v>
+      </c>
+      <c r="AP33" s="3">
+        <v>907</v>
+      </c>
+      <c r="AQ33" s="3">
+        <v>915</v>
+      </c>
+      <c r="AR33" s="23">
+        <f>AVERAGE(AH33:AQ33)</f>
+        <v>775.8</v>
+      </c>
     </row>
-    <row r="36" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E36" s="1"/>
+    <row r="34" spans="1:44" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A34" s="19">
+        <v>153</v>
+      </c>
+      <c r="B34" s="19">
+        <v>156</v>
+      </c>
+      <c r="C34" s="19">
+        <v>154</v>
+      </c>
+      <c r="D34" s="19">
+        <v>160</v>
+      </c>
+      <c r="E34" s="19">
+        <v>158</v>
+      </c>
+      <c r="F34" s="19">
+        <v>156</v>
+      </c>
+      <c r="G34" s="19">
+        <v>155</v>
+      </c>
+      <c r="H34" s="19">
+        <v>154</v>
+      </c>
+      <c r="I34" s="19">
+        <v>154</v>
+      </c>
+      <c r="J34" s="19">
+        <v>156</v>
+      </c>
+      <c r="K34" s="23">
+        <f t="shared" si="0"/>
+        <v>155.6</v>
+      </c>
+      <c r="L34" s="20">
+        <v>966</v>
+      </c>
+      <c r="M34" s="20">
+        <v>907</v>
+      </c>
+      <c r="N34" s="20">
+        <v>963</v>
+      </c>
+      <c r="O34" s="20">
+        <v>232</v>
+      </c>
+      <c r="P34" s="20">
+        <v>569</v>
+      </c>
+      <c r="Q34" s="20">
+        <v>1206</v>
+      </c>
+      <c r="R34" s="20">
+        <v>506</v>
+      </c>
+      <c r="S34" s="20">
+        <v>1012</v>
+      </c>
+      <c r="T34" s="20">
+        <v>150</v>
+      </c>
+      <c r="U34" s="20">
+        <v>232</v>
+      </c>
+      <c r="V34" s="23">
+        <f t="shared" si="1"/>
+        <v>674.3</v>
+      </c>
+      <c r="W34" s="21">
+        <v>567</v>
+      </c>
+      <c r="X34" s="21">
+        <v>691</v>
+      </c>
+      <c r="Y34" s="21">
+        <v>232</v>
+      </c>
+      <c r="Z34" s="21">
+        <v>858</v>
+      </c>
+      <c r="AA34" s="21">
+        <v>959</v>
+      </c>
+      <c r="AB34" s="3">
+        <v>499</v>
+      </c>
+      <c r="AC34" s="3">
+        <v>916</v>
+      </c>
+      <c r="AD34" s="3">
+        <v>625</v>
+      </c>
+      <c r="AE34" s="3">
+        <v>914</v>
+      </c>
+      <c r="AF34" s="1">
+        <v>232</v>
+      </c>
+      <c r="AG34" s="23">
+        <f t="shared" si="2"/>
+        <v>649.29999999999995</v>
+      </c>
+      <c r="AH34" s="24">
+        <v>752</v>
+      </c>
+      <c r="AI34" s="24">
+        <v>909</v>
+      </c>
+      <c r="AJ34" s="24">
+        <v>151</v>
+      </c>
+      <c r="AK34" s="24">
+        <v>695</v>
+      </c>
+      <c r="AL34" s="24">
+        <v>632</v>
+      </c>
+      <c r="AM34" s="24">
+        <v>911</v>
+      </c>
+      <c r="AN34" s="3">
+        <v>690</v>
+      </c>
+      <c r="AO34" s="3">
+        <v>850</v>
+      </c>
+      <c r="AP34" s="3">
+        <v>626</v>
+      </c>
+      <c r="AQ34" s="3">
+        <v>804</v>
+      </c>
+      <c r="AR34" s="23">
+        <f>AVERAGE(AH34:AQ34)</f>
+        <v>702</v>
+      </c>
+    </row>
+    <row r="35" spans="1:44" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A35" s="19">
+        <v>155</v>
+      </c>
+      <c r="B35" s="19">
+        <v>234</v>
+      </c>
+      <c r="C35" s="19">
+        <v>153</v>
+      </c>
+      <c r="D35" s="19">
+        <v>159</v>
+      </c>
+      <c r="E35" s="19">
+        <v>158</v>
+      </c>
+      <c r="F35" s="19">
+        <v>155</v>
+      </c>
+      <c r="G35" s="19">
+        <v>308</v>
+      </c>
+      <c r="H35" s="19">
+        <v>238</v>
+      </c>
+      <c r="I35" s="19">
+        <v>155</v>
+      </c>
+      <c r="J35" s="19">
+        <v>159</v>
+      </c>
+      <c r="K35" s="23">
+        <f t="shared" si="0"/>
+        <v>187.4</v>
+      </c>
+      <c r="L35" s="20">
+        <v>1016</v>
+      </c>
+      <c r="M35" s="20">
+        <v>907</v>
+      </c>
+      <c r="N35" s="20">
+        <v>855</v>
+      </c>
+      <c r="O35" s="20">
+        <v>233</v>
+      </c>
+      <c r="P35" s="20">
+        <v>749</v>
+      </c>
+      <c r="Q35" s="20">
+        <v>807</v>
+      </c>
+      <c r="R35" s="20">
+        <v>505</v>
+      </c>
+      <c r="S35" s="20">
+        <v>1010</v>
+      </c>
+      <c r="T35" s="20">
+        <v>232</v>
+      </c>
+      <c r="U35" s="20">
+        <v>306</v>
+      </c>
+      <c r="V35" s="23">
+        <f t="shared" si="1"/>
+        <v>662</v>
+      </c>
+      <c r="W35" s="21">
+        <v>629</v>
+      </c>
+      <c r="X35" s="21">
+        <v>1680</v>
+      </c>
+      <c r="Y35" s="21">
+        <v>231</v>
+      </c>
+      <c r="Z35" s="21">
+        <v>623</v>
+      </c>
+      <c r="AA35" s="21">
+        <v>962</v>
+      </c>
+      <c r="AB35" s="3">
+        <v>508</v>
+      </c>
+      <c r="AC35" s="3">
+        <v>966</v>
+      </c>
+      <c r="AD35" s="3">
+        <v>688</v>
+      </c>
+      <c r="AE35" s="3">
+        <v>695</v>
+      </c>
+      <c r="AF35" s="1">
+        <v>234</v>
+      </c>
+      <c r="AG35" s="23">
+        <f t="shared" si="2"/>
+        <v>721.6</v>
+      </c>
+      <c r="AH35" s="24">
+        <v>633</v>
+      </c>
+      <c r="AI35" s="24">
+        <v>1519</v>
+      </c>
+      <c r="AJ35" s="24">
+        <v>233</v>
+      </c>
+      <c r="AK35" s="24">
+        <v>1015</v>
+      </c>
+      <c r="AL35" s="24">
+        <v>1513</v>
+      </c>
+      <c r="AM35" s="24">
+        <v>627</v>
+      </c>
+      <c r="AN35" s="3">
+        <v>629</v>
+      </c>
+      <c r="AO35" s="3">
+        <v>571</v>
+      </c>
+      <c r="AP35" s="3">
+        <v>908</v>
+      </c>
+      <c r="AQ35" s="3">
+        <v>955</v>
+      </c>
+      <c r="AR35" s="23">
+        <f>AVERAGE(AH35:AQ35)</f>
+        <v>860.3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:44" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="19">
+        <v>154</v>
+      </c>
+      <c r="B36" s="19">
+        <v>156</v>
+      </c>
+      <c r="C36" s="19">
+        <v>158</v>
+      </c>
+      <c r="D36" s="19">
+        <v>156</v>
+      </c>
+      <c r="E36" s="19">
+        <v>162</v>
+      </c>
+      <c r="F36" s="19">
+        <v>160</v>
+      </c>
+      <c r="G36" s="19">
+        <v>156</v>
+      </c>
+      <c r="H36" s="19">
+        <v>156</v>
+      </c>
+      <c r="I36" s="19">
+        <v>156</v>
+      </c>
+      <c r="J36" s="19">
+        <v>156</v>
+      </c>
+      <c r="K36" s="23">
+        <f t="shared" si="0"/>
+        <v>157</v>
+      </c>
+      <c r="L36" s="20">
+        <v>1012</v>
+      </c>
+      <c r="M36" s="20">
+        <v>909</v>
+      </c>
+      <c r="N36" s="20">
+        <v>969</v>
+      </c>
+      <c r="O36" s="20">
+        <v>233</v>
+      </c>
+      <c r="P36" s="20">
+        <v>1009</v>
+      </c>
+      <c r="Q36" s="20">
+        <v>373</v>
+      </c>
+      <c r="R36" s="20">
+        <v>506</v>
+      </c>
+      <c r="S36" s="20">
+        <v>1061</v>
+      </c>
+      <c r="T36" s="20">
+        <v>231</v>
+      </c>
+      <c r="U36" s="20">
+        <v>626</v>
+      </c>
+      <c r="V36" s="23">
+        <f t="shared" si="1"/>
+        <v>692.9</v>
+      </c>
+      <c r="W36" s="21">
+        <v>630</v>
+      </c>
+      <c r="X36" s="21">
+        <v>508</v>
+      </c>
+      <c r="Y36" s="21">
+        <v>232</v>
+      </c>
+      <c r="Z36" s="21">
+        <v>508</v>
+      </c>
+      <c r="AA36" s="21">
+        <v>1014</v>
+      </c>
+      <c r="AB36" s="3">
+        <v>508</v>
+      </c>
+      <c r="AC36" s="3">
+        <v>1209</v>
+      </c>
+      <c r="AD36" s="3">
+        <v>504</v>
+      </c>
+      <c r="AE36" s="3">
+        <v>753</v>
+      </c>
+      <c r="AF36" s="1">
+        <v>231</v>
+      </c>
+      <c r="AG36" s="23">
+        <f t="shared" si="2"/>
+        <v>609.70000000000005</v>
+      </c>
+      <c r="AH36" s="24">
+        <v>748</v>
+      </c>
+      <c r="AI36" s="24">
+        <v>860</v>
+      </c>
+      <c r="AJ36" s="24">
+        <v>233</v>
+      </c>
+      <c r="AK36" s="24">
+        <v>964</v>
+      </c>
+      <c r="AL36" s="24">
+        <v>688</v>
+      </c>
+      <c r="AM36" s="24">
+        <v>630</v>
+      </c>
+      <c r="AN36" s="3">
+        <v>855</v>
+      </c>
+      <c r="AO36" s="3">
+        <v>742</v>
+      </c>
+      <c r="AP36" s="3">
+        <v>1210</v>
+      </c>
+      <c r="AQ36" s="3">
+        <v>1067</v>
+      </c>
+      <c r="AR36" s="23">
+        <f>AVERAGE(AH36:AQ36)</f>
+        <v>799.7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:44" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A37" s="19">
+        <v>153</v>
+      </c>
+      <c r="B37" s="19">
+        <v>233</v>
+      </c>
+      <c r="C37" s="19">
+        <v>155</v>
+      </c>
+      <c r="D37" s="19">
+        <v>234</v>
+      </c>
+      <c r="E37" s="19">
+        <v>155</v>
+      </c>
+      <c r="F37" s="19">
+        <v>155</v>
+      </c>
+      <c r="G37" s="19">
+        <v>154</v>
+      </c>
+      <c r="H37" s="19">
+        <v>233</v>
+      </c>
+      <c r="I37" s="19">
+        <v>159</v>
+      </c>
+      <c r="J37" s="19">
+        <v>156</v>
+      </c>
+      <c r="K37" s="23">
+        <f t="shared" si="0"/>
+        <v>178.7</v>
+      </c>
+      <c r="L37" s="20">
+        <v>909</v>
+      </c>
+      <c r="M37" s="20">
+        <v>855</v>
+      </c>
+      <c r="N37" s="20">
+        <v>1013</v>
+      </c>
+      <c r="O37" s="20">
+        <v>232</v>
+      </c>
+      <c r="P37" s="20">
+        <v>1010</v>
+      </c>
+      <c r="Q37" s="20">
+        <v>306</v>
+      </c>
+      <c r="R37" s="20">
+        <v>568</v>
+      </c>
+      <c r="S37" s="20">
+        <v>1067</v>
+      </c>
+      <c r="T37" s="20">
+        <v>231</v>
+      </c>
+      <c r="U37" s="20">
+        <v>630</v>
+      </c>
+      <c r="V37" s="23">
+        <f t="shared" si="1"/>
+        <v>682.1</v>
+      </c>
+      <c r="W37" s="21">
+        <v>504</v>
+      </c>
+      <c r="X37" s="21">
+        <v>506</v>
+      </c>
+      <c r="Y37" s="21">
+        <v>150</v>
+      </c>
+      <c r="Z37" s="21">
+        <v>631</v>
+      </c>
+      <c r="AA37" s="21">
+        <v>1512</v>
+      </c>
+      <c r="AB37" s="3">
+        <v>626</v>
+      </c>
+      <c r="AC37" s="3">
+        <v>1642</v>
+      </c>
+      <c r="AD37" s="3">
+        <v>507</v>
+      </c>
+      <c r="AE37" s="3">
+        <v>911</v>
+      </c>
+      <c r="AF37" s="1">
+        <v>235</v>
+      </c>
+      <c r="AG37" s="23">
+        <f t="shared" si="2"/>
+        <v>722.4</v>
+      </c>
+      <c r="AH37" s="24">
+        <v>686</v>
+      </c>
+      <c r="AI37" s="24">
+        <v>1673</v>
+      </c>
+      <c r="AJ37" s="24">
+        <v>233</v>
+      </c>
+      <c r="AK37" s="24">
+        <v>1203</v>
+      </c>
+      <c r="AL37" s="24">
+        <v>744</v>
+      </c>
+      <c r="AM37" s="24">
+        <v>1260</v>
+      </c>
+      <c r="AN37" s="3">
+        <v>636</v>
+      </c>
+      <c r="AO37" s="3">
+        <v>909</v>
+      </c>
+      <c r="AP37" s="3">
+        <v>692</v>
+      </c>
+      <c r="AQ37" s="3">
+        <v>749</v>
+      </c>
+      <c r="AR37" s="23">
+        <f>AVERAGE(AH37:AQ37)</f>
+        <v>878.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:44" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A38" s="19">
+        <v>161</v>
+      </c>
+      <c r="B38" s="19">
+        <v>232</v>
+      </c>
+      <c r="C38" s="19">
+        <v>154</v>
+      </c>
+      <c r="D38" s="19">
+        <v>304</v>
+      </c>
+      <c r="E38" s="19">
+        <v>154</v>
+      </c>
+      <c r="F38" s="19">
+        <v>154</v>
+      </c>
+      <c r="G38" s="19">
+        <v>233</v>
+      </c>
+      <c r="H38" s="19">
+        <v>155</v>
+      </c>
+      <c r="I38" s="19">
+        <v>159</v>
+      </c>
+      <c r="J38" s="19">
+        <v>155</v>
+      </c>
+      <c r="K38" s="23">
+        <f t="shared" si="0"/>
+        <v>186.1</v>
+      </c>
+      <c r="L38" s="20">
+        <v>962</v>
+      </c>
+      <c r="M38" s="20">
+        <v>907</v>
+      </c>
+      <c r="N38" s="20">
+        <v>1210</v>
+      </c>
+      <c r="O38" s="20">
+        <v>233</v>
+      </c>
+      <c r="P38" s="20">
+        <v>965</v>
+      </c>
+      <c r="Q38" s="20">
+        <v>630</v>
+      </c>
+      <c r="R38" s="20">
+        <v>624</v>
+      </c>
+      <c r="S38" s="20">
+        <v>1167</v>
+      </c>
+      <c r="T38" s="20">
+        <v>230</v>
+      </c>
+      <c r="U38" s="20">
+        <v>915</v>
+      </c>
+      <c r="V38" s="23">
+        <f t="shared" si="1"/>
+        <v>784.3</v>
+      </c>
+      <c r="W38" s="21">
+        <v>507</v>
+      </c>
+      <c r="X38" s="21">
+        <v>632</v>
+      </c>
+      <c r="Y38" s="21">
+        <v>232</v>
+      </c>
+      <c r="Z38" s="21">
+        <v>857</v>
+      </c>
+      <c r="AA38" s="21">
+        <v>630</v>
+      </c>
+      <c r="AB38" s="3">
+        <v>504</v>
+      </c>
+      <c r="AC38" s="3">
+        <v>1012</v>
+      </c>
+      <c r="AD38" s="3">
+        <v>628</v>
+      </c>
+      <c r="AE38" s="3">
+        <v>568</v>
+      </c>
+      <c r="AF38" s="1">
+        <v>151</v>
+      </c>
+      <c r="AG38" s="23">
+        <f t="shared" si="2"/>
+        <v>572.1</v>
+      </c>
+      <c r="AH38" s="24">
+        <v>692</v>
+      </c>
+      <c r="AI38" s="24">
+        <v>568</v>
+      </c>
+      <c r="AJ38" s="24">
+        <v>235</v>
+      </c>
+      <c r="AK38" s="24">
+        <v>807</v>
+      </c>
+      <c r="AL38" s="24">
+        <v>635</v>
+      </c>
+      <c r="AM38" s="24">
+        <v>439</v>
+      </c>
+      <c r="AN38" s="3">
+        <v>510</v>
+      </c>
+      <c r="AO38" s="3">
+        <v>857</v>
+      </c>
+      <c r="AP38" s="3">
+        <v>908</v>
+      </c>
+      <c r="AQ38" s="3">
+        <v>913</v>
+      </c>
+      <c r="AR38" s="23">
+        <f>AVERAGE(AH38:AQ38)</f>
+        <v>656.4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:44" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A39" s="19">
+        <v>156</v>
+      </c>
+      <c r="B39" s="19">
+        <v>156</v>
+      </c>
+      <c r="C39" s="19">
+        <v>153</v>
+      </c>
+      <c r="D39" s="19">
+        <v>156</v>
+      </c>
+      <c r="E39" s="19">
+        <v>154</v>
+      </c>
+      <c r="F39" s="19">
+        <v>154</v>
+      </c>
+      <c r="G39" s="19">
+        <v>154</v>
+      </c>
+      <c r="H39" s="19">
+        <v>156</v>
+      </c>
+      <c r="I39" s="19">
+        <v>156</v>
+      </c>
+      <c r="J39" s="19">
+        <v>155</v>
+      </c>
+      <c r="K39" s="23">
+        <f t="shared" si="0"/>
+        <v>155</v>
+      </c>
+      <c r="L39" s="20">
+        <v>917</v>
+      </c>
+      <c r="M39" s="20">
+        <v>1066</v>
+      </c>
+      <c r="N39" s="20">
+        <v>914</v>
+      </c>
+      <c r="O39" s="20">
+        <v>234</v>
+      </c>
+      <c r="P39" s="20">
+        <v>1058</v>
+      </c>
+      <c r="Q39" s="20">
+        <v>441</v>
+      </c>
+      <c r="R39" s="20">
+        <v>627</v>
+      </c>
+      <c r="S39" s="20">
+        <v>961</v>
+      </c>
+      <c r="T39" s="20">
+        <v>233</v>
+      </c>
+      <c r="U39" s="20">
+        <v>1017</v>
+      </c>
+      <c r="V39" s="23">
+        <f t="shared" si="1"/>
+        <v>746.8</v>
+      </c>
+      <c r="W39" s="21">
+        <v>621</v>
+      </c>
+      <c r="X39" s="21">
+        <v>858</v>
+      </c>
+      <c r="Y39" s="21">
+        <v>152</v>
+      </c>
+      <c r="Z39" s="21">
+        <v>750</v>
+      </c>
+      <c r="AA39" s="21">
+        <v>909</v>
+      </c>
+      <c r="AB39" s="3">
+        <v>570</v>
+      </c>
+      <c r="AC39" s="3">
+        <v>1012</v>
+      </c>
+      <c r="AD39" s="3">
+        <v>854</v>
+      </c>
+      <c r="AE39" s="3">
+        <v>1211</v>
+      </c>
+      <c r="AF39" s="1">
+        <v>234</v>
+      </c>
+      <c r="AG39" s="23">
+        <f t="shared" si="2"/>
+        <v>717.1</v>
+      </c>
+      <c r="AH39" s="24">
+        <v>1017</v>
+      </c>
+      <c r="AI39" s="24">
+        <v>502</v>
+      </c>
+      <c r="AJ39" s="24">
+        <v>150</v>
+      </c>
+      <c r="AK39" s="24">
+        <v>692</v>
+      </c>
+      <c r="AL39" s="24">
+        <v>1014</v>
+      </c>
+      <c r="AM39" s="24">
+        <v>511</v>
+      </c>
+      <c r="AN39" s="3">
+        <v>439</v>
+      </c>
+      <c r="AO39" s="3">
+        <v>862</v>
+      </c>
+      <c r="AP39" s="3">
+        <v>1063</v>
+      </c>
+      <c r="AQ39" s="3">
+        <v>966</v>
+      </c>
+      <c r="AR39" s="23">
+        <f>AVERAGE(AH39:AQ39)</f>
+        <v>721.6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:44" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A40" s="19">
+        <v>234</v>
+      </c>
+      <c r="B40" s="19">
+        <v>224</v>
+      </c>
+      <c r="C40" s="19">
+        <v>157</v>
+      </c>
+      <c r="D40" s="19">
+        <v>155</v>
+      </c>
+      <c r="E40" s="19">
+        <v>224</v>
+      </c>
+      <c r="F40" s="19">
+        <v>156</v>
+      </c>
+      <c r="G40" s="19">
+        <v>153</v>
+      </c>
+      <c r="H40" s="19">
+        <v>153</v>
+      </c>
+      <c r="I40" s="19">
+        <v>154</v>
+      </c>
+      <c r="J40" s="19">
+        <v>154</v>
+      </c>
+      <c r="K40" s="23">
+        <f t="shared" si="0"/>
+        <v>176.4</v>
+      </c>
+      <c r="L40" s="20">
+        <v>810</v>
+      </c>
+      <c r="M40" s="20">
+        <v>1205</v>
+      </c>
+      <c r="N40" s="20">
+        <v>1011</v>
+      </c>
+      <c r="O40" s="20">
+        <v>233</v>
+      </c>
+      <c r="P40" s="20">
+        <v>964</v>
+      </c>
+      <c r="Q40" s="20">
+        <v>967</v>
+      </c>
+      <c r="R40" s="20">
+        <v>623</v>
+      </c>
+      <c r="S40" s="20">
+        <v>1005</v>
+      </c>
+      <c r="T40" s="20">
+        <v>151</v>
+      </c>
+      <c r="U40" s="20">
+        <v>808</v>
+      </c>
+      <c r="V40" s="23">
+        <f t="shared" si="1"/>
+        <v>777.7</v>
+      </c>
+      <c r="W40" s="21">
+        <v>506</v>
+      </c>
+      <c r="X40" s="21">
+        <v>629</v>
+      </c>
+      <c r="Y40" s="21">
+        <v>232</v>
+      </c>
+      <c r="Z40" s="21">
+        <v>693</v>
+      </c>
+      <c r="AA40" s="21">
+        <v>907</v>
+      </c>
+      <c r="AB40" s="3">
+        <v>911</v>
+      </c>
+      <c r="AC40" s="3">
+        <v>686</v>
+      </c>
+      <c r="AD40" s="3">
+        <v>629</v>
+      </c>
+      <c r="AE40" s="3">
+        <v>794</v>
+      </c>
+      <c r="AF40" s="1">
+        <v>232</v>
+      </c>
+      <c r="AG40" s="23">
+        <f t="shared" si="2"/>
+        <v>621.9</v>
+      </c>
+      <c r="AH40" s="24">
+        <v>912</v>
+      </c>
+      <c r="AI40" s="24">
+        <v>915</v>
+      </c>
+      <c r="AJ40" s="24">
+        <v>232</v>
+      </c>
+      <c r="AK40" s="24">
+        <v>1109</v>
+      </c>
+      <c r="AL40" s="24">
+        <v>438</v>
+      </c>
+      <c r="AM40" s="24">
+        <v>630</v>
+      </c>
+      <c r="AN40" s="3">
+        <v>630</v>
+      </c>
+      <c r="AO40" s="3">
+        <v>688</v>
+      </c>
+      <c r="AP40" s="3">
+        <v>1064</v>
+      </c>
+      <c r="AQ40" s="3">
+        <v>1200</v>
+      </c>
+      <c r="AR40" s="23">
+        <f>AVERAGE(AH40:AQ40)</f>
+        <v>781.8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:44" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A41" s="19">
+        <v>155</v>
+      </c>
+      <c r="B41" s="19">
+        <v>157</v>
+      </c>
+      <c r="C41" s="19">
+        <v>153</v>
+      </c>
+      <c r="D41" s="19">
+        <v>156</v>
+      </c>
+      <c r="E41" s="19">
+        <v>155</v>
+      </c>
+      <c r="F41" s="19">
+        <v>155</v>
+      </c>
+      <c r="G41" s="19">
+        <v>156</v>
+      </c>
+      <c r="H41" s="19">
+        <v>154</v>
+      </c>
+      <c r="I41" s="19">
+        <v>160</v>
+      </c>
+      <c r="J41" s="19">
+        <v>154</v>
+      </c>
+      <c r="K41" s="23">
+        <f t="shared" si="0"/>
+        <v>155.5</v>
+      </c>
+      <c r="L41" s="20">
+        <v>960</v>
+      </c>
+      <c r="M41" s="20">
+        <v>1250</v>
+      </c>
+      <c r="N41" s="20">
+        <v>751</v>
+      </c>
+      <c r="O41" s="20">
+        <v>233</v>
+      </c>
+      <c r="P41" s="20">
+        <v>967</v>
+      </c>
+      <c r="Q41" s="20">
+        <v>969</v>
+      </c>
+      <c r="R41" s="20">
+        <v>507</v>
+      </c>
+      <c r="S41" s="20">
+        <v>915</v>
+      </c>
+      <c r="T41" s="20">
+        <v>230</v>
+      </c>
+      <c r="U41" s="20">
+        <v>437</v>
+      </c>
+      <c r="V41" s="23">
+        <f t="shared" si="1"/>
+        <v>721.9</v>
+      </c>
+      <c r="W41" s="21">
+        <v>627</v>
+      </c>
+      <c r="X41" s="21">
+        <v>854</v>
+      </c>
+      <c r="Y41" s="21">
+        <v>232</v>
+      </c>
+      <c r="Z41" s="21">
+        <v>627</v>
+      </c>
+      <c r="AA41" s="21">
+        <v>745</v>
+      </c>
+      <c r="AB41" s="3">
+        <v>634</v>
+      </c>
+      <c r="AC41" s="3">
+        <v>855</v>
+      </c>
+      <c r="AD41" s="3">
+        <v>747</v>
+      </c>
+      <c r="AE41" s="3">
+        <v>1298</v>
+      </c>
+      <c r="AF41" s="1">
+        <v>232</v>
+      </c>
+      <c r="AG41" s="23">
+        <f t="shared" si="2"/>
+        <v>685.1</v>
+      </c>
+      <c r="AH41" s="24">
+        <v>1011</v>
+      </c>
+      <c r="AI41" s="24">
+        <v>684</v>
+      </c>
+      <c r="AJ41" s="24">
+        <v>232</v>
+      </c>
+      <c r="AK41" s="24">
+        <v>1113</v>
+      </c>
+      <c r="AL41" s="24">
+        <v>1013</v>
+      </c>
+      <c r="AM41" s="24">
+        <v>685</v>
+      </c>
+      <c r="AN41" s="3">
+        <v>438</v>
+      </c>
+      <c r="AO41" s="3">
+        <v>683</v>
+      </c>
+      <c r="AP41" s="3">
+        <v>1065</v>
+      </c>
+      <c r="AQ41" s="3">
+        <v>805</v>
+      </c>
+      <c r="AR41" s="23">
+        <f>AVERAGE(AH41:AQ41)</f>
+        <v>772.9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:44" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A42" s="19">
+        <v>158</v>
+      </c>
+      <c r="B42" s="19">
+        <v>156</v>
+      </c>
+      <c r="C42" s="19">
+        <v>228</v>
+      </c>
+      <c r="D42" s="19">
+        <v>156</v>
+      </c>
+      <c r="E42" s="19">
+        <v>156</v>
+      </c>
+      <c r="F42" s="19">
+        <v>156</v>
+      </c>
+      <c r="G42" s="19">
+        <v>159</v>
+      </c>
+      <c r="H42" s="19">
+        <v>156</v>
+      </c>
+      <c r="I42" s="19">
+        <v>156</v>
+      </c>
+      <c r="J42" s="19">
+        <v>154</v>
+      </c>
+      <c r="K42" s="23">
+        <f t="shared" si="0"/>
+        <v>163.5</v>
+      </c>
+      <c r="L42" s="20">
+        <v>964</v>
+      </c>
+      <c r="M42" s="20">
+        <v>1067</v>
+      </c>
+      <c r="N42" s="20">
+        <v>693</v>
+      </c>
+      <c r="O42" s="20">
+        <v>232</v>
+      </c>
+      <c r="P42" s="20">
+        <v>1108</v>
+      </c>
+      <c r="Q42" s="20">
+        <v>809</v>
+      </c>
+      <c r="R42" s="20">
+        <v>803</v>
+      </c>
+      <c r="S42" s="20">
+        <v>967</v>
+      </c>
+      <c r="T42" s="20">
+        <v>234</v>
+      </c>
+      <c r="U42" s="20">
+        <v>909</v>
+      </c>
+      <c r="V42" s="23">
+        <f t="shared" si="1"/>
+        <v>778.6</v>
+      </c>
+      <c r="W42" s="21">
+        <v>503</v>
+      </c>
+      <c r="X42" s="21">
+        <v>909</v>
+      </c>
+      <c r="Y42" s="21">
+        <v>151</v>
+      </c>
+      <c r="Z42" s="21">
+        <v>626</v>
+      </c>
+      <c r="AA42" s="21">
+        <v>687</v>
+      </c>
+      <c r="AB42" s="3">
+        <v>439</v>
+      </c>
+      <c r="AC42" s="3">
+        <v>744</v>
+      </c>
+      <c r="AD42" s="3">
+        <v>909</v>
+      </c>
+      <c r="AE42" s="3">
+        <v>962</v>
+      </c>
+      <c r="AF42" s="1">
+        <v>232</v>
+      </c>
+      <c r="AG42" s="23">
+        <f t="shared" si="2"/>
+        <v>616.20000000000005</v>
+      </c>
+      <c r="AH42" s="24">
+        <v>911</v>
+      </c>
+      <c r="AI42" s="24">
+        <v>1254</v>
+      </c>
+      <c r="AJ42" s="24">
+        <v>231</v>
+      </c>
+      <c r="AK42" s="24">
+        <v>1119</v>
+      </c>
+      <c r="AL42" s="24">
+        <v>912</v>
+      </c>
+      <c r="AM42" s="24">
+        <v>858</v>
+      </c>
+      <c r="AN42" s="3">
+        <v>628</v>
+      </c>
+      <c r="AO42" s="3">
+        <v>1015</v>
+      </c>
+      <c r="AP42" s="3">
+        <v>1059</v>
+      </c>
+      <c r="AQ42" s="3">
+        <v>913</v>
+      </c>
+      <c r="AR42" s="23">
+        <f>AVERAGE(AH42:AQ42)</f>
+        <v>890</v>
+      </c>
+    </row>
+    <row r="43" spans="1:44" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A43" s="19">
+        <v>154</v>
+      </c>
+      <c r="B43" s="19">
+        <v>155</v>
+      </c>
+      <c r="C43" s="19">
+        <v>154</v>
+      </c>
+      <c r="D43" s="19">
+        <v>154</v>
+      </c>
+      <c r="E43" s="19">
+        <v>154</v>
+      </c>
+      <c r="F43" s="19">
+        <v>154</v>
+      </c>
+      <c r="G43" s="19">
+        <v>152</v>
+      </c>
+      <c r="H43" s="19">
+        <v>158</v>
+      </c>
+      <c r="I43" s="19">
+        <v>305</v>
+      </c>
+      <c r="J43" s="19">
+        <v>151</v>
+      </c>
+      <c r="K43" s="23">
+        <f t="shared" si="0"/>
+        <v>169.1</v>
+      </c>
+      <c r="L43" s="20">
+        <v>741</v>
+      </c>
+      <c r="M43" s="20">
+        <v>1342</v>
+      </c>
+      <c r="N43" s="20">
+        <v>682</v>
+      </c>
+      <c r="O43" s="20">
+        <v>233</v>
+      </c>
+      <c r="P43" s="20">
+        <v>1016</v>
+      </c>
+      <c r="Q43" s="20">
+        <v>861</v>
+      </c>
+      <c r="R43" s="20">
+        <v>684</v>
+      </c>
+      <c r="S43" s="20">
+        <v>913</v>
+      </c>
+      <c r="T43" s="20">
+        <v>150</v>
+      </c>
+      <c r="U43" s="20">
+        <v>687</v>
+      </c>
+      <c r="V43" s="23">
+        <f t="shared" si="1"/>
+        <v>730.9</v>
+      </c>
+      <c r="W43" s="21">
+        <v>633</v>
+      </c>
+      <c r="X43" s="21">
+        <v>860</v>
+      </c>
+      <c r="Y43" s="21">
+        <v>232</v>
+      </c>
+      <c r="Z43" s="21">
+        <v>964</v>
+      </c>
+      <c r="AA43" s="21">
+        <v>856</v>
+      </c>
+      <c r="AB43" s="3">
+        <v>506</v>
+      </c>
+      <c r="AC43" s="3">
+        <v>689</v>
+      </c>
+      <c r="AD43" s="3">
+        <v>808</v>
+      </c>
+      <c r="AE43" s="3">
+        <v>962</v>
+      </c>
+      <c r="AF43" s="1">
+        <v>233</v>
+      </c>
+      <c r="AG43" s="23">
+        <f t="shared" si="2"/>
+        <v>674.3</v>
+      </c>
+      <c r="AH43" s="24">
+        <v>630</v>
+      </c>
+      <c r="AI43" s="24">
+        <v>749</v>
+      </c>
+      <c r="AJ43" s="24">
+        <v>232</v>
+      </c>
+      <c r="AK43" s="24">
+        <v>1017</v>
+      </c>
+      <c r="AL43" s="24">
+        <v>808</v>
+      </c>
+      <c r="AM43" s="24">
+        <v>907</v>
+      </c>
+      <c r="AN43" s="3">
+        <v>740</v>
+      </c>
+      <c r="AO43" s="3">
+        <v>1011</v>
+      </c>
+      <c r="AP43" s="3">
+        <v>911</v>
+      </c>
+      <c r="AQ43" s="3">
+        <v>748</v>
+      </c>
+      <c r="AR43" s="23">
+        <f>AVERAGE(AH43:AQ43)</f>
+        <v>775.3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:44" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A44" s="19">
+        <v>225</v>
+      </c>
+      <c r="B44" s="19">
+        <v>158</v>
+      </c>
+      <c r="C44" s="19">
+        <v>238</v>
+      </c>
+      <c r="D44" s="19">
+        <v>157</v>
+      </c>
+      <c r="E44" s="19">
+        <v>155</v>
+      </c>
+      <c r="F44" s="19">
+        <v>155</v>
+      </c>
+      <c r="G44" s="19">
+        <v>154</v>
+      </c>
+      <c r="H44" s="19">
+        <v>160</v>
+      </c>
+      <c r="I44" s="19">
+        <v>159</v>
+      </c>
+      <c r="J44" s="19">
+        <v>158</v>
+      </c>
+      <c r="K44" s="23">
+        <f t="shared" si="0"/>
+        <v>171.9</v>
+      </c>
+      <c r="L44" s="20">
+        <v>741</v>
+      </c>
+      <c r="M44" s="20">
+        <v>808</v>
+      </c>
+      <c r="N44" s="20">
+        <v>1207</v>
+      </c>
+      <c r="O44" s="20">
+        <v>232</v>
+      </c>
+      <c r="P44" s="20">
+        <v>855</v>
+      </c>
+      <c r="Q44" s="20">
+        <v>1289</v>
+      </c>
+      <c r="R44" s="20">
+        <v>1018</v>
+      </c>
+      <c r="S44" s="20">
+        <v>961</v>
+      </c>
+      <c r="T44" s="20">
+        <v>232</v>
+      </c>
+      <c r="U44" s="20">
+        <v>688</v>
+      </c>
+      <c r="V44" s="23">
+        <f t="shared" si="1"/>
+        <v>803.1</v>
+      </c>
+      <c r="W44" s="21">
+        <v>568</v>
+      </c>
+      <c r="X44" s="21">
+        <v>1303</v>
+      </c>
+      <c r="Y44" s="21">
+        <v>231</v>
+      </c>
+      <c r="Z44" s="21">
+        <v>910</v>
+      </c>
+      <c r="AA44" s="21">
+        <v>970</v>
+      </c>
+      <c r="AB44" s="3">
+        <v>1060</v>
+      </c>
+      <c r="AC44" s="3">
+        <v>862</v>
+      </c>
+      <c r="AD44" s="3">
+        <v>912</v>
+      </c>
+      <c r="AE44" s="3">
+        <v>1065</v>
+      </c>
+      <c r="AF44" s="1">
+        <v>231</v>
+      </c>
+      <c r="AG44" s="23">
+        <f t="shared" si="2"/>
+        <v>811.2</v>
+      </c>
+      <c r="AH44" s="24">
+        <v>911</v>
+      </c>
+      <c r="AI44" s="24">
+        <v>751</v>
+      </c>
+      <c r="AJ44" s="24">
+        <v>232</v>
+      </c>
+      <c r="AK44" s="24">
+        <v>913</v>
+      </c>
+      <c r="AL44" s="24">
+        <v>744</v>
+      </c>
+      <c r="AM44" s="24">
+        <v>1110</v>
+      </c>
+      <c r="AN44" s="3">
+        <v>503</v>
+      </c>
+      <c r="AO44" s="3">
+        <v>695</v>
+      </c>
+      <c r="AP44" s="3">
+        <v>747</v>
+      </c>
+      <c r="AQ44" s="3">
+        <v>912</v>
+      </c>
+      <c r="AR44" s="23">
+        <f>AVERAGE(AH44:AQ44)</f>
+        <v>751.8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:44" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A45" s="19">
+        <v>153</v>
+      </c>
+      <c r="B45" s="19">
+        <v>155</v>
+      </c>
+      <c r="C45" s="19">
+        <v>154</v>
+      </c>
+      <c r="D45" s="19">
+        <v>160</v>
+      </c>
+      <c r="E45" s="19">
+        <v>155</v>
+      </c>
+      <c r="F45" s="19">
+        <v>157</v>
+      </c>
+      <c r="G45" s="19">
+        <v>155</v>
+      </c>
+      <c r="H45" s="19">
+        <v>157</v>
+      </c>
+      <c r="I45" s="19">
+        <v>153</v>
+      </c>
+      <c r="J45" s="19">
+        <v>154</v>
+      </c>
+      <c r="K45" s="23">
+        <f t="shared" si="0"/>
+        <v>155.30000000000001</v>
+      </c>
+      <c r="L45" s="20">
+        <v>1015</v>
+      </c>
+      <c r="M45" s="20">
+        <v>634</v>
+      </c>
+      <c r="N45" s="20">
+        <v>961</v>
+      </c>
+      <c r="O45" s="20">
+        <v>149</v>
+      </c>
+      <c r="P45" s="20">
+        <v>739</v>
+      </c>
+      <c r="Q45" s="20">
+        <v>693</v>
+      </c>
+      <c r="R45" s="20">
+        <v>1057</v>
+      </c>
+      <c r="S45" s="20">
+        <v>1011</v>
+      </c>
+      <c r="T45" s="20">
+        <v>232</v>
+      </c>
+      <c r="U45" s="20">
+        <v>961</v>
+      </c>
+      <c r="V45" s="23">
+        <f t="shared" si="1"/>
+        <v>745.2</v>
+      </c>
+      <c r="W45" s="21">
+        <v>503</v>
+      </c>
+      <c r="X45" s="21">
+        <v>806</v>
+      </c>
+      <c r="Y45" s="21">
+        <v>232</v>
+      </c>
+      <c r="Z45" s="21">
+        <v>507</v>
+      </c>
+      <c r="AA45" s="21">
+        <v>808</v>
+      </c>
+      <c r="AB45" s="3">
+        <v>1517</v>
+      </c>
+      <c r="AC45" s="3">
+        <v>1010</v>
+      </c>
+      <c r="AD45" s="3">
+        <v>1064</v>
+      </c>
+      <c r="AE45" s="3">
+        <v>1013</v>
+      </c>
+      <c r="AF45" s="1">
+        <v>233</v>
+      </c>
+      <c r="AG45" s="23">
+        <f t="shared" si="2"/>
+        <v>769.3</v>
+      </c>
+      <c r="AH45" s="24">
+        <v>689</v>
+      </c>
+      <c r="AI45" s="24">
+        <v>504</v>
+      </c>
+      <c r="AJ45" s="24">
+        <v>150</v>
+      </c>
+      <c r="AK45" s="24">
+        <v>862</v>
+      </c>
+      <c r="AL45" s="24">
+        <v>1013</v>
+      </c>
+      <c r="AM45" s="24">
+        <v>914</v>
+      </c>
+      <c r="AN45" s="3">
+        <v>504</v>
+      </c>
+      <c r="AO45" s="3">
+        <v>963</v>
+      </c>
+      <c r="AP45" s="3">
+        <v>808</v>
+      </c>
+      <c r="AQ45" s="3">
+        <v>911</v>
+      </c>
+      <c r="AR45" s="23">
+        <f>AVERAGE(AH45:AQ45)</f>
+        <v>731.8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:44" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A46" s="19">
+        <v>158</v>
+      </c>
+      <c r="B46" s="19">
+        <v>155</v>
+      </c>
+      <c r="C46" s="19">
+        <v>157</v>
+      </c>
+      <c r="D46" s="19">
+        <v>153</v>
+      </c>
+      <c r="E46" s="19">
+        <v>232</v>
+      </c>
+      <c r="F46" s="19">
+        <v>232</v>
+      </c>
+      <c r="G46" s="19">
+        <v>236</v>
+      </c>
+      <c r="H46" s="19">
+        <v>153</v>
+      </c>
+      <c r="I46" s="19">
+        <v>154</v>
+      </c>
+      <c r="J46" s="19">
+        <v>157</v>
+      </c>
+      <c r="K46" s="23">
+        <f t="shared" si="0"/>
+        <v>178.7</v>
+      </c>
+      <c r="L46" s="20">
+        <v>1011</v>
+      </c>
+      <c r="M46" s="20">
+        <v>751</v>
+      </c>
+      <c r="N46" s="20">
+        <v>1206</v>
+      </c>
+      <c r="O46" s="20">
+        <v>233</v>
+      </c>
+      <c r="P46" s="20">
+        <v>573</v>
+      </c>
+      <c r="Q46" s="20">
+        <v>1249</v>
+      </c>
+      <c r="R46" s="20">
+        <v>625</v>
+      </c>
+      <c r="S46" s="20">
+        <v>1012</v>
+      </c>
+      <c r="T46" s="20">
+        <v>232</v>
+      </c>
+      <c r="U46" s="20">
+        <v>806</v>
+      </c>
+      <c r="V46" s="23">
+        <f t="shared" si="1"/>
+        <v>769.8</v>
+      </c>
+      <c r="W46" s="21">
+        <v>748</v>
+      </c>
+      <c r="X46" s="21">
+        <v>916</v>
+      </c>
+      <c r="Y46" s="21">
+        <v>230</v>
+      </c>
+      <c r="Z46" s="21">
+        <v>633</v>
+      </c>
+      <c r="AA46" s="21">
+        <v>808</v>
+      </c>
+      <c r="AB46" s="3">
+        <v>1068</v>
+      </c>
+      <c r="AC46" s="3">
+        <v>909</v>
+      </c>
+      <c r="AD46" s="3">
+        <v>570</v>
+      </c>
+      <c r="AE46" s="3">
+        <v>1016</v>
+      </c>
+      <c r="AF46" s="1">
+        <v>231</v>
+      </c>
+      <c r="AG46" s="23">
+        <f t="shared" si="2"/>
+        <v>712.9</v>
+      </c>
+      <c r="AH46" s="24">
+        <v>964</v>
+      </c>
+      <c r="AI46" s="24">
+        <v>1599</v>
+      </c>
+      <c r="AJ46" s="24">
+        <v>231</v>
+      </c>
+      <c r="AK46" s="24">
+        <v>913</v>
+      </c>
+      <c r="AL46" s="24">
+        <v>625</v>
+      </c>
+      <c r="AM46" s="24">
+        <v>906</v>
+      </c>
+      <c r="AN46" s="3">
+        <v>442</v>
+      </c>
+      <c r="AO46" s="3">
+        <v>1017</v>
+      </c>
+      <c r="AP46" s="3">
+        <v>441</v>
+      </c>
+      <c r="AQ46" s="3">
+        <v>964</v>
+      </c>
+      <c r="AR46" s="23">
+        <f>AVERAGE(AH46:AQ46)</f>
+        <v>810.2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:44" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A47" s="19">
+        <v>154</v>
+      </c>
+      <c r="B47" s="19">
+        <v>157</v>
+      </c>
+      <c r="C47" s="19">
+        <v>154</v>
+      </c>
+      <c r="D47" s="19">
+        <v>162</v>
+      </c>
+      <c r="E47" s="19">
+        <v>155</v>
+      </c>
+      <c r="F47" s="19">
+        <v>155</v>
+      </c>
+      <c r="G47" s="19">
+        <v>154</v>
+      </c>
+      <c r="H47" s="19">
+        <v>156</v>
+      </c>
+      <c r="I47" s="19">
+        <v>153</v>
+      </c>
+      <c r="J47" s="19">
+        <v>159</v>
+      </c>
+      <c r="K47" s="23">
+        <f t="shared" si="0"/>
+        <v>155.9</v>
+      </c>
+      <c r="L47" s="20">
+        <v>1011</v>
+      </c>
+      <c r="M47" s="20">
+        <v>1104</v>
+      </c>
+      <c r="N47" s="20">
+        <v>966</v>
+      </c>
+      <c r="O47" s="20">
+        <v>232</v>
+      </c>
+      <c r="P47" s="20">
+        <v>1010</v>
+      </c>
+      <c r="Q47" s="20">
+        <v>862</v>
+      </c>
+      <c r="R47" s="20">
+        <v>692</v>
+      </c>
+      <c r="S47" s="20">
+        <v>744</v>
+      </c>
+      <c r="T47" s="20">
+        <v>149</v>
+      </c>
+      <c r="U47" s="20">
+        <v>807</v>
+      </c>
+      <c r="V47" s="23">
+        <f t="shared" si="1"/>
+        <v>757.7</v>
+      </c>
+      <c r="W47" s="21">
+        <v>1009</v>
+      </c>
+      <c r="X47" s="21">
+        <v>1020</v>
+      </c>
+      <c r="Y47" s="21">
+        <v>232</v>
+      </c>
+      <c r="Z47" s="21">
+        <v>913</v>
+      </c>
+      <c r="AA47" s="21">
+        <v>956</v>
+      </c>
+      <c r="AB47" s="3">
+        <v>1066</v>
+      </c>
+      <c r="AC47" s="3">
+        <v>968</v>
+      </c>
+      <c r="AD47" s="3">
+        <v>1065</v>
+      </c>
+      <c r="AE47" s="3">
+        <v>906</v>
+      </c>
+      <c r="AF47" s="1">
+        <v>232</v>
+      </c>
+      <c r="AG47" s="23">
+        <f t="shared" si="2"/>
+        <v>836.7</v>
+      </c>
+      <c r="AH47" s="24">
+        <v>1108</v>
+      </c>
+      <c r="AI47" s="24">
+        <v>1064</v>
+      </c>
+      <c r="AJ47" s="24">
+        <v>231</v>
+      </c>
+      <c r="AK47" s="24">
+        <v>966</v>
+      </c>
+      <c r="AL47" s="24">
+        <v>691</v>
+      </c>
+      <c r="AM47" s="24">
+        <v>863</v>
+      </c>
+      <c r="AN47" s="3">
+        <v>502</v>
+      </c>
+      <c r="AO47" s="3">
+        <v>506</v>
+      </c>
+      <c r="AP47" s="3">
+        <v>232</v>
+      </c>
+      <c r="AQ47" s="3">
+        <v>632</v>
+      </c>
+      <c r="AR47" s="23">
+        <f>AVERAGE(AH47:AQ47)</f>
+        <v>679.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:44" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A48" s="19">
+        <v>161</v>
+      </c>
+      <c r="B48" s="19">
+        <v>228</v>
+      </c>
+      <c r="C48" s="19">
+        <v>154</v>
+      </c>
+      <c r="D48" s="19">
+        <v>154</v>
+      </c>
+      <c r="E48" s="19">
+        <v>154</v>
+      </c>
+      <c r="F48" s="19">
+        <v>160</v>
+      </c>
+      <c r="G48" s="19">
+        <v>159</v>
+      </c>
+      <c r="H48" s="19">
+        <v>153</v>
+      </c>
+      <c r="I48" s="19">
+        <v>154</v>
+      </c>
+      <c r="J48" s="19">
+        <v>157</v>
+      </c>
+      <c r="K48" s="23">
+        <f t="shared" si="0"/>
+        <v>163.4</v>
+      </c>
+      <c r="L48" s="20">
+        <v>915</v>
+      </c>
+      <c r="M48" s="20">
+        <v>690</v>
+      </c>
+      <c r="N48" s="20">
+        <v>1061</v>
+      </c>
+      <c r="O48" s="20">
+        <v>151</v>
+      </c>
+      <c r="P48" s="20">
+        <v>960</v>
+      </c>
+      <c r="Q48" s="20">
+        <v>1422</v>
+      </c>
+      <c r="R48" s="20">
+        <v>860</v>
+      </c>
+      <c r="S48" s="20">
+        <v>691</v>
+      </c>
+      <c r="T48" s="20">
+        <v>150</v>
+      </c>
+      <c r="U48" s="20">
+        <v>861</v>
+      </c>
+      <c r="V48" s="23">
+        <f t="shared" si="1"/>
+        <v>776.1</v>
+      </c>
+      <c r="W48" s="21">
+        <v>629</v>
+      </c>
+      <c r="X48" s="21">
+        <v>1014</v>
+      </c>
+      <c r="Y48" s="21">
+        <v>232</v>
+      </c>
+      <c r="Z48" s="21">
+        <v>624</v>
+      </c>
+      <c r="AA48" s="21">
+        <v>1010</v>
+      </c>
+      <c r="AB48" s="3">
+        <v>1018</v>
+      </c>
+      <c r="AC48" s="3">
+        <v>1206</v>
+      </c>
+      <c r="AD48" s="3">
+        <v>1203</v>
+      </c>
+      <c r="AE48" s="3">
+        <v>1211</v>
+      </c>
+      <c r="AF48" s="1">
+        <v>231</v>
+      </c>
+      <c r="AG48" s="23">
+        <f t="shared" si="2"/>
+        <v>837.8</v>
+      </c>
+      <c r="AH48" s="24">
+        <v>1017</v>
+      </c>
+      <c r="AI48" s="24">
+        <v>1209</v>
+      </c>
+      <c r="AJ48" s="24">
+        <v>150</v>
+      </c>
+      <c r="AK48" s="24">
+        <v>1053</v>
+      </c>
+      <c r="AL48" s="24">
+        <v>743</v>
+      </c>
+      <c r="AM48" s="24">
+        <v>914</v>
+      </c>
+      <c r="AN48" s="3">
+        <v>807</v>
+      </c>
+      <c r="AO48" s="3">
+        <v>564</v>
+      </c>
+      <c r="AP48" s="3">
+        <v>505</v>
+      </c>
+      <c r="AQ48" s="3">
+        <v>743</v>
+      </c>
+      <c r="AR48" s="23">
+        <f>AVERAGE(AH48:AQ48)</f>
+        <v>770.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:44" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A49" s="19">
+        <v>225</v>
+      </c>
+      <c r="B49" s="19">
+        <v>155</v>
+      </c>
+      <c r="C49" s="19">
+        <v>155</v>
+      </c>
+      <c r="D49" s="19">
+        <v>155</v>
+      </c>
+      <c r="E49" s="19">
+        <v>155</v>
+      </c>
+      <c r="F49" s="19">
+        <v>153</v>
+      </c>
+      <c r="G49" s="19">
+        <v>156</v>
+      </c>
+      <c r="H49" s="19">
+        <v>155</v>
+      </c>
+      <c r="I49" s="19">
+        <v>155</v>
+      </c>
+      <c r="J49" s="19">
+        <v>155</v>
+      </c>
+      <c r="K49" s="23">
+        <f t="shared" si="0"/>
+        <v>161.9</v>
+      </c>
+      <c r="L49" s="20">
+        <v>909</v>
+      </c>
+      <c r="M49" s="20">
+        <v>807</v>
+      </c>
+      <c r="N49" s="20">
+        <v>962</v>
+      </c>
+      <c r="O49" s="20">
+        <v>233</v>
+      </c>
+      <c r="P49" s="20">
+        <v>906</v>
+      </c>
+      <c r="Q49" s="20">
+        <v>909</v>
+      </c>
+      <c r="R49" s="20">
+        <v>791</v>
+      </c>
+      <c r="S49" s="20">
+        <v>1513</v>
+      </c>
+      <c r="T49" s="20">
+        <v>151</v>
+      </c>
+      <c r="U49" s="20">
+        <v>233</v>
+      </c>
+      <c r="V49" s="23">
+        <f t="shared" si="1"/>
+        <v>741.4</v>
+      </c>
+      <c r="W49" s="21">
+        <v>507</v>
+      </c>
+      <c r="X49" s="21">
+        <v>911</v>
+      </c>
+      <c r="Y49" s="21">
+        <v>232</v>
+      </c>
+      <c r="Z49" s="21">
+        <v>502</v>
+      </c>
+      <c r="AA49" s="21">
+        <v>858</v>
+      </c>
+      <c r="AB49" s="3">
+        <v>440</v>
+      </c>
+      <c r="AC49" s="3">
+        <v>961</v>
+      </c>
+      <c r="AD49" s="3">
+        <v>906</v>
+      </c>
+      <c r="AE49" s="3">
+        <v>807</v>
+      </c>
+      <c r="AF49" s="1">
+        <v>231</v>
+      </c>
+      <c r="AG49" s="23">
+        <f t="shared" si="2"/>
+        <v>635.5</v>
+      </c>
+      <c r="AH49" s="24">
+        <v>914</v>
+      </c>
+      <c r="AI49" s="24">
+        <v>1205</v>
+      </c>
+      <c r="AJ49" s="24">
+        <v>230</v>
+      </c>
+      <c r="AK49" s="24">
+        <v>630</v>
+      </c>
+      <c r="AL49" s="24">
+        <v>1010</v>
+      </c>
+      <c r="AM49" s="24">
+        <v>1830</v>
+      </c>
+      <c r="AN49" s="3">
+        <v>914</v>
+      </c>
+      <c r="AO49" s="3">
+        <v>687</v>
+      </c>
+      <c r="AP49" s="3">
+        <v>1056</v>
+      </c>
+      <c r="AQ49" s="3">
+        <v>803</v>
+      </c>
+      <c r="AR49" s="23">
+        <f>AVERAGE(AH49:AQ49)</f>
+        <v>927.9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:44" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A50" s="19">
+        <v>153</v>
+      </c>
+      <c r="B50" s="19">
+        <v>155</v>
+      </c>
+      <c r="C50" s="19">
+        <v>154</v>
+      </c>
+      <c r="D50" s="19">
+        <v>228</v>
+      </c>
+      <c r="E50" s="19">
+        <v>157</v>
+      </c>
+      <c r="F50" s="19">
+        <v>155</v>
+      </c>
+      <c r="G50" s="19">
+        <v>238</v>
+      </c>
+      <c r="H50" s="19">
+        <v>154</v>
+      </c>
+      <c r="I50" s="19">
+        <v>154</v>
+      </c>
+      <c r="J50" s="19">
+        <v>155</v>
+      </c>
+      <c r="K50" s="23">
+        <f t="shared" si="0"/>
+        <v>170.3</v>
+      </c>
+      <c r="L50" s="20">
+        <v>909</v>
+      </c>
+      <c r="M50" s="20">
+        <v>1339</v>
+      </c>
+      <c r="N50" s="20">
+        <v>1063</v>
+      </c>
+      <c r="O50" s="20">
+        <v>234</v>
+      </c>
+      <c r="P50" s="20">
+        <v>1299</v>
+      </c>
+      <c r="Q50" s="20">
+        <v>1210</v>
+      </c>
+      <c r="R50" s="20">
+        <v>232</v>
+      </c>
+      <c r="S50" s="20">
+        <v>1069</v>
+      </c>
+      <c r="T50" s="20">
+        <v>230</v>
+      </c>
+      <c r="U50" s="20">
+        <v>233</v>
+      </c>
+      <c r="V50" s="23">
+        <f t="shared" si="1"/>
+        <v>781.8</v>
+      </c>
+      <c r="W50" s="21">
+        <v>959</v>
+      </c>
+      <c r="X50" s="21">
+        <v>1015</v>
+      </c>
+      <c r="Y50" s="21">
+        <v>150</v>
+      </c>
+      <c r="Z50" s="21">
+        <v>960</v>
+      </c>
+      <c r="AA50" s="21">
+        <v>1063</v>
+      </c>
+      <c r="AB50" s="3">
+        <v>918</v>
+      </c>
+      <c r="AC50" s="3">
+        <v>1253</v>
+      </c>
+      <c r="AD50" s="3">
+        <v>568</v>
+      </c>
+      <c r="AE50" s="3">
+        <v>1014</v>
+      </c>
+      <c r="AF50" s="1">
+        <v>150</v>
+      </c>
+      <c r="AG50" s="23">
+        <f t="shared" si="2"/>
+        <v>805</v>
+      </c>
+      <c r="AH50" s="24">
+        <v>805</v>
+      </c>
+      <c r="AI50" s="24">
+        <v>1249</v>
+      </c>
+      <c r="AJ50" s="24">
+        <v>231</v>
+      </c>
+      <c r="AK50" s="24">
+        <v>629</v>
+      </c>
+      <c r="AL50" s="24">
+        <v>1062</v>
+      </c>
+      <c r="AM50" s="24">
+        <v>686</v>
+      </c>
+      <c r="AN50" s="3">
+        <v>909</v>
+      </c>
+      <c r="AO50" s="3">
+        <v>629</v>
+      </c>
+      <c r="AP50" s="3">
+        <v>504</v>
+      </c>
+      <c r="AQ50" s="3">
+        <v>863</v>
+      </c>
+      <c r="AR50" s="23">
+        <f>AVERAGE(AH50:AQ50)</f>
+        <v>756.7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:44" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A51" s="19">
+        <v>153</v>
+      </c>
+      <c r="B51" s="19">
+        <v>156</v>
+      </c>
+      <c r="C51" s="19">
+        <v>157</v>
+      </c>
+      <c r="D51" s="19">
+        <v>156</v>
+      </c>
+      <c r="E51" s="19">
+        <v>155</v>
+      </c>
+      <c r="F51" s="19">
+        <v>153</v>
+      </c>
+      <c r="G51" s="19">
+        <v>157</v>
+      </c>
+      <c r="H51" s="19">
+        <v>224</v>
+      </c>
+      <c r="I51" s="19">
+        <v>153</v>
+      </c>
+      <c r="J51" s="19">
+        <v>153</v>
+      </c>
+      <c r="K51" s="23">
+        <f t="shared" si="0"/>
+        <v>161.69999999999999</v>
+      </c>
+      <c r="L51" s="20">
+        <v>908</v>
+      </c>
+      <c r="M51" s="20">
+        <v>1056</v>
+      </c>
+      <c r="N51" s="20">
+        <v>916</v>
+      </c>
+      <c r="O51" s="20">
+        <v>230</v>
+      </c>
+      <c r="P51" s="20">
+        <v>1056</v>
+      </c>
+      <c r="Q51" s="20">
+        <v>1206</v>
+      </c>
+      <c r="R51" s="20">
+        <v>151</v>
+      </c>
+      <c r="S51" s="20">
+        <v>1061</v>
+      </c>
+      <c r="T51" s="20">
+        <v>152</v>
+      </c>
+      <c r="U51" s="20">
+        <v>233</v>
+      </c>
+      <c r="V51" s="23">
+        <f t="shared" si="1"/>
+        <v>696.9</v>
+      </c>
+      <c r="W51" s="21">
+        <v>908</v>
+      </c>
+      <c r="X51" s="21">
+        <v>916</v>
+      </c>
+      <c r="Y51" s="21">
+        <v>233</v>
+      </c>
+      <c r="Z51" s="21">
+        <v>1295</v>
+      </c>
+      <c r="AA51" s="21">
+        <v>917</v>
+      </c>
+      <c r="AB51" s="3">
+        <v>909</v>
+      </c>
+      <c r="AC51" s="3">
+        <v>913</v>
+      </c>
+      <c r="AD51" s="3">
+        <v>631</v>
+      </c>
+      <c r="AE51" s="3">
+        <v>1301</v>
+      </c>
+      <c r="AF51" s="1">
+        <v>152</v>
+      </c>
+      <c r="AG51" s="23">
+        <f t="shared" si="2"/>
+        <v>817.5</v>
+      </c>
+      <c r="AH51" s="24">
+        <v>630</v>
+      </c>
+      <c r="AI51" s="24">
+        <v>964</v>
+      </c>
+      <c r="AJ51" s="24">
+        <v>151</v>
+      </c>
+      <c r="AK51" s="24">
+        <v>1065</v>
+      </c>
+      <c r="AL51" s="24">
+        <v>1017</v>
+      </c>
+      <c r="AM51" s="24">
+        <v>745</v>
+      </c>
+      <c r="AN51" s="3">
+        <v>906</v>
+      </c>
+      <c r="AO51" s="3">
+        <v>691</v>
+      </c>
+      <c r="AP51" s="3">
+        <v>807</v>
+      </c>
+      <c r="AQ51" s="3">
+        <v>808</v>
+      </c>
+      <c r="AR51" s="23">
+        <f>AVERAGE(AH51:AQ51)</f>
+        <v>778.4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:44" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A52" s="19">
+        <v>155</v>
+      </c>
+      <c r="B52" s="19">
+        <v>154</v>
+      </c>
+      <c r="C52" s="19">
+        <v>226</v>
+      </c>
+      <c r="D52" s="19">
+        <v>153</v>
+      </c>
+      <c r="E52" s="19">
+        <v>155</v>
+      </c>
+      <c r="F52" s="19">
+        <v>155</v>
+      </c>
+      <c r="G52" s="19">
+        <v>154</v>
+      </c>
+      <c r="H52" s="19">
+        <v>155</v>
+      </c>
+      <c r="I52" s="19">
+        <v>232</v>
+      </c>
+      <c r="J52" s="19">
+        <v>153</v>
+      </c>
+      <c r="K52" s="23">
+        <f t="shared" si="0"/>
+        <v>169.2</v>
+      </c>
+      <c r="L52" s="20">
+        <v>1063</v>
+      </c>
+      <c r="M52" s="20">
+        <v>1017</v>
+      </c>
+      <c r="N52" s="20">
+        <v>807</v>
+      </c>
+      <c r="O52" s="20">
+        <v>231</v>
+      </c>
+      <c r="P52" s="20">
+        <v>749</v>
+      </c>
+      <c r="Q52" s="20">
+        <v>963</v>
+      </c>
+      <c r="R52" s="20">
+        <v>232</v>
+      </c>
+      <c r="S52" s="20">
+        <v>961</v>
+      </c>
+      <c r="T52" s="20">
+        <v>150</v>
+      </c>
+      <c r="U52" s="20">
+        <v>231</v>
+      </c>
+      <c r="V52" s="23">
+        <f t="shared" si="1"/>
+        <v>640.4</v>
+      </c>
+      <c r="W52" s="21">
+        <v>854</v>
+      </c>
+      <c r="X52" s="21">
+        <v>861</v>
+      </c>
+      <c r="Y52" s="21">
+        <v>231</v>
+      </c>
+      <c r="Z52" s="21">
+        <v>1633</v>
+      </c>
+      <c r="AA52" s="21">
+        <v>1202</v>
+      </c>
+      <c r="AB52" s="3">
+        <v>910</v>
+      </c>
+      <c r="AC52" s="3">
+        <v>1210</v>
+      </c>
+      <c r="AD52" s="3">
+        <v>1016</v>
+      </c>
+      <c r="AE52" s="3">
+        <v>1505</v>
+      </c>
+      <c r="AF52" s="1">
+        <v>232</v>
+      </c>
+      <c r="AG52" s="23">
+        <f t="shared" si="2"/>
+        <v>965.4</v>
+      </c>
+      <c r="AH52" s="24">
+        <v>231</v>
+      </c>
+      <c r="AI52" s="24">
+        <v>1066</v>
+      </c>
+      <c r="AJ52" s="24">
+        <v>148</v>
+      </c>
+      <c r="AK52" s="24">
+        <v>1008</v>
+      </c>
+      <c r="AL52" s="24">
+        <v>1254</v>
+      </c>
+      <c r="AM52" s="24">
+        <v>629</v>
+      </c>
+      <c r="AN52" s="3">
+        <v>1425</v>
+      </c>
+      <c r="AO52" s="3">
+        <v>1011</v>
+      </c>
+      <c r="AP52" s="3">
+        <v>967</v>
+      </c>
+      <c r="AQ52" s="3">
+        <v>1117</v>
+      </c>
+      <c r="AR52" s="23">
+        <f>AVERAGE(AH52:AQ52)</f>
+        <v>885.6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:44" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A53" s="19">
+        <v>153</v>
+      </c>
+      <c r="B53" s="19">
+        <v>153</v>
+      </c>
+      <c r="C53" s="19">
+        <v>159</v>
+      </c>
+      <c r="D53" s="19">
+        <v>154</v>
+      </c>
+      <c r="E53" s="19">
+        <v>156</v>
+      </c>
+      <c r="F53" s="19">
+        <v>155</v>
+      </c>
+      <c r="G53" s="19">
+        <v>153</v>
+      </c>
+      <c r="H53" s="19">
+        <v>157</v>
+      </c>
+      <c r="I53" s="19">
+        <v>157</v>
+      </c>
+      <c r="J53" s="19">
+        <v>156</v>
+      </c>
+      <c r="K53" s="23">
+        <f t="shared" si="0"/>
+        <v>155.30000000000001</v>
+      </c>
+      <c r="L53" s="20">
+        <v>746</v>
+      </c>
+      <c r="M53" s="20">
+        <v>957</v>
+      </c>
+      <c r="N53" s="20">
+        <v>858</v>
+      </c>
+      <c r="O53" s="20">
+        <v>152</v>
+      </c>
+      <c r="P53" s="20">
+        <v>506</v>
+      </c>
+      <c r="Q53" s="20">
+        <v>748</v>
+      </c>
+      <c r="R53" s="20">
+        <v>151</v>
+      </c>
+      <c r="S53" s="20">
+        <v>1014</v>
+      </c>
+      <c r="T53" s="20">
+        <v>231</v>
+      </c>
+      <c r="U53" s="20">
+        <v>232</v>
+      </c>
+      <c r="V53" s="23">
+        <f t="shared" si="1"/>
+        <v>559.5</v>
+      </c>
+      <c r="W53" s="21">
+        <v>798</v>
+      </c>
+      <c r="X53" s="21">
+        <v>631</v>
+      </c>
+      <c r="Y53" s="21">
+        <v>151</v>
+      </c>
+      <c r="Z53" s="21">
+        <v>1258</v>
+      </c>
+      <c r="AA53" s="21">
+        <v>1254</v>
+      </c>
+      <c r="AB53" s="3">
+        <v>914</v>
+      </c>
+      <c r="AC53" s="3">
+        <v>1011</v>
+      </c>
+      <c r="AD53" s="3">
+        <v>908</v>
+      </c>
+      <c r="AE53" s="3">
+        <v>1300</v>
+      </c>
+      <c r="AF53" s="1">
+        <v>233</v>
+      </c>
+      <c r="AG53" s="23">
+        <f t="shared" si="2"/>
+        <v>845.8</v>
+      </c>
+      <c r="AH53" s="24">
+        <v>502</v>
+      </c>
+      <c r="AI53" s="24">
+        <v>1161</v>
+      </c>
+      <c r="AJ53" s="24">
+        <v>151</v>
+      </c>
+      <c r="AK53" s="24">
+        <v>1549</v>
+      </c>
+      <c r="AL53" s="24">
+        <v>1066</v>
+      </c>
+      <c r="AM53" s="24">
+        <v>1064</v>
+      </c>
+      <c r="AN53" s="3">
+        <v>443</v>
+      </c>
+      <c r="AO53" s="3">
+        <v>691</v>
+      </c>
+      <c r="AP53" s="3">
+        <v>1019</v>
+      </c>
+      <c r="AQ53" s="3">
+        <v>1011</v>
+      </c>
+      <c r="AR53" s="23">
+        <f>AVERAGE(AH53:AQ53)</f>
+        <v>865.7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:44" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A54" s="19">
+        <v>156</v>
+      </c>
+      <c r="B54" s="19">
+        <v>153</v>
+      </c>
+      <c r="C54" s="19">
+        <v>151</v>
+      </c>
+      <c r="D54" s="19">
+        <v>156</v>
+      </c>
+      <c r="E54" s="19">
+        <v>155</v>
+      </c>
+      <c r="F54" s="19">
+        <v>157</v>
+      </c>
+      <c r="G54" s="19">
+        <v>158</v>
+      </c>
+      <c r="H54" s="19">
+        <v>156</v>
+      </c>
+      <c r="I54" s="19">
+        <v>157</v>
+      </c>
+      <c r="J54" s="19">
+        <v>158</v>
+      </c>
+      <c r="K54" s="23">
+        <f t="shared" si="0"/>
+        <v>155.69999999999999</v>
+      </c>
+      <c r="L54" s="20">
+        <v>1060</v>
+      </c>
+      <c r="M54" s="20">
+        <v>1717</v>
+      </c>
+      <c r="N54" s="20">
+        <v>913</v>
+      </c>
+      <c r="O54" s="20">
+        <v>151</v>
+      </c>
+      <c r="P54" s="20">
+        <v>1014</v>
+      </c>
+      <c r="Q54" s="20">
+        <v>911</v>
+      </c>
+      <c r="R54" s="20">
+        <v>150</v>
+      </c>
+      <c r="S54" s="20">
+        <v>1209</v>
+      </c>
+      <c r="T54" s="20">
+        <v>151</v>
+      </c>
+      <c r="U54" s="20">
+        <v>150</v>
+      </c>
+      <c r="V54" s="23">
+        <f t="shared" si="1"/>
+        <v>742.6</v>
+      </c>
+      <c r="W54" s="21">
+        <v>1010</v>
+      </c>
+      <c r="X54" s="21">
+        <v>630</v>
+      </c>
+      <c r="Y54" s="21">
+        <v>231</v>
+      </c>
+      <c r="Z54" s="21">
+        <v>961</v>
+      </c>
+      <c r="AA54" s="21">
+        <v>808</v>
+      </c>
+      <c r="AB54" s="3">
+        <v>1014</v>
+      </c>
+      <c r="AC54" s="3">
+        <v>1011</v>
+      </c>
+      <c r="AD54" s="3">
+        <v>962</v>
+      </c>
+      <c r="AE54" s="3">
+        <v>628</v>
+      </c>
+      <c r="AF54" s="1">
+        <v>232</v>
+      </c>
+      <c r="AG54" s="23">
+        <f t="shared" si="2"/>
+        <v>748.7</v>
+      </c>
+      <c r="AH54" s="24">
+        <v>628</v>
+      </c>
+      <c r="AI54" s="24">
+        <v>502</v>
+      </c>
+      <c r="AJ54" s="24">
+        <v>231</v>
+      </c>
+      <c r="AK54" s="24">
+        <v>1512</v>
+      </c>
+      <c r="AL54" s="24">
+        <v>962</v>
+      </c>
+      <c r="AM54" s="24">
+        <v>916</v>
+      </c>
+      <c r="AN54" s="3">
+        <v>568</v>
+      </c>
+      <c r="AO54" s="3">
+        <v>624</v>
+      </c>
+      <c r="AP54" s="3">
+        <v>1252</v>
+      </c>
+      <c r="AQ54" s="3">
+        <v>914</v>
+      </c>
+      <c r="AR54" s="23">
+        <f>AVERAGE(AH54:AQ54)</f>
+        <v>810.9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:44" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A55" s="19">
+        <v>155</v>
+      </c>
+      <c r="B55" s="19">
+        <v>154</v>
+      </c>
+      <c r="C55" s="19">
+        <v>154</v>
+      </c>
+      <c r="D55" s="19">
+        <v>156</v>
+      </c>
+      <c r="E55" s="19">
+        <v>231</v>
+      </c>
+      <c r="F55" s="19">
+        <v>233</v>
+      </c>
+      <c r="G55" s="19">
+        <v>154</v>
+      </c>
+      <c r="H55" s="19">
+        <v>158</v>
+      </c>
+      <c r="I55" s="19">
+        <v>159</v>
+      </c>
+      <c r="J55" s="19">
+        <v>153</v>
+      </c>
+      <c r="K55" s="23">
+        <f t="shared" si="0"/>
+        <v>170.7</v>
+      </c>
+      <c r="L55" s="20">
+        <v>1302</v>
+      </c>
+      <c r="M55" s="20">
+        <v>962</v>
+      </c>
+      <c r="N55" s="20">
+        <v>962</v>
+      </c>
+      <c r="O55" s="20">
+        <v>231</v>
+      </c>
+      <c r="P55" s="20">
+        <v>1157</v>
+      </c>
+      <c r="Q55" s="20">
+        <v>1010</v>
+      </c>
+      <c r="R55" s="20">
+        <v>231</v>
+      </c>
+      <c r="S55" s="20">
+        <v>963</v>
+      </c>
+      <c r="T55" s="20">
+        <v>232</v>
+      </c>
+      <c r="U55" s="20">
+        <v>232</v>
+      </c>
+      <c r="V55" s="23">
+        <f t="shared" si="1"/>
+        <v>728.2</v>
+      </c>
+      <c r="W55" s="21">
+        <v>809</v>
+      </c>
+      <c r="X55" s="21">
+        <v>1061</v>
+      </c>
+      <c r="Y55" s="21">
+        <v>232</v>
+      </c>
+      <c r="Z55" s="21">
+        <v>1055</v>
+      </c>
+      <c r="AA55" s="21">
+        <v>1254</v>
+      </c>
+      <c r="AB55" s="3">
+        <v>506</v>
+      </c>
+      <c r="AC55" s="3">
+        <v>963</v>
+      </c>
+      <c r="AD55" s="3">
+        <v>1067</v>
+      </c>
+      <c r="AE55" s="3">
+        <v>861</v>
+      </c>
+      <c r="AF55" s="1">
+        <v>232</v>
+      </c>
+      <c r="AG55" s="23">
+        <f t="shared" si="2"/>
+        <v>804</v>
+      </c>
+      <c r="AH55" s="24">
+        <v>743</v>
+      </c>
+      <c r="AI55" s="24">
+        <v>914</v>
+      </c>
+      <c r="AJ55" s="24">
+        <v>230</v>
+      </c>
+      <c r="AK55" s="24">
+        <v>1204</v>
+      </c>
+      <c r="AL55" s="24">
+        <v>1562</v>
+      </c>
+      <c r="AM55" s="24">
+        <v>807</v>
+      </c>
+      <c r="AN55" s="3">
+        <v>625</v>
+      </c>
+      <c r="AO55" s="3">
+        <v>809</v>
+      </c>
+      <c r="AP55" s="3">
+        <v>1301</v>
+      </c>
+      <c r="AQ55" s="3">
+        <v>626</v>
+      </c>
+      <c r="AR55" s="23">
+        <f>AVERAGE(AH55:AQ55)</f>
+        <v>882.1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:44" s="15" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A56" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="5"/>
+      <c r="L56" s="5"/>
+      <c r="M56" s="5"/>
+      <c r="N56" s="5"/>
+      <c r="O56" s="5"/>
+      <c r="P56" s="5"/>
+      <c r="Q56" s="5"/>
+      <c r="R56" s="5"/>
+      <c r="S56" s="5"/>
+      <c r="T56" s="5"/>
+      <c r="U56" s="5"/>
+      <c r="V56" s="5"/>
+      <c r="W56" s="5"/>
+      <c r="X56" s="5"/>
+      <c r="Y56" s="5"/>
+      <c r="Z56" s="5"/>
+      <c r="AA56" s="5"/>
+      <c r="AB56" s="5"/>
+      <c r="AC56" s="5"/>
+      <c r="AD56" s="5"/>
+      <c r="AE56" s="5"/>
+      <c r="AF56" s="5"/>
+      <c r="AG56" s="5"/>
+      <c r="AH56" s="5"/>
+      <c r="AI56" s="5"/>
+      <c r="AJ56" s="5"/>
+      <c r="AK56" s="5"/>
+      <c r="AL56" s="5"/>
+      <c r="AM56" s="5"/>
+      <c r="AN56" s="5"/>
+      <c r="AO56" s="5"/>
+      <c r="AP56" s="5"/>
+      <c r="AQ56" s="5"/>
+      <c r="AR56" s="5"/>
+    </row>
+    <row r="57" spans="1:44" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A57" s="2">
+        <f>MAX(A6:A55)</f>
+        <v>234</v>
+      </c>
+      <c r="B57" s="2">
+        <f t="shared" ref="B57:AR57" si="3">MAX(B6:B55)</f>
+        <v>236</v>
+      </c>
+      <c r="C57" s="2">
+        <f t="shared" si="3"/>
+        <v>238</v>
+      </c>
+      <c r="D57" s="2">
+        <f t="shared" si="3"/>
+        <v>304</v>
+      </c>
+      <c r="E57" s="2">
+        <f t="shared" si="3"/>
+        <v>309</v>
+      </c>
+      <c r="F57" s="2">
+        <f t="shared" si="3"/>
+        <v>303</v>
+      </c>
+      <c r="G57" s="2">
+        <f t="shared" si="3"/>
+        <v>308</v>
+      </c>
+      <c r="H57" s="2">
+        <f t="shared" si="3"/>
+        <v>238</v>
+      </c>
+      <c r="I57" s="2">
+        <f t="shared" si="3"/>
+        <v>305</v>
+      </c>
+      <c r="J57" s="2">
+        <f t="shared" si="3"/>
+        <v>236</v>
+      </c>
+      <c r="K57" s="2"/>
+      <c r="L57" s="2">
+        <f>MAX(L6:L55)</f>
+        <v>1302</v>
+      </c>
+      <c r="M57" s="2">
+        <f t="shared" si="3"/>
+        <v>1717</v>
+      </c>
+      <c r="N57" s="2">
+        <f>MAX(N6:N55)</f>
+        <v>1210</v>
+      </c>
+      <c r="O57" s="2">
+        <f t="shared" si="3"/>
+        <v>299</v>
+      </c>
+      <c r="P57" s="2">
+        <f t="shared" si="3"/>
+        <v>1299</v>
+      </c>
+      <c r="Q57" s="2">
+        <f t="shared" si="3"/>
+        <v>1422</v>
+      </c>
+      <c r="R57" s="2">
+        <f t="shared" si="3"/>
+        <v>1110</v>
+      </c>
+      <c r="S57" s="2">
+        <f t="shared" si="3"/>
+        <v>1513</v>
+      </c>
+      <c r="T57" s="2">
+        <f t="shared" si="3"/>
+        <v>1209</v>
+      </c>
+      <c r="U57" s="2">
+        <f t="shared" si="3"/>
+        <v>1550</v>
+      </c>
+      <c r="V57" s="2">
+        <f t="shared" si="3"/>
+        <v>803.1</v>
+      </c>
+      <c r="W57" s="2">
+        <f t="shared" si="3"/>
+        <v>1551</v>
+      </c>
+      <c r="X57" s="2">
+        <f t="shared" si="3"/>
+        <v>1680</v>
+      </c>
+      <c r="Y57" s="2">
+        <f t="shared" si="3"/>
+        <v>305</v>
+      </c>
+      <c r="Z57" s="2">
+        <f t="shared" si="3"/>
+        <v>1633</v>
+      </c>
+      <c r="AA57" s="2">
+        <f t="shared" si="3"/>
+        <v>1755</v>
+      </c>
+      <c r="AB57" s="2">
+        <f t="shared" si="3"/>
+        <v>1517</v>
+      </c>
+      <c r="AC57" s="2">
+        <f t="shared" si="3"/>
+        <v>1642</v>
+      </c>
+      <c r="AD57" s="2">
+        <f t="shared" si="3"/>
+        <v>1596</v>
+      </c>
+      <c r="AE57" s="2">
+        <f t="shared" si="3"/>
+        <v>1505</v>
+      </c>
+      <c r="AF57" s="2">
+        <f t="shared" si="3"/>
+        <v>1065</v>
+      </c>
+      <c r="AG57" s="2">
+        <f t="shared" si="3"/>
+        <v>965.4</v>
+      </c>
+      <c r="AH57" s="2">
+        <f t="shared" si="3"/>
+        <v>1118</v>
+      </c>
+      <c r="AI57" s="2">
+        <f t="shared" si="3"/>
+        <v>1673</v>
+      </c>
+      <c r="AJ57" s="2">
+        <f t="shared" si="3"/>
+        <v>1510</v>
+      </c>
+      <c r="AK57" s="2">
+        <f t="shared" si="3"/>
+        <v>1549</v>
+      </c>
+      <c r="AL57" s="2">
+        <f t="shared" si="3"/>
+        <v>1562</v>
+      </c>
+      <c r="AM57" s="2">
+        <f t="shared" si="3"/>
+        <v>1830</v>
+      </c>
+      <c r="AN57" s="2">
+        <f t="shared" si="3"/>
+        <v>1425</v>
+      </c>
+      <c r="AO57" s="2">
+        <f t="shared" si="3"/>
+        <v>1017</v>
+      </c>
+      <c r="AP57" s="2">
+        <f t="shared" si="3"/>
+        <v>1560</v>
+      </c>
+      <c r="AQ57" s="2">
+        <f t="shared" si="3"/>
+        <v>1200</v>
+      </c>
+      <c r="AR57" s="2">
+        <f t="shared" si="3"/>
+        <v>927.9</v>
+      </c>
+    </row>
+    <row r="71" spans="29:31" x14ac:dyDescent="0.35">
+      <c r="AE71">
+        <f>_xlfn.T.TEST(AG6:AG55, AR6:AR55, 2, 3)</f>
+        <v>0.63246319756946312</v>
+      </c>
+    </row>
+    <row r="72" spans="29:31" x14ac:dyDescent="0.35">
+      <c r="AC72">
+        <f>_xlfn.T.TEST(V6:V55, AG6:AG55, 2, 3)</f>
+        <v>4.6981886486626573E-3</v>
+      </c>
+    </row>
+    <row r="111" spans="34:34" x14ac:dyDescent="0.35">
+      <c r="AH111" s="1"/>
+    </row>
+    <row r="162" spans="34:34" x14ac:dyDescent="0.35">
+      <c r="AH162" s="1"/>
+    </row>
+    <row r="213" spans="34:34" x14ac:dyDescent="0.35">
+      <c r="AH213" s="1"/>
+    </row>
+    <row r="264" spans="34:34" x14ac:dyDescent="0.35">
+      <c r="AH264" s="1"/>
+    </row>
+    <row r="315" spans="34:34" x14ac:dyDescent="0.35">
+      <c r="AH315" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/DataAnalysis.xlsx
+++ b/DataAnalysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b4a5232a0414c816/Desktop/CS/Projects/AI/DinoBot-NEAT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="14_{67726723-4F05-45C4-8343-ACB0C14EEF74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{501689F8-0B97-4F80-8D7C-357FA1F47696}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="14_{67726723-4F05-45C4-8343-ACB0C14EEF74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A764B5D-E1C3-49E9-95EC-3CF532B5D419}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="2640" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{F16A38F1-B42C-4B58-9450-487B8984C1BF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{F16A38F1-B42C-4B58-9450-487B8984C1BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Population Analysis" sheetId="1" r:id="rId1"/>
@@ -190,7 +190,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -262,30 +262,6 @@
       <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFCCCCCC"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="11">
@@ -377,7 +353,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -422,18 +398,10 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7846,154 +7814,154 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>392</c:v>
+                  <c:v>451.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>686.33333333333337</c:v>
+                  <c:v>949.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>734.33333333333337</c:v>
+                  <c:v>837.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>629</c:v>
+                  <c:v>1097.5999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>635.66666666666663</c:v>
+                  <c:v>1030.7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>837.33333333333337</c:v>
+                  <c:v>1182</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>855.33333333333337</c:v>
+                  <c:v>1224.7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>910.66666666666663</c:v>
+                  <c:v>1263.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>743</c:v>
+                  <c:v>1128.3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>691.33333333333337</c:v>
+                  <c:v>1167.0999999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>644.33333333333337</c:v>
+                  <c:v>1219.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>793.33333333333337</c:v>
+                  <c:v>1201</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>873.66666666666663</c:v>
+                  <c:v>1261.5999999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>888</c:v>
+                  <c:v>1258.7</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>786</c:v>
+                  <c:v>1225.4000000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>791.66666666666663</c:v>
+                  <c:v>1258.5999999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1169.3333333333333</c:v>
+                  <c:v>1354.7</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>854.33333333333337</c:v>
+                  <c:v>1289.5999999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1005.6666666666666</c:v>
+                  <c:v>1376.2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>970.66666666666663</c:v>
+                  <c:v>1378.7</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>764.33333333333337</c:v>
+                  <c:v>1343.8</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1119</c:v>
+                  <c:v>1464.5</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>671</c:v>
+                  <c:v>1665.9</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>936.66666666666663</c:v>
+                  <c:v>1962.5</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>968</c:v>
+                  <c:v>2086.1999999999998</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>967.33333333333337</c:v>
+                  <c:v>2064.6999999999998</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>931</c:v>
+                  <c:v>1956.5</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1786</c:v>
+                  <c:v>2277.1</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1760.6666666666667</c:v>
+                  <c:v>2224.6999999999998</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1314.3333333333333</c:v>
+                  <c:v>2080.6</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2179.6666666666665</c:v>
+                  <c:v>2392</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1086.6666666666667</c:v>
+                  <c:v>2088</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1152</c:v>
+                  <c:v>2168.8000000000002</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>791.33333333333337</c:v>
+                  <c:v>1938.2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>820.33333333333337</c:v>
+                  <c:v>2028.1</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>921</c:v>
+                  <c:v>2007.9</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>880.66666666666663</c:v>
+                  <c:v>2047.3</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>774.33333333333337</c:v>
+                  <c:v>1996.3</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>887.33333333333337</c:v>
+                  <c:v>2004.1</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>881.66666666666663</c:v>
+                  <c:v>2059.4</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>853</c:v>
+                  <c:v>2041.7</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>932.33333333333337</c:v>
+                  <c:v>2021.7</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>981.33333333333337</c:v>
+                  <c:v>2071.5</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>738.33333333333337</c:v>
+                  <c:v>2022.4</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>955.33333333333337</c:v>
+                  <c:v>2055.1999999999998</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>765.66666666666663</c:v>
+                  <c:v>1982.6</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>583.66666666666663</c:v>
+                  <c:v>1938.4</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>691.66666666666663</c:v>
+                  <c:v>2015.6</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>910</c:v>
+                  <c:v>1978</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>957.66666666666663</c:v>
+                  <c:v>2037.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12911,6 +12879,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -13230,7 +13202,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{900E8F99-93E9-4FEE-AE22-1E57C01964FE}">
   <dimension ref="A1:AV104"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" zoomScale="59" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="K12" zoomScale="59" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="AF59" sqref="AF59"/>
     </sheetView>
   </sheetViews>
@@ -21360,8 +21332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CA6133C-7B8D-4CE6-BC4F-0E80738E6184}">
   <dimension ref="A1:BC315"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K17" zoomScale="64" zoomScaleNormal="72" workbookViewId="0">
-      <selection activeCell="AG63" sqref="AG63"/>
+    <sheetView tabSelected="1" topLeftCell="P38" zoomScale="64" zoomScaleNormal="72" workbookViewId="0">
+      <selection activeCell="AQ65" sqref="AQ65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -21382,7 +21354,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:55" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:55" s="15" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>32</v>
       </c>
@@ -21442,12 +21414,12 @@
       <c r="AU4" s="4"/>
       <c r="AV4" s="4"/>
       <c r="AW4" s="5"/>
-      <c r="AX4" s="22"/>
-      <c r="AY4" s="22"/>
-      <c r="AZ4" s="22"/>
-      <c r="BA4" s="22"/>
-      <c r="BB4" s="22"/>
-      <c r="BC4" s="22"/>
+      <c r="AX4" s="5"/>
+      <c r="AY4" s="5"/>
+      <c r="AZ4" s="5"/>
+      <c r="BA4" s="5"/>
+      <c r="BB4" s="5"/>
+      <c r="BC4" s="5"/>
     </row>
     <row r="5" spans="1:55" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
@@ -21616,7 +21588,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:55" ht="16" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:55" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="16">
         <v>152</v>
       </c>
@@ -21712,7 +21684,7 @@
       <c r="AE6" s="21">
         <v>233</v>
       </c>
-      <c r="AF6" s="23">
+      <c r="AF6" s="21">
         <v>234</v>
       </c>
       <c r="AG6" s="19">
@@ -21753,28 +21725,42 @@
         <f t="shared" ref="AR6:AR37" si="0">AVERAGE(AH6:AQ6)</f>
         <v>365.2</v>
       </c>
-      <c r="AS6" s="24">
+      <c r="AS6" s="22">
         <v>233</v>
       </c>
-      <c r="AT6" s="24">
+      <c r="AT6" s="22">
         <v>439</v>
       </c>
-      <c r="AU6" s="25">
+      <c r="AU6" s="22">
         <v>504</v>
       </c>
-      <c r="AV6" s="26"/>
-      <c r="AW6" s="26"/>
-      <c r="AX6" s="26"/>
-      <c r="AY6" s="26"/>
-      <c r="AZ6" s="26"/>
-      <c r="BA6" s="26"/>
-      <c r="BB6" s="26"/>
-      <c r="BC6" s="27">
+      <c r="AV6" s="22">
+        <v>1065</v>
+      </c>
+      <c r="AW6" s="22">
+        <v>693</v>
+      </c>
+      <c r="AX6" s="22">
+        <v>232</v>
+      </c>
+      <c r="AY6" s="22">
+        <v>374</v>
+      </c>
+      <c r="AZ6" s="22">
+        <v>303</v>
+      </c>
+      <c r="BA6" s="22">
+        <v>438</v>
+      </c>
+      <c r="BB6" s="22">
+        <v>232</v>
+      </c>
+      <c r="BC6" s="19">
         <f>AVERAGE(AS6:BB6)</f>
-        <v>392</v>
+        <v>451.3</v>
       </c>
     </row>
-    <row r="7" spans="1:55" ht="16" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:55" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="16">
         <v>152</v>
       </c>
@@ -21870,7 +21856,7 @@
       <c r="AE7" s="21">
         <v>231</v>
       </c>
-      <c r="AF7" s="23">
+      <c r="AF7" s="21">
         <v>232</v>
       </c>
       <c r="AG7" s="19">
@@ -21911,28 +21897,42 @@
         <f t="shared" si="0"/>
         <v>392.1</v>
       </c>
-      <c r="AS7" s="24">
+      <c r="AS7" s="22">
         <v>505</v>
       </c>
-      <c r="AT7" s="24">
+      <c r="AT7" s="22">
         <v>807</v>
       </c>
-      <c r="AU7" s="25">
+      <c r="AU7" s="22">
         <v>747</v>
       </c>
-      <c r="AV7" s="26"/>
-      <c r="AW7" s="26"/>
-      <c r="AX7" s="26"/>
-      <c r="AY7" s="26"/>
-      <c r="AZ7" s="26"/>
-      <c r="BA7" s="26"/>
-      <c r="BB7" s="26"/>
-      <c r="BC7" s="27">
+      <c r="AV7" s="22">
+        <v>911</v>
+      </c>
+      <c r="AW7" s="22">
+        <v>1825</v>
+      </c>
+      <c r="AX7" s="22">
+        <v>570</v>
+      </c>
+      <c r="AY7" s="22">
+        <v>1555</v>
+      </c>
+      <c r="AZ7" s="22">
+        <v>1248</v>
+      </c>
+      <c r="BA7" s="22">
+        <v>631</v>
+      </c>
+      <c r="BB7" s="22">
+        <v>695</v>
+      </c>
+      <c r="BC7" s="19">
         <f t="shared" ref="BC7:BC55" si="4">AVERAGE(AS7:BB7)</f>
-        <v>686.33333333333337</v>
+        <v>949.4</v>
       </c>
     </row>
-    <row r="8" spans="1:55" ht="16" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:55" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="16">
         <v>154</v>
       </c>
@@ -22028,7 +22028,7 @@
       <c r="AE8" s="21">
         <v>233</v>
       </c>
-      <c r="AF8" s="23">
+      <c r="AF8" s="21">
         <v>232</v>
       </c>
       <c r="AG8" s="19">
@@ -22069,28 +22069,42 @@
         <f t="shared" si="0"/>
         <v>497.8</v>
       </c>
-      <c r="AS8" s="24">
+      <c r="AS8" s="22">
         <v>501</v>
       </c>
-      <c r="AT8" s="24">
+      <c r="AT8" s="22">
         <v>1011</v>
       </c>
-      <c r="AU8" s="25">
+      <c r="AU8" s="22">
         <v>691</v>
       </c>
-      <c r="AV8" s="26"/>
-      <c r="AW8" s="26"/>
-      <c r="AX8" s="26"/>
-      <c r="AY8" s="26"/>
-      <c r="AZ8" s="26"/>
-      <c r="BA8" s="26"/>
-      <c r="BB8" s="26"/>
-      <c r="BC8" s="27">
+      <c r="AV8" s="22">
+        <v>907</v>
+      </c>
+      <c r="AW8" s="22">
+        <v>2327</v>
+      </c>
+      <c r="AX8" s="22">
+        <v>437</v>
+      </c>
+      <c r="AY8" s="22">
+        <v>741</v>
+      </c>
+      <c r="AZ8" s="22">
+        <v>625</v>
+      </c>
+      <c r="BA8" s="22">
+        <v>438</v>
+      </c>
+      <c r="BB8" s="22">
+        <v>694</v>
+      </c>
+      <c r="BC8" s="19">
         <f t="shared" si="4"/>
-        <v>734.33333333333337</v>
+        <v>837.2</v>
       </c>
     </row>
-    <row r="9" spans="1:55" ht="16" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:55" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="16">
         <v>154</v>
       </c>
@@ -22186,7 +22200,7 @@
       <c r="AE9" s="21">
         <v>1250</v>
       </c>
-      <c r="AF9" s="23">
+      <c r="AF9" s="21">
         <v>232</v>
       </c>
       <c r="AG9" s="19">
@@ -22227,28 +22241,42 @@
         <f t="shared" si="0"/>
         <v>659.5</v>
       </c>
-      <c r="AS9" s="24">
+      <c r="AS9" s="22">
         <v>232</v>
       </c>
-      <c r="AT9" s="24">
+      <c r="AT9" s="22">
         <v>908</v>
       </c>
-      <c r="AU9" s="25">
+      <c r="AU9" s="22">
         <v>747</v>
       </c>
-      <c r="AV9" s="26"/>
-      <c r="AW9" s="26"/>
-      <c r="AX9" s="26"/>
-      <c r="AY9" s="26"/>
-      <c r="AZ9" s="26"/>
-      <c r="BA9" s="26"/>
-      <c r="BB9" s="26"/>
-      <c r="BC9" s="27">
+      <c r="AV9" s="22">
+        <v>1011</v>
+      </c>
+      <c r="AW9" s="22">
+        <v>232</v>
+      </c>
+      <c r="AX9" s="22">
+        <v>441</v>
+      </c>
+      <c r="AY9" s="22">
+        <v>1248</v>
+      </c>
+      <c r="AZ9" s="22">
+        <v>688</v>
+      </c>
+      <c r="BA9" s="22">
+        <v>4667</v>
+      </c>
+      <c r="BB9" s="22">
+        <v>802</v>
+      </c>
+      <c r="BC9" s="19">
         <f t="shared" si="4"/>
-        <v>629</v>
+        <v>1097.5999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:55" ht="16" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:55" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="16">
         <v>154</v>
       </c>
@@ -22344,7 +22372,7 @@
       <c r="AE10" s="21">
         <v>1210</v>
       </c>
-      <c r="AF10" s="23">
+      <c r="AF10" s="21">
         <v>230</v>
       </c>
       <c r="AG10" s="19">
@@ -22385,28 +22413,42 @@
         <f t="shared" si="0"/>
         <v>773.3</v>
       </c>
-      <c r="AS10" s="24">
+      <c r="AS10" s="22">
         <v>301</v>
       </c>
-      <c r="AT10" s="24">
+      <c r="AT10" s="22">
         <v>914</v>
       </c>
-      <c r="AU10" s="25">
+      <c r="AU10" s="22">
         <v>692</v>
       </c>
-      <c r="AV10" s="26"/>
-      <c r="AW10" s="26"/>
-      <c r="AX10" s="26"/>
-      <c r="AY10" s="26"/>
-      <c r="AZ10" s="26"/>
-      <c r="BA10" s="26"/>
-      <c r="BB10" s="26"/>
-      <c r="BC10" s="27">
+      <c r="AV10" s="22">
+        <v>1063</v>
+      </c>
+      <c r="AW10" s="22">
+        <v>439</v>
+      </c>
+      <c r="AX10" s="22">
+        <v>441</v>
+      </c>
+      <c r="AY10" s="22">
+        <v>231</v>
+      </c>
+      <c r="AZ10" s="22">
+        <v>752</v>
+      </c>
+      <c r="BA10" s="22">
+        <v>4724</v>
+      </c>
+      <c r="BB10" s="22">
+        <v>750</v>
+      </c>
+      <c r="BC10" s="19">
         <f t="shared" si="4"/>
-        <v>635.66666666666663</v>
+        <v>1030.7</v>
       </c>
     </row>
-    <row r="11" spans="1:55" ht="16" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:55" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="16">
         <v>154</v>
       </c>
@@ -22502,7 +22544,7 @@
       <c r="AE11" s="21">
         <v>1336</v>
       </c>
-      <c r="AF11" s="23">
+      <c r="AF11" s="21">
         <v>234</v>
       </c>
       <c r="AG11" s="19">
@@ -22543,28 +22585,42 @@
         <f t="shared" si="0"/>
         <v>621.1</v>
       </c>
-      <c r="AS11" s="24">
+      <c r="AS11" s="22">
         <v>439</v>
       </c>
-      <c r="AT11" s="24">
+      <c r="AT11" s="22">
         <v>1063</v>
       </c>
-      <c r="AU11" s="25">
+      <c r="AU11" s="22">
         <v>1010</v>
       </c>
-      <c r="AV11" s="26"/>
-      <c r="AW11" s="26"/>
-      <c r="AX11" s="26"/>
-      <c r="AY11" s="26"/>
-      <c r="AZ11" s="26"/>
-      <c r="BA11" s="26"/>
-      <c r="BB11" s="26"/>
-      <c r="BC11" s="27">
+      <c r="AV11" s="22">
+        <v>1250</v>
+      </c>
+      <c r="AW11" s="22">
+        <v>440</v>
+      </c>
+      <c r="AX11" s="22">
+        <v>510</v>
+      </c>
+      <c r="AY11" s="22">
+        <v>222</v>
+      </c>
+      <c r="AZ11" s="22">
+        <v>1245</v>
+      </c>
+      <c r="BA11" s="22">
+        <v>4726</v>
+      </c>
+      <c r="BB11" s="22">
+        <v>915</v>
+      </c>
+      <c r="BC11" s="19">
         <f t="shared" si="4"/>
-        <v>837.33333333333337</v>
+        <v>1182</v>
       </c>
     </row>
-    <row r="12" spans="1:55" ht="16" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:55" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="16">
         <v>153</v>
       </c>
@@ -22660,7 +22716,7 @@
       <c r="AE12" s="21">
         <v>628</v>
       </c>
-      <c r="AF12" s="23">
+      <c r="AF12" s="21">
         <v>912</v>
       </c>
       <c r="AG12" s="19">
@@ -22701,28 +22757,42 @@
         <f t="shared" si="0"/>
         <v>768.1</v>
       </c>
-      <c r="AS12" s="24">
+      <c r="AS12" s="22">
         <v>508</v>
       </c>
-      <c r="AT12" s="24">
+      <c r="AT12" s="22">
         <v>1249</v>
       </c>
-      <c r="AU12" s="25">
+      <c r="AU12" s="22">
         <v>809</v>
       </c>
-      <c r="AV12" s="26"/>
-      <c r="AW12" s="26"/>
-      <c r="AX12" s="26"/>
-      <c r="AY12" s="26"/>
-      <c r="AZ12" s="26"/>
-      <c r="BA12" s="26"/>
-      <c r="BB12" s="26"/>
-      <c r="BC12" s="27">
+      <c r="AV12" s="22">
+        <v>1013</v>
+      </c>
+      <c r="AW12" s="22">
+        <v>1108</v>
+      </c>
+      <c r="AX12" s="22">
+        <v>859</v>
+      </c>
+      <c r="AY12" s="22">
+        <v>297</v>
+      </c>
+      <c r="AZ12" s="22">
+        <v>739</v>
+      </c>
+      <c r="BA12" s="22">
+        <v>4704</v>
+      </c>
+      <c r="BB12" s="22">
+        <v>961</v>
+      </c>
+      <c r="BC12" s="19">
         <f t="shared" si="4"/>
-        <v>855.33333333333337</v>
+        <v>1224.7</v>
       </c>
     </row>
-    <row r="13" spans="1:55" ht="16" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:55" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="16">
         <v>225</v>
       </c>
@@ -22818,7 +22888,7 @@
       <c r="AE13" s="21">
         <v>568</v>
       </c>
-      <c r="AF13" s="23">
+      <c r="AF13" s="21">
         <v>1014</v>
       </c>
       <c r="AG13" s="19">
@@ -22859,28 +22929,42 @@
         <f t="shared" si="0"/>
         <v>600.4</v>
       </c>
-      <c r="AS13" s="24">
+      <c r="AS13" s="22">
         <v>909</v>
       </c>
-      <c r="AT13" s="24">
+      <c r="AT13" s="22">
         <v>906</v>
       </c>
-      <c r="AU13" s="25">
+      <c r="AU13" s="22">
         <v>917</v>
       </c>
-      <c r="AV13" s="26"/>
-      <c r="AW13" s="26"/>
-      <c r="AX13" s="26"/>
-      <c r="AY13" s="26"/>
-      <c r="AZ13" s="26"/>
-      <c r="BA13" s="26"/>
-      <c r="BB13" s="26"/>
-      <c r="BC13" s="27">
+      <c r="AV13" s="22">
+        <v>914</v>
+      </c>
+      <c r="AW13" s="22">
+        <v>913</v>
+      </c>
+      <c r="AX13" s="22">
+        <v>1162</v>
+      </c>
+      <c r="AY13" s="22">
+        <v>233</v>
+      </c>
+      <c r="AZ13" s="22">
+        <v>1018</v>
+      </c>
+      <c r="BA13" s="22">
+        <v>4748</v>
+      </c>
+      <c r="BB13" s="22">
+        <v>915</v>
+      </c>
+      <c r="BC13" s="19">
         <f t="shared" si="4"/>
-        <v>910.66666666666663</v>
+        <v>1263.5</v>
       </c>
     </row>
-    <row r="14" spans="1:55" ht="16" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:55" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="16">
         <v>230</v>
       </c>
@@ -22976,7 +23060,7 @@
       <c r="AE14" s="21">
         <v>570</v>
       </c>
-      <c r="AF14" s="23">
+      <c r="AF14" s="21">
         <v>914</v>
       </c>
       <c r="AG14" s="19">
@@ -23017,28 +23101,42 @@
         <f t="shared" si="0"/>
         <v>613.70000000000005</v>
       </c>
-      <c r="AS14" s="24">
+      <c r="AS14" s="22">
         <v>810</v>
       </c>
-      <c r="AT14" s="24">
+      <c r="AT14" s="22">
         <v>911</v>
       </c>
-      <c r="AU14" s="25">
+      <c r="AU14" s="22">
         <v>508</v>
       </c>
-      <c r="AV14" s="26"/>
-      <c r="AW14" s="26"/>
-      <c r="AX14" s="26"/>
-      <c r="AY14" s="26"/>
-      <c r="AZ14" s="26"/>
-      <c r="BA14" s="26"/>
-      <c r="BB14" s="26"/>
-      <c r="BC14" s="27">
+      <c r="AV14" s="22">
+        <v>914</v>
+      </c>
+      <c r="AW14" s="22">
+        <v>442</v>
+      </c>
+      <c r="AX14" s="22">
+        <v>911</v>
+      </c>
+      <c r="AY14" s="22">
+        <v>232</v>
+      </c>
+      <c r="AZ14" s="22">
+        <v>964</v>
+      </c>
+      <c r="BA14" s="22">
+        <v>4733</v>
+      </c>
+      <c r="BB14" s="22">
+        <v>858</v>
+      </c>
+      <c r="BC14" s="19">
         <f t="shared" si="4"/>
-        <v>743</v>
+        <v>1128.3</v>
       </c>
     </row>
-    <row r="15" spans="1:55" ht="16" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:55" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="16">
         <v>155</v>
       </c>
@@ -23134,7 +23232,7 @@
       <c r="AE15" s="21">
         <v>629</v>
       </c>
-      <c r="AF15" s="23">
+      <c r="AF15" s="21">
         <v>913</v>
       </c>
       <c r="AG15" s="19">
@@ -23175,28 +23273,42 @@
         <f t="shared" si="0"/>
         <v>618.5</v>
       </c>
-      <c r="AS15" s="24">
+      <c r="AS15" s="22">
         <v>626</v>
       </c>
-      <c r="AT15" s="24">
+      <c r="AT15" s="22">
         <v>1010</v>
       </c>
-      <c r="AU15" s="25">
+      <c r="AU15" s="22">
         <v>438</v>
       </c>
-      <c r="AV15" s="26"/>
-      <c r="AW15" s="26"/>
-      <c r="AX15" s="26"/>
-      <c r="AY15" s="26"/>
-      <c r="AZ15" s="26"/>
-      <c r="BA15" s="26"/>
-      <c r="BB15" s="26"/>
-      <c r="BC15" s="27">
+      <c r="AV15" s="22">
+        <v>918</v>
+      </c>
+      <c r="AW15" s="22">
+        <v>688</v>
+      </c>
+      <c r="AX15" s="22">
+        <v>906</v>
+      </c>
+      <c r="AY15" s="22">
+        <v>153</v>
+      </c>
+      <c r="AZ15" s="22">
+        <v>1559</v>
+      </c>
+      <c r="BA15" s="22">
+        <v>4749</v>
+      </c>
+      <c r="BB15" s="22">
+        <v>624</v>
+      </c>
+      <c r="BC15" s="19">
         <f t="shared" si="4"/>
-        <v>691.33333333333337</v>
+        <v>1167.0999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:55" ht="16" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:55" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="16">
         <v>158</v>
       </c>
@@ -23292,7 +23404,7 @@
       <c r="AE16" s="21">
         <v>1207</v>
       </c>
-      <c r="AF16" s="23">
+      <c r="AF16" s="21">
         <v>623</v>
       </c>
       <c r="AG16" s="19">
@@ -23333,28 +23445,42 @@
         <f t="shared" si="0"/>
         <v>664.2</v>
       </c>
-      <c r="AS16" s="24">
+      <c r="AS16" s="22">
         <v>682</v>
       </c>
-      <c r="AT16" s="24">
+      <c r="AT16" s="22">
         <v>685</v>
       </c>
-      <c r="AU16" s="25">
+      <c r="AU16" s="22">
         <v>566</v>
       </c>
-      <c r="AV16" s="26"/>
-      <c r="AW16" s="26"/>
-      <c r="AX16" s="26"/>
-      <c r="AY16" s="26"/>
-      <c r="AZ16" s="26"/>
-      <c r="BA16" s="26"/>
-      <c r="BB16" s="26"/>
-      <c r="BC16" s="27">
+      <c r="AV16" s="22">
+        <v>1069</v>
+      </c>
+      <c r="AW16" s="22">
+        <v>912</v>
+      </c>
+      <c r="AX16" s="22">
+        <v>909</v>
+      </c>
+      <c r="AY16" s="22">
+        <v>231</v>
+      </c>
+      <c r="AZ16" s="22">
+        <v>1761</v>
+      </c>
+      <c r="BA16" s="22">
+        <v>4752</v>
+      </c>
+      <c r="BB16" s="22">
+        <v>628</v>
+      </c>
+      <c r="BC16" s="19">
         <f t="shared" si="4"/>
-        <v>644.33333333333337</v>
+        <v>1219.5</v>
       </c>
     </row>
-    <row r="17" spans="1:55" ht="16" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:55" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="16">
         <v>154</v>
       </c>
@@ -23450,7 +23576,7 @@
       <c r="AE17" s="21">
         <v>1211</v>
       </c>
-      <c r="AF17" s="23">
+      <c r="AF17" s="21">
         <v>907</v>
       </c>
       <c r="AG17" s="19">
@@ -23491,28 +23617,42 @@
         <f t="shared" si="0"/>
         <v>728.1</v>
       </c>
-      <c r="AS17" s="24">
+      <c r="AS17" s="22">
         <v>1019</v>
       </c>
-      <c r="AT17" s="24">
+      <c r="AT17" s="22">
         <v>856</v>
       </c>
-      <c r="AU17" s="25">
+      <c r="AU17" s="22">
         <v>505</v>
       </c>
-      <c r="AV17" s="26"/>
-      <c r="AW17" s="26"/>
-      <c r="AX17" s="26"/>
-      <c r="AY17" s="26"/>
-      <c r="AZ17" s="26"/>
-      <c r="BA17" s="26"/>
-      <c r="BB17" s="26"/>
-      <c r="BC17" s="27">
+      <c r="AV17" s="22">
+        <v>1064</v>
+      </c>
+      <c r="AW17" s="22">
+        <v>439</v>
+      </c>
+      <c r="AX17" s="22">
+        <v>963</v>
+      </c>
+      <c r="AY17" s="22">
+        <v>691</v>
+      </c>
+      <c r="AZ17" s="22">
+        <v>1012</v>
+      </c>
+      <c r="BA17" s="22">
+        <v>4771</v>
+      </c>
+      <c r="BB17" s="22">
+        <v>690</v>
+      </c>
+      <c r="BC17" s="19">
         <f t="shared" si="4"/>
-        <v>793.33333333333337</v>
+        <v>1201</v>
       </c>
     </row>
-    <row r="18" spans="1:55" ht="16" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:55" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="16">
         <v>154</v>
       </c>
@@ -23608,7 +23748,7 @@
       <c r="AE18" s="21">
         <v>1106</v>
       </c>
-      <c r="AF18" s="23">
+      <c r="AF18" s="21">
         <v>1065</v>
       </c>
       <c r="AG18" s="19">
@@ -23649,28 +23789,42 @@
         <f t="shared" si="0"/>
         <v>668.4</v>
       </c>
-      <c r="AS18" s="24">
+      <c r="AS18" s="22">
         <v>1304</v>
       </c>
-      <c r="AT18" s="24">
+      <c r="AT18" s="22">
         <v>629</v>
       </c>
-      <c r="AU18" s="25">
+      <c r="AU18" s="22">
         <v>688</v>
       </c>
-      <c r="AV18" s="26"/>
-      <c r="AW18" s="26"/>
-      <c r="AX18" s="26"/>
-      <c r="AY18" s="26"/>
-      <c r="AZ18" s="26"/>
-      <c r="BA18" s="26"/>
-      <c r="BB18" s="26"/>
-      <c r="BC18" s="27">
+      <c r="AV18" s="22">
+        <v>1209</v>
+      </c>
+      <c r="AW18" s="22">
+        <v>751</v>
+      </c>
+      <c r="AX18" s="22">
+        <v>965</v>
+      </c>
+      <c r="AY18" s="22">
+        <v>857</v>
+      </c>
+      <c r="AZ18" s="22">
+        <v>688</v>
+      </c>
+      <c r="BA18" s="22">
+        <v>4723</v>
+      </c>
+      <c r="BB18" s="22">
+        <v>802</v>
+      </c>
+      <c r="BC18" s="19">
         <f t="shared" si="4"/>
-        <v>873.66666666666663</v>
+        <v>1261.5999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:55" ht="16" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:55" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="16">
         <v>153</v>
       </c>
@@ -23766,7 +23920,7 @@
       <c r="AE19" s="21">
         <v>963</v>
       </c>
-      <c r="AF19" s="23">
+      <c r="AF19" s="21">
         <v>913</v>
       </c>
       <c r="AG19" s="19">
@@ -23807,28 +23961,42 @@
         <f t="shared" si="0"/>
         <v>725.7</v>
       </c>
-      <c r="AS19" s="24">
+      <c r="AS19" s="22">
         <v>1117</v>
       </c>
-      <c r="AT19" s="24">
+      <c r="AT19" s="22">
         <v>689</v>
       </c>
-      <c r="AU19" s="25">
+      <c r="AU19" s="22">
         <v>858</v>
       </c>
-      <c r="AV19" s="26"/>
-      <c r="AW19" s="26"/>
-      <c r="AX19" s="26"/>
-      <c r="AY19" s="26"/>
-      <c r="AZ19" s="26"/>
-      <c r="BA19" s="26"/>
-      <c r="BB19" s="26"/>
-      <c r="BC19" s="27">
+      <c r="AV19" s="22">
+        <v>1011</v>
+      </c>
+      <c r="AW19" s="22">
+        <v>910</v>
+      </c>
+      <c r="AX19" s="22">
+        <v>959</v>
+      </c>
+      <c r="AY19" s="22">
+        <v>810</v>
+      </c>
+      <c r="AZ19" s="22">
+        <v>687</v>
+      </c>
+      <c r="BA19" s="22">
+        <v>4809</v>
+      </c>
+      <c r="BB19" s="22">
+        <v>737</v>
+      </c>
+      <c r="BC19" s="19">
         <f t="shared" si="4"/>
-        <v>888</v>
+        <v>1258.7</v>
       </c>
     </row>
-    <row r="20" spans="1:55" ht="16" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:55" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="16">
         <v>156</v>
       </c>
@@ -23924,7 +24092,7 @@
       <c r="AE20" s="21">
         <v>965</v>
       </c>
-      <c r="AF20" s="23">
+      <c r="AF20" s="21">
         <v>911</v>
       </c>
       <c r="AG20" s="19">
@@ -23965,28 +24133,42 @@
         <f t="shared" si="0"/>
         <v>810.2</v>
       </c>
-      <c r="AS20" s="24">
+      <c r="AS20" s="22">
         <v>1012</v>
       </c>
-      <c r="AT20" s="24">
+      <c r="AT20" s="22">
         <v>909</v>
       </c>
-      <c r="AU20" s="25">
+      <c r="AU20" s="22">
         <v>437</v>
       </c>
-      <c r="AV20" s="26"/>
-      <c r="AW20" s="26"/>
-      <c r="AX20" s="26"/>
-      <c r="AY20" s="26"/>
-      <c r="AZ20" s="26"/>
-      <c r="BA20" s="26"/>
-      <c r="BB20" s="26"/>
-      <c r="BC20" s="27">
+      <c r="AV20" s="22">
+        <v>1059</v>
+      </c>
+      <c r="AW20" s="22">
+        <v>686</v>
+      </c>
+      <c r="AX20" s="22">
+        <v>1066</v>
+      </c>
+      <c r="AY20" s="22">
+        <v>1061</v>
+      </c>
+      <c r="AZ20" s="22">
+        <v>856</v>
+      </c>
+      <c r="BA20" s="22">
+        <v>4731</v>
+      </c>
+      <c r="BB20" s="22">
+        <v>437</v>
+      </c>
+      <c r="BC20" s="19">
         <f t="shared" si="4"/>
-        <v>786</v>
+        <v>1225.4000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:55" ht="16" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:55" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="16">
         <v>227</v>
       </c>
@@ -24082,7 +24264,7 @@
       <c r="AE21" s="21">
         <v>1343</v>
       </c>
-      <c r="AF21" s="23">
+      <c r="AF21" s="21">
         <v>1018</v>
       </c>
       <c r="AG21" s="19">
@@ -24123,28 +24305,42 @@
         <f t="shared" si="0"/>
         <v>756.5</v>
       </c>
-      <c r="AS21" s="24">
+      <c r="AS21" s="22">
         <v>959</v>
       </c>
-      <c r="AT21" s="24">
+      <c r="AT21" s="22">
         <v>911</v>
       </c>
-      <c r="AU21" s="25">
+      <c r="AU21" s="22">
         <v>505</v>
       </c>
-      <c r="AV21" s="26"/>
-      <c r="AW21" s="26"/>
-      <c r="AX21" s="26"/>
-      <c r="AY21" s="26"/>
-      <c r="AZ21" s="26"/>
-      <c r="BA21" s="26"/>
-      <c r="BB21" s="26"/>
-      <c r="BC21" s="27">
+      <c r="AV21" s="22">
+        <v>1203</v>
+      </c>
+      <c r="AW21" s="22">
+        <v>851</v>
+      </c>
+      <c r="AX21" s="22">
+        <v>1248</v>
+      </c>
+      <c r="AY21" s="22">
+        <v>909</v>
+      </c>
+      <c r="AZ21" s="22">
+        <v>750</v>
+      </c>
+      <c r="BA21" s="22">
+        <v>4744</v>
+      </c>
+      <c r="BB21" s="22">
+        <v>506</v>
+      </c>
+      <c r="BC21" s="19">
         <f t="shared" si="4"/>
-        <v>791.66666666666663</v>
+        <v>1258.5999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:55" ht="16" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:55" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="16">
         <v>154</v>
       </c>
@@ -24240,7 +24436,7 @@
       <c r="AE22" s="21">
         <v>1012</v>
       </c>
-      <c r="AF22" s="23">
+      <c r="AF22" s="21">
         <v>920</v>
       </c>
       <c r="AG22" s="19">
@@ -24281,28 +24477,42 @@
         <f t="shared" si="0"/>
         <v>696.9</v>
       </c>
-      <c r="AS22" s="24">
+      <c r="AS22" s="22">
         <v>1508</v>
       </c>
-      <c r="AT22" s="24">
+      <c r="AT22" s="22">
         <v>1255</v>
       </c>
-      <c r="AU22" s="25">
+      <c r="AU22" s="22">
         <v>745</v>
       </c>
-      <c r="AV22" s="26"/>
-      <c r="AW22" s="26"/>
-      <c r="AX22" s="26"/>
-      <c r="AY22" s="26"/>
-      <c r="AZ22" s="26"/>
-      <c r="BA22" s="26"/>
-      <c r="BB22" s="26"/>
-      <c r="BC22" s="27">
+      <c r="AV22" s="22">
+        <v>1945</v>
+      </c>
+      <c r="AW22" s="22">
+        <v>630</v>
+      </c>
+      <c r="AX22" s="22">
+        <v>1210</v>
+      </c>
+      <c r="AY22" s="22">
+        <v>373</v>
+      </c>
+      <c r="AZ22" s="22">
+        <v>628</v>
+      </c>
+      <c r="BA22" s="22">
+        <v>4749</v>
+      </c>
+      <c r="BB22" s="22">
+        <v>504</v>
+      </c>
+      <c r="BC22" s="19">
         <f t="shared" si="4"/>
-        <v>1169.3333333333333</v>
+        <v>1354.7</v>
       </c>
     </row>
-    <row r="23" spans="1:55" ht="16" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:55" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="16">
         <v>156</v>
       </c>
@@ -24398,7 +24608,7 @@
       <c r="AE23" s="21">
         <v>1010</v>
       </c>
-      <c r="AF23" s="23">
+      <c r="AF23" s="21">
         <v>855</v>
       </c>
       <c r="AG23" s="19">
@@ -24439,28 +24649,42 @@
         <f t="shared" si="0"/>
         <v>796.1</v>
       </c>
-      <c r="AS23" s="24">
+      <c r="AS23" s="22">
         <v>1638</v>
       </c>
-      <c r="AT23" s="24">
+      <c r="AT23" s="22">
         <v>232</v>
       </c>
-      <c r="AU23" s="25">
+      <c r="AU23" s="22">
         <v>693</v>
       </c>
-      <c r="AV23" s="26"/>
-      <c r="AW23" s="26"/>
-      <c r="AX23" s="26"/>
-      <c r="AY23" s="26"/>
-      <c r="AZ23" s="26"/>
-      <c r="BA23" s="26"/>
-      <c r="BB23" s="26"/>
-      <c r="BC23" s="27">
+      <c r="AV23" s="22">
+        <v>1944</v>
+      </c>
+      <c r="AW23" s="22">
+        <v>1210</v>
+      </c>
+      <c r="AX23" s="22">
+        <v>907</v>
+      </c>
+      <c r="AY23" s="22">
+        <v>232</v>
+      </c>
+      <c r="AZ23" s="22">
+        <v>629</v>
+      </c>
+      <c r="BA23" s="22">
+        <v>4783</v>
+      </c>
+      <c r="BB23" s="22">
+        <v>628</v>
+      </c>
+      <c r="BC23" s="19">
         <f t="shared" si="4"/>
-        <v>854.33333333333337</v>
+        <v>1289.5999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:55" ht="16" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:55" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="16">
         <v>154</v>
       </c>
@@ -24556,7 +24780,7 @@
       <c r="AE24" s="21">
         <v>631</v>
       </c>
-      <c r="AF24" s="23">
+      <c r="AF24" s="21">
         <v>233</v>
       </c>
       <c r="AG24" s="19">
@@ -24597,28 +24821,42 @@
         <f t="shared" si="0"/>
         <v>750.4</v>
       </c>
-      <c r="AS24" s="24">
+      <c r="AS24" s="22">
         <v>1826</v>
       </c>
-      <c r="AT24" s="24">
+      <c r="AT24" s="22">
         <v>225</v>
       </c>
-      <c r="AU24" s="25">
+      <c r="AU24" s="22">
         <v>966</v>
       </c>
-      <c r="AV24" s="26"/>
-      <c r="AW24" s="26"/>
-      <c r="AX24" s="26"/>
-      <c r="AY24" s="26"/>
-      <c r="AZ24" s="26"/>
-      <c r="BA24" s="26"/>
-      <c r="BB24" s="26"/>
-      <c r="BC24" s="27">
+      <c r="AV24" s="22">
+        <v>1939</v>
+      </c>
+      <c r="AW24" s="22">
+        <v>631</v>
+      </c>
+      <c r="AX24" s="22">
+        <v>1206</v>
+      </c>
+      <c r="AY24" s="22">
+        <v>440</v>
+      </c>
+      <c r="AZ24" s="22">
+        <v>688</v>
+      </c>
+      <c r="BA24" s="22">
+        <v>4828</v>
+      </c>
+      <c r="BB24" s="22">
+        <v>1013</v>
+      </c>
+      <c r="BC24" s="19">
         <f t="shared" si="4"/>
-        <v>1005.6666666666666</v>
+        <v>1376.2</v>
       </c>
     </row>
-    <row r="25" spans="1:55" ht="16" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:55" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="16">
         <v>156</v>
       </c>
@@ -24714,7 +24952,7 @@
       <c r="AE25" s="21">
         <v>807</v>
       </c>
-      <c r="AF25" s="23">
+      <c r="AF25" s="21">
         <v>232</v>
       </c>
       <c r="AG25" s="19">
@@ -24755,28 +24993,42 @@
         <f t="shared" si="0"/>
         <v>731.8</v>
       </c>
-      <c r="AS25" s="24">
+      <c r="AS25" s="22">
         <v>1826</v>
       </c>
-      <c r="AT25" s="24">
+      <c r="AT25" s="22">
         <v>231</v>
       </c>
-      <c r="AU25" s="25">
+      <c r="AU25" s="22">
         <v>855</v>
       </c>
-      <c r="AV25" s="26"/>
-      <c r="AW25" s="26"/>
-      <c r="AX25" s="26"/>
-      <c r="AY25" s="26"/>
-      <c r="AZ25" s="26"/>
-      <c r="BA25" s="26"/>
-      <c r="BB25" s="26"/>
-      <c r="BC25" s="27">
+      <c r="AV25" s="22">
+        <v>1978</v>
+      </c>
+      <c r="AW25" s="22">
+        <v>849</v>
+      </c>
+      <c r="AX25" s="22">
+        <v>1210</v>
+      </c>
+      <c r="AY25" s="22">
+        <v>694</v>
+      </c>
+      <c r="AZ25" s="22">
+        <v>748</v>
+      </c>
+      <c r="BA25" s="22">
+        <v>4706</v>
+      </c>
+      <c r="BB25" s="22">
+        <v>690</v>
+      </c>
+      <c r="BC25" s="19">
         <f t="shared" si="4"/>
-        <v>970.66666666666663</v>
+        <v>1378.7</v>
       </c>
     </row>
-    <row r="26" spans="1:55" ht="16" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:55" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="16">
         <v>154</v>
       </c>
@@ -24872,7 +25124,7 @@
       <c r="AE26" s="21">
         <v>966</v>
       </c>
-      <c r="AF26" s="23">
+      <c r="AF26" s="21">
         <v>233</v>
       </c>
       <c r="AG26" s="19">
@@ -24913,28 +25165,42 @@
         <f t="shared" si="0"/>
         <v>742.7</v>
       </c>
-      <c r="AS26" s="24">
+      <c r="AS26" s="22">
         <v>1253</v>
       </c>
-      <c r="AT26" s="24">
+      <c r="AT26" s="22">
         <v>232</v>
       </c>
-      <c r="AU26" s="25">
+      <c r="AU26" s="22">
         <v>808</v>
       </c>
-      <c r="AV26" s="26"/>
-      <c r="AW26" s="26"/>
-      <c r="AX26" s="26"/>
-      <c r="AY26" s="26"/>
-      <c r="AZ26" s="26"/>
-      <c r="BA26" s="26"/>
-      <c r="BB26" s="26"/>
-      <c r="BC26" s="27">
+      <c r="AV26" s="22">
+        <v>1204</v>
+      </c>
+      <c r="AW26" s="22">
+        <v>1016</v>
+      </c>
+      <c r="AX26" s="22">
+        <v>1066</v>
+      </c>
+      <c r="AY26" s="22">
+        <v>440</v>
+      </c>
+      <c r="AZ26" s="22">
+        <v>1758</v>
+      </c>
+      <c r="BA26" s="22">
+        <v>4698</v>
+      </c>
+      <c r="BB26" s="22">
+        <v>963</v>
+      </c>
+      <c r="BC26" s="19">
         <f t="shared" si="4"/>
-        <v>764.33333333333337</v>
+        <v>1343.8</v>
       </c>
     </row>
-    <row r="27" spans="1:55" ht="16" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:55" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="16">
         <v>155</v>
       </c>
@@ -25030,7 +25296,7 @@
       <c r="AE27" s="21">
         <v>627</v>
       </c>
-      <c r="AF27" s="23">
+      <c r="AF27" s="21">
         <v>232</v>
       </c>
       <c r="AG27" s="19">
@@ -25071,28 +25337,42 @@
         <f t="shared" si="0"/>
         <v>839.9</v>
       </c>
-      <c r="AS27" s="24">
+      <c r="AS27" s="22">
         <v>1829</v>
       </c>
-      <c r="AT27" s="24">
+      <c r="AT27" s="22">
         <v>231</v>
       </c>
-      <c r="AU27" s="25">
+      <c r="AU27" s="22">
         <v>1297</v>
       </c>
-      <c r="AV27" s="26"/>
-      <c r="AW27" s="26"/>
-      <c r="AX27" s="26"/>
-      <c r="AY27" s="26"/>
-      <c r="AZ27" s="26"/>
-      <c r="BA27" s="26"/>
-      <c r="BB27" s="26"/>
-      <c r="BC27" s="27">
+      <c r="AV27" s="22">
+        <v>1943</v>
+      </c>
+      <c r="AW27" s="22">
+        <v>966</v>
+      </c>
+      <c r="AX27" s="22">
+        <v>911</v>
+      </c>
+      <c r="AY27" s="22">
+        <v>1119</v>
+      </c>
+      <c r="AZ27" s="22">
+        <v>631</v>
+      </c>
+      <c r="BA27" s="22">
+        <v>4753</v>
+      </c>
+      <c r="BB27" s="22">
+        <v>965</v>
+      </c>
+      <c r="BC27" s="19">
         <f t="shared" si="4"/>
-        <v>1119</v>
+        <v>1464.5</v>
       </c>
     </row>
-    <row r="28" spans="1:55" ht="16" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:55" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="16">
         <v>159</v>
       </c>
@@ -25188,7 +25468,7 @@
       <c r="AE28" s="21">
         <v>688</v>
       </c>
-      <c r="AF28" s="23">
+      <c r="AF28" s="21">
         <v>232</v>
       </c>
       <c r="AG28" s="19">
@@ -25229,28 +25509,42 @@
         <f t="shared" si="0"/>
         <v>727.4</v>
       </c>
-      <c r="AS28" s="24">
+      <c r="AS28" s="22">
         <v>1630</v>
       </c>
-      <c r="AT28" s="24">
+      <c r="AT28" s="22">
         <v>151</v>
       </c>
-      <c r="AU28" s="25">
+      <c r="AU28" s="22">
         <v>232</v>
       </c>
-      <c r="AV28" s="26"/>
-      <c r="AW28" s="26"/>
-      <c r="AX28" s="26"/>
-      <c r="AY28" s="26"/>
-      <c r="AZ28" s="26"/>
-      <c r="BA28" s="26"/>
-      <c r="BB28" s="26"/>
-      <c r="BC28" s="27">
+      <c r="AV28" s="22">
+        <v>4643</v>
+      </c>
+      <c r="AW28" s="22">
+        <v>1018</v>
+      </c>
+      <c r="AX28" s="22">
+        <v>913</v>
+      </c>
+      <c r="AY28" s="22">
+        <v>1520</v>
+      </c>
+      <c r="AZ28" s="22">
+        <v>1013</v>
+      </c>
+      <c r="BA28" s="22">
+        <v>4736</v>
+      </c>
+      <c r="BB28" s="22">
+        <v>803</v>
+      </c>
+      <c r="BC28" s="19">
         <f t="shared" si="4"/>
-        <v>671</v>
+        <v>1665.9</v>
       </c>
     </row>
-    <row r="29" spans="1:55" ht="16" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:55" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="16">
         <v>157</v>
       </c>
@@ -25346,7 +25640,7 @@
       <c r="AE29" s="21">
         <v>1009</v>
       </c>
-      <c r="AF29" s="23">
+      <c r="AF29" s="21">
         <v>152</v>
       </c>
       <c r="AG29" s="19">
@@ -25387,28 +25681,42 @@
         <f t="shared" si="0"/>
         <v>707.8</v>
       </c>
-      <c r="AS29" s="24">
+      <c r="AS29" s="22">
         <v>1779</v>
       </c>
-      <c r="AT29" s="24">
+      <c r="AT29" s="22">
         <v>231</v>
       </c>
-      <c r="AU29" s="25">
+      <c r="AU29" s="22">
         <v>800</v>
       </c>
-      <c r="AV29" s="26"/>
-      <c r="AW29" s="26"/>
-      <c r="AX29" s="26"/>
-      <c r="AY29" s="26"/>
-      <c r="AZ29" s="26"/>
-      <c r="BA29" s="26"/>
-      <c r="BB29" s="26"/>
-      <c r="BC29" s="27">
+      <c r="AV29" s="22">
+        <v>4626</v>
+      </c>
+      <c r="AW29" s="22">
+        <v>4517</v>
+      </c>
+      <c r="AX29" s="22">
+        <v>1013</v>
+      </c>
+      <c r="AY29" s="22">
+        <v>232</v>
+      </c>
+      <c r="AZ29" s="22">
+        <v>750</v>
+      </c>
+      <c r="BA29" s="22">
+        <v>4766</v>
+      </c>
+      <c r="BB29" s="22">
+        <v>911</v>
+      </c>
+      <c r="BC29" s="19">
         <f t="shared" si="4"/>
-        <v>936.66666666666663</v>
+        <v>1962.5</v>
       </c>
     </row>
-    <row r="30" spans="1:55" ht="16" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:55" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" s="16">
         <v>154</v>
       </c>
@@ -25504,7 +25812,7 @@
       <c r="AE30" s="21">
         <v>1068</v>
       </c>
-      <c r="AF30" s="23">
+      <c r="AF30" s="21">
         <v>231</v>
       </c>
       <c r="AG30" s="19">
@@ -25545,28 +25853,42 @@
         <f t="shared" si="0"/>
         <v>713.6</v>
       </c>
-      <c r="AS30" s="24">
+      <c r="AS30" s="22">
         <v>1762</v>
       </c>
-      <c r="AT30" s="24">
+      <c r="AT30" s="22">
         <v>232</v>
       </c>
-      <c r="AU30" s="25">
+      <c r="AU30" s="22">
         <v>910</v>
       </c>
-      <c r="AV30" s="26"/>
-      <c r="AW30" s="26"/>
-      <c r="AX30" s="26"/>
-      <c r="AY30" s="26"/>
-      <c r="AZ30" s="26"/>
-      <c r="BA30" s="26"/>
-      <c r="BB30" s="26"/>
-      <c r="BC30" s="27">
+      <c r="AV30" s="22">
+        <v>4682</v>
+      </c>
+      <c r="AW30" s="22">
+        <v>4476</v>
+      </c>
+      <c r="AX30" s="22">
+        <v>961</v>
+      </c>
+      <c r="AY30" s="22">
+        <v>1010</v>
+      </c>
+      <c r="AZ30" s="22">
+        <v>1011</v>
+      </c>
+      <c r="BA30" s="22">
+        <v>4752</v>
+      </c>
+      <c r="BB30" s="22">
+        <v>1066</v>
+      </c>
+      <c r="BC30" s="19">
         <f t="shared" si="4"/>
-        <v>968</v>
+        <v>2086.1999999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:55" ht="16" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:55" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="16">
         <v>156</v>
       </c>
@@ -25662,7 +25984,7 @@
       <c r="AE31" s="21">
         <v>910</v>
       </c>
-      <c r="AF31" s="23">
+      <c r="AF31" s="21">
         <v>230</v>
       </c>
       <c r="AG31" s="19">
@@ -25703,28 +26025,42 @@
         <f t="shared" si="0"/>
         <v>766.9</v>
       </c>
-      <c r="AS31" s="24">
+      <c r="AS31" s="22">
         <v>1944</v>
       </c>
-      <c r="AT31" s="24">
+      <c r="AT31" s="22">
         <v>151</v>
       </c>
-      <c r="AU31" s="25">
+      <c r="AU31" s="22">
         <v>807</v>
       </c>
-      <c r="AV31" s="26"/>
-      <c r="AW31" s="26"/>
-      <c r="AX31" s="26"/>
-      <c r="AY31" s="26"/>
-      <c r="AZ31" s="26"/>
-      <c r="BA31" s="26"/>
-      <c r="BB31" s="26"/>
-      <c r="BC31" s="27">
+      <c r="AV31" s="22">
+        <v>4631</v>
+      </c>
+      <c r="AW31" s="22">
+        <v>4539</v>
+      </c>
+      <c r="AX31" s="22">
+        <v>1021</v>
+      </c>
+      <c r="AY31" s="22">
+        <v>441</v>
+      </c>
+      <c r="AZ31" s="22">
+        <v>1545</v>
+      </c>
+      <c r="BA31" s="22">
+        <v>4710</v>
+      </c>
+      <c r="BB31" s="22">
+        <v>858</v>
+      </c>
+      <c r="BC31" s="19">
         <f t="shared" si="4"/>
-        <v>967.33333333333337</v>
+        <v>2064.6999999999998</v>
       </c>
     </row>
-    <row r="32" spans="1:55" ht="16" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:55" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" s="16">
         <v>154</v>
       </c>
@@ -25820,7 +26156,7 @@
       <c r="AE32" s="21">
         <v>917</v>
       </c>
-      <c r="AF32" s="23">
+      <c r="AF32" s="21">
         <v>150</v>
       </c>
       <c r="AG32" s="19">
@@ -25861,28 +26197,42 @@
         <f t="shared" si="0"/>
         <v>850.9</v>
       </c>
-      <c r="AS32" s="24">
+      <c r="AS32" s="22">
         <v>1834</v>
       </c>
-      <c r="AT32" s="24">
+      <c r="AT32" s="22">
         <v>150</v>
       </c>
-      <c r="AU32" s="25">
+      <c r="AU32" s="22">
         <v>809</v>
       </c>
-      <c r="AV32" s="26"/>
-      <c r="AW32" s="26"/>
-      <c r="AX32" s="26"/>
-      <c r="AY32" s="26"/>
-      <c r="AZ32" s="26"/>
-      <c r="BA32" s="26"/>
-      <c r="BB32" s="26"/>
-      <c r="BC32" s="27">
+      <c r="AV32" s="22">
+        <v>4650</v>
+      </c>
+      <c r="AW32" s="22">
+        <v>4627</v>
+      </c>
+      <c r="AX32" s="22">
+        <v>967</v>
+      </c>
+      <c r="AY32" s="22">
+        <v>633</v>
+      </c>
+      <c r="AZ32" s="22">
+        <v>231</v>
+      </c>
+      <c r="BA32" s="22">
+        <v>4754</v>
+      </c>
+      <c r="BB32" s="22">
+        <v>910</v>
+      </c>
+      <c r="BC32" s="19">
         <f t="shared" si="4"/>
-        <v>931</v>
+        <v>1956.5</v>
       </c>
     </row>
-    <row r="33" spans="1:55" ht="16" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:55" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A33" s="16">
         <v>155</v>
       </c>
@@ -25978,7 +26328,7 @@
       <c r="AE33" s="21">
         <v>907</v>
       </c>
-      <c r="AF33" s="23">
+      <c r="AF33" s="21">
         <v>231</v>
       </c>
       <c r="AG33" s="19">
@@ -26019,28 +26369,42 @@
         <f t="shared" si="0"/>
         <v>775.8</v>
       </c>
-      <c r="AS33" s="24">
+      <c r="AS33" s="22">
         <v>4439</v>
       </c>
-      <c r="AT33" s="24">
+      <c r="AT33" s="22">
         <v>231</v>
       </c>
-      <c r="AU33" s="25">
+      <c r="AU33" s="22">
         <v>688</v>
       </c>
-      <c r="AV33" s="26"/>
-      <c r="AW33" s="26"/>
-      <c r="AX33" s="26"/>
-      <c r="AY33" s="26"/>
-      <c r="AZ33" s="26"/>
-      <c r="BA33" s="26"/>
-      <c r="BB33" s="26"/>
-      <c r="BC33" s="27">
+      <c r="AV33" s="22">
+        <v>4674</v>
+      </c>
+      <c r="AW33" s="22">
+        <v>4591</v>
+      </c>
+      <c r="AX33" s="22">
+        <v>1020</v>
+      </c>
+      <c r="AY33" s="22">
+        <v>912</v>
+      </c>
+      <c r="AZ33" s="22">
+        <v>442</v>
+      </c>
+      <c r="BA33" s="22">
+        <v>4810</v>
+      </c>
+      <c r="BB33" s="22">
+        <v>964</v>
+      </c>
+      <c r="BC33" s="19">
         <f t="shared" si="4"/>
-        <v>1786</v>
+        <v>2277.1</v>
       </c>
     </row>
-    <row r="34" spans="1:55" ht="16" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:55" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A34" s="16">
         <v>153</v>
       </c>
@@ -26136,7 +26500,7 @@
       <c r="AE34" s="21">
         <v>914</v>
       </c>
-      <c r="AF34" s="23">
+      <c r="AF34" s="21">
         <v>232</v>
       </c>
       <c r="AG34" s="19">
@@ -26177,28 +26541,42 @@
         <f t="shared" si="0"/>
         <v>702</v>
       </c>
-      <c r="AS34" s="24">
+      <c r="AS34" s="22">
         <v>3987</v>
       </c>
-      <c r="AT34" s="24">
+      <c r="AT34" s="22">
         <v>233</v>
       </c>
-      <c r="AU34" s="25">
+      <c r="AU34" s="22">
         <v>1062</v>
       </c>
-      <c r="AV34" s="26"/>
-      <c r="AW34" s="26"/>
-      <c r="AX34" s="26"/>
-      <c r="AY34" s="26"/>
-      <c r="AZ34" s="26"/>
-      <c r="BA34" s="26"/>
-      <c r="BB34" s="26"/>
-      <c r="BC34" s="27">
+      <c r="AV34" s="22">
+        <v>4610</v>
+      </c>
+      <c r="AW34" s="22">
+        <v>4443</v>
+      </c>
+      <c r="AX34" s="22">
+        <v>1012</v>
+      </c>
+      <c r="AY34" s="22">
+        <v>1017</v>
+      </c>
+      <c r="AZ34" s="22">
+        <v>306</v>
+      </c>
+      <c r="BA34" s="22">
+        <v>4667</v>
+      </c>
+      <c r="BB34" s="22">
+        <v>910</v>
+      </c>
+      <c r="BC34" s="19">
         <f t="shared" si="4"/>
-        <v>1760.6666666666667</v>
+        <v>2224.6999999999998</v>
       </c>
     </row>
-    <row r="35" spans="1:55" ht="16" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:55" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A35" s="16">
         <v>155</v>
       </c>
@@ -26294,7 +26672,7 @@
       <c r="AE35" s="21">
         <v>695</v>
       </c>
-      <c r="AF35" s="23">
+      <c r="AF35" s="21">
         <v>234</v>
       </c>
       <c r="AG35" s="19">
@@ -26335,28 +26713,42 @@
         <f t="shared" si="0"/>
         <v>860.3</v>
       </c>
-      <c r="AS35" s="24">
+      <c r="AS35" s="22">
         <v>3412</v>
       </c>
-      <c r="AT35" s="24">
+      <c r="AT35" s="22">
         <v>233</v>
       </c>
-      <c r="AU35" s="25">
+      <c r="AU35" s="22">
         <v>298</v>
       </c>
-      <c r="AV35" s="26"/>
-      <c r="AW35" s="26"/>
-      <c r="AX35" s="26"/>
-      <c r="AY35" s="26"/>
-      <c r="AZ35" s="26"/>
-      <c r="BA35" s="26"/>
-      <c r="BB35" s="26"/>
-      <c r="BC35" s="27">
+      <c r="AV35" s="22">
+        <v>4584</v>
+      </c>
+      <c r="AW35" s="22">
+        <v>4595</v>
+      </c>
+      <c r="AX35" s="22">
+        <v>911</v>
+      </c>
+      <c r="AY35" s="22">
+        <v>912</v>
+      </c>
+      <c r="AZ35" s="22">
+        <v>225</v>
+      </c>
+      <c r="BA35" s="22">
+        <v>4727</v>
+      </c>
+      <c r="BB35" s="22">
+        <v>909</v>
+      </c>
+      <c r="BC35" s="19">
         <f t="shared" si="4"/>
-        <v>1314.3333333333333</v>
+        <v>2080.6</v>
       </c>
     </row>
-    <row r="36" spans="1:55" ht="16" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:55" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A36" s="16">
         <v>154</v>
       </c>
@@ -26452,7 +26844,7 @@
       <c r="AE36" s="21">
         <v>753</v>
       </c>
-      <c r="AF36" s="23">
+      <c r="AF36" s="21">
         <v>231</v>
       </c>
       <c r="AG36" s="19">
@@ -26493,28 +26885,42 @@
         <f t="shared" si="0"/>
         <v>799.7</v>
       </c>
-      <c r="AS36" s="24">
+      <c r="AS36" s="22">
         <v>4585</v>
       </c>
-      <c r="AT36" s="24">
+      <c r="AT36" s="22">
         <v>440</v>
       </c>
-      <c r="AU36" s="25">
+      <c r="AU36" s="22">
         <v>1514</v>
       </c>
-      <c r="AV36" s="26"/>
-      <c r="AW36" s="26"/>
-      <c r="AX36" s="26"/>
-      <c r="AY36" s="26"/>
-      <c r="AZ36" s="26"/>
-      <c r="BA36" s="26"/>
-      <c r="BB36" s="26"/>
-      <c r="BC36" s="27">
+      <c r="AV36" s="22">
+        <v>4648</v>
+      </c>
+      <c r="AW36" s="22">
+        <v>4509</v>
+      </c>
+      <c r="AX36" s="22">
+        <v>1065</v>
+      </c>
+      <c r="AY36" s="22">
+        <v>965</v>
+      </c>
+      <c r="AZ36" s="22">
+        <v>507</v>
+      </c>
+      <c r="BA36" s="22">
+        <v>4776</v>
+      </c>
+      <c r="BB36" s="22">
+        <v>911</v>
+      </c>
+      <c r="BC36" s="19">
         <f t="shared" si="4"/>
-        <v>2179.6666666666665</v>
+        <v>2392</v>
       </c>
     </row>
-    <row r="37" spans="1:55" ht="16" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:55" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A37" s="16">
         <v>153</v>
       </c>
@@ -26610,7 +27016,7 @@
       <c r="AE37" s="21">
         <v>911</v>
       </c>
-      <c r="AF37" s="23">
+      <c r="AF37" s="21">
         <v>235</v>
       </c>
       <c r="AG37" s="19">
@@ -26651,28 +27057,42 @@
         <f t="shared" si="0"/>
         <v>878.5</v>
       </c>
-      <c r="AS37" s="24">
+      <c r="AS37" s="22">
         <v>1942</v>
       </c>
-      <c r="AT37" s="24">
+      <c r="AT37" s="22">
         <v>507</v>
       </c>
-      <c r="AU37" s="25">
+      <c r="AU37" s="22">
         <v>811</v>
       </c>
-      <c r="AV37" s="26"/>
-      <c r="AW37" s="26"/>
-      <c r="AX37" s="26"/>
-      <c r="AY37" s="26"/>
-      <c r="AZ37" s="26"/>
-      <c r="BA37" s="26"/>
-      <c r="BB37" s="26"/>
-      <c r="BC37" s="27">
+      <c r="AV37" s="22">
+        <v>4620</v>
+      </c>
+      <c r="AW37" s="22">
+        <v>4644</v>
+      </c>
+      <c r="AX37" s="22">
+        <v>907</v>
+      </c>
+      <c r="AY37" s="22">
+        <v>909</v>
+      </c>
+      <c r="AZ37" s="22">
+        <v>1011</v>
+      </c>
+      <c r="BA37" s="22">
+        <v>4780</v>
+      </c>
+      <c r="BB37" s="22">
+        <v>749</v>
+      </c>
+      <c r="BC37" s="19">
         <f t="shared" si="4"/>
-        <v>1086.6666666666667</v>
+        <v>2088</v>
       </c>
     </row>
-    <row r="38" spans="1:55" ht="16" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:55" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A38" s="16">
         <v>161</v>
       </c>
@@ -26768,7 +27188,7 @@
       <c r="AE38" s="21">
         <v>568</v>
       </c>
-      <c r="AF38" s="23">
+      <c r="AF38" s="21">
         <v>151</v>
       </c>
       <c r="AG38" s="19">
@@ -26806,31 +27226,45 @@
         <v>913</v>
       </c>
       <c r="AR38" s="19">
-        <f t="shared" ref="AR38:AR69" si="5">AVERAGE(AH38:AQ38)</f>
+        <f t="shared" ref="AR38:AR55" si="5">AVERAGE(AH38:AQ38)</f>
         <v>656.4</v>
       </c>
-      <c r="AS38" s="24">
+      <c r="AS38" s="22">
         <v>1979</v>
       </c>
-      <c r="AT38" s="24">
+      <c r="AT38" s="22">
         <v>566</v>
       </c>
-      <c r="AU38" s="25">
+      <c r="AU38" s="22">
         <v>911</v>
       </c>
-      <c r="AV38" s="26"/>
-      <c r="AW38" s="26"/>
-      <c r="AX38" s="26"/>
-      <c r="AY38" s="26"/>
-      <c r="AZ38" s="26"/>
-      <c r="BA38" s="26"/>
-      <c r="BB38" s="26"/>
-      <c r="BC38" s="27">
+      <c r="AV38" s="22">
+        <v>4609</v>
+      </c>
+      <c r="AW38" s="22">
+        <v>4464</v>
+      </c>
+      <c r="AX38" s="22">
+        <v>691</v>
+      </c>
+      <c r="AY38" s="22">
+        <v>1566</v>
+      </c>
+      <c r="AZ38" s="22">
+        <v>1016</v>
+      </c>
+      <c r="BA38" s="22">
+        <v>4726</v>
+      </c>
+      <c r="BB38" s="22">
+        <v>1160</v>
+      </c>
+      <c r="BC38" s="19">
         <f t="shared" si="4"/>
-        <v>1152</v>
+        <v>2168.8000000000002</v>
       </c>
     </row>
-    <row r="39" spans="1:55" ht="16" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:55" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A39" s="16">
         <v>156</v>
       </c>
@@ -26926,7 +27360,7 @@
       <c r="AE39" s="21">
         <v>1211</v>
       </c>
-      <c r="AF39" s="23">
+      <c r="AF39" s="21">
         <v>234</v>
       </c>
       <c r="AG39" s="19">
@@ -26967,28 +27401,42 @@
         <f t="shared" si="5"/>
         <v>721.6</v>
       </c>
-      <c r="AS39" s="24">
+      <c r="AS39" s="22">
         <v>498</v>
       </c>
-      <c r="AT39" s="24">
+      <c r="AT39" s="22">
         <v>908</v>
       </c>
-      <c r="AU39" s="25">
+      <c r="AU39" s="22">
         <v>968</v>
       </c>
-      <c r="AV39" s="26"/>
-      <c r="AW39" s="26"/>
-      <c r="AX39" s="26"/>
-      <c r="AY39" s="26"/>
-      <c r="AZ39" s="26"/>
-      <c r="BA39" s="26"/>
-      <c r="BB39" s="26"/>
-      <c r="BC39" s="27">
+      <c r="AV39" s="22">
+        <v>4646</v>
+      </c>
+      <c r="AW39" s="22">
+        <v>4449</v>
+      </c>
+      <c r="AX39" s="22">
+        <v>622</v>
+      </c>
+      <c r="AY39" s="22">
+        <v>860</v>
+      </c>
+      <c r="AZ39" s="22">
+        <v>693</v>
+      </c>
+      <c r="BA39" s="22">
+        <v>4774</v>
+      </c>
+      <c r="BB39" s="22">
+        <v>964</v>
+      </c>
+      <c r="BC39" s="19">
         <f t="shared" si="4"/>
-        <v>791.33333333333337</v>
+        <v>1938.2</v>
       </c>
     </row>
-    <row r="40" spans="1:55" ht="16" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:55" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A40" s="16">
         <v>234</v>
       </c>
@@ -27084,7 +27532,7 @@
       <c r="AE40" s="21">
         <v>794</v>
       </c>
-      <c r="AF40" s="23">
+      <c r="AF40" s="21">
         <v>232</v>
       </c>
       <c r="AG40" s="19">
@@ -27125,28 +27573,42 @@
         <f t="shared" si="5"/>
         <v>781.8</v>
       </c>
-      <c r="AS40" s="24">
+      <c r="AS40" s="22">
         <v>689</v>
       </c>
-      <c r="AT40" s="24">
+      <c r="AT40" s="22">
         <v>566</v>
       </c>
-      <c r="AU40" s="25">
+      <c r="AU40" s="22">
         <v>1206</v>
       </c>
-      <c r="AV40" s="26"/>
-      <c r="AW40" s="26"/>
-      <c r="AX40" s="26"/>
-      <c r="AY40" s="26"/>
-      <c r="AZ40" s="26"/>
-      <c r="BA40" s="26"/>
-      <c r="BB40" s="26"/>
-      <c r="BC40" s="27">
+      <c r="AV40" s="22">
+        <v>4620</v>
+      </c>
+      <c r="AW40" s="22">
+        <v>4428</v>
+      </c>
+      <c r="AX40" s="22">
+        <v>957</v>
+      </c>
+      <c r="AY40" s="22">
+        <v>1160</v>
+      </c>
+      <c r="AZ40" s="22">
+        <v>910</v>
+      </c>
+      <c r="BA40" s="22">
+        <v>4683</v>
+      </c>
+      <c r="BB40" s="22">
+        <v>1062</v>
+      </c>
+      <c r="BC40" s="19">
         <f t="shared" si="4"/>
-        <v>820.33333333333337</v>
+        <v>2028.1</v>
       </c>
     </row>
-    <row r="41" spans="1:55" ht="16" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:55" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A41" s="16">
         <v>155</v>
       </c>
@@ -27242,7 +27704,7 @@
       <c r="AE41" s="21">
         <v>1298</v>
       </c>
-      <c r="AF41" s="23">
+      <c r="AF41" s="21">
         <v>232</v>
       </c>
       <c r="AG41" s="19">
@@ -27283,28 +27745,42 @@
         <f t="shared" si="5"/>
         <v>772.9</v>
       </c>
-      <c r="AS41" s="24">
+      <c r="AS41" s="22">
         <v>748</v>
       </c>
-      <c r="AT41" s="24">
+      <c r="AT41" s="22">
         <v>904</v>
       </c>
-      <c r="AU41" s="25">
+      <c r="AU41" s="22">
         <v>1111</v>
       </c>
-      <c r="AV41" s="26"/>
-      <c r="AW41" s="26"/>
-      <c r="AX41" s="26"/>
-      <c r="AY41" s="26"/>
-      <c r="AZ41" s="26"/>
-      <c r="BA41" s="26"/>
-      <c r="BB41" s="26"/>
-      <c r="BC41" s="27">
+      <c r="AV41" s="23">
+        <v>4620</v>
+      </c>
+      <c r="AW41" s="22">
+        <v>4432</v>
+      </c>
+      <c r="AX41" s="22">
+        <v>694</v>
+      </c>
+      <c r="AY41" s="22">
+        <v>960</v>
+      </c>
+      <c r="AZ41" s="22">
+        <v>695</v>
+      </c>
+      <c r="BA41" s="22">
+        <v>4704</v>
+      </c>
+      <c r="BB41" s="22">
+        <v>1211</v>
+      </c>
+      <c r="BC41" s="19">
         <f t="shared" si="4"/>
-        <v>921</v>
+        <v>2007.9</v>
       </c>
     </row>
-    <row r="42" spans="1:55" ht="16" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:55" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A42" s="16">
         <v>158</v>
       </c>
@@ -27400,7 +27876,7 @@
       <c r="AE42" s="21">
         <v>962</v>
       </c>
-      <c r="AF42" s="23">
+      <c r="AF42" s="21">
         <v>232</v>
       </c>
       <c r="AG42" s="19">
@@ -27441,28 +27917,42 @@
         <f t="shared" si="5"/>
         <v>890</v>
       </c>
-      <c r="AS42" s="24">
+      <c r="AS42" s="22">
         <v>686</v>
       </c>
-      <c r="AT42" s="24">
+      <c r="AT42" s="22">
         <v>568</v>
       </c>
-      <c r="AU42" s="25">
+      <c r="AU42" s="22">
         <v>1388</v>
       </c>
-      <c r="AV42" s="26"/>
-      <c r="AW42" s="26"/>
-      <c r="AX42" s="26"/>
-      <c r="AY42" s="26"/>
-      <c r="AZ42" s="26"/>
-      <c r="BA42" s="26"/>
-      <c r="BB42" s="26"/>
-      <c r="BC42" s="27">
+      <c r="AV42" s="23">
+        <v>4678</v>
+      </c>
+      <c r="AW42" s="22">
+        <v>4476</v>
+      </c>
+      <c r="AX42" s="22">
+        <v>911</v>
+      </c>
+      <c r="AY42" s="22">
+        <v>1016</v>
+      </c>
+      <c r="AZ42" s="22">
+        <v>1014</v>
+      </c>
+      <c r="BA42" s="22">
+        <v>4774</v>
+      </c>
+      <c r="BB42" s="22">
+        <v>962</v>
+      </c>
+      <c r="BC42" s="19">
         <f t="shared" si="4"/>
-        <v>880.66666666666663</v>
+        <v>2047.3</v>
       </c>
     </row>
-    <row r="43" spans="1:55" ht="16" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:55" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="16">
         <v>154</v>
       </c>
@@ -27558,7 +28048,7 @@
       <c r="AE43" s="21">
         <v>962</v>
       </c>
-      <c r="AF43" s="23">
+      <c r="AF43" s="21">
         <v>233</v>
       </c>
       <c r="AG43" s="19">
@@ -27599,28 +28089,42 @@
         <f t="shared" si="5"/>
         <v>775.3</v>
       </c>
-      <c r="AS43" s="24">
+      <c r="AS43" s="22">
         <v>507</v>
       </c>
-      <c r="AT43" s="24">
+      <c r="AT43" s="22">
         <v>1010</v>
       </c>
-      <c r="AU43" s="25">
+      <c r="AU43" s="22">
         <v>806</v>
       </c>
-      <c r="AV43" s="26"/>
-      <c r="AW43" s="26"/>
-      <c r="AX43" s="26"/>
-      <c r="AY43" s="26"/>
-      <c r="AZ43" s="26"/>
-      <c r="BA43" s="26"/>
-      <c r="BB43" s="26"/>
-      <c r="BC43" s="27">
+      <c r="AV43" s="23">
+        <v>4653</v>
+      </c>
+      <c r="AW43" s="22">
+        <v>4480</v>
+      </c>
+      <c r="AX43" s="22">
+        <v>689</v>
+      </c>
+      <c r="AY43" s="22">
+        <v>1424</v>
+      </c>
+      <c r="AZ43" s="22">
+        <v>857</v>
+      </c>
+      <c r="BA43" s="22">
+        <v>4740</v>
+      </c>
+      <c r="BB43" s="22">
+        <v>797</v>
+      </c>
+      <c r="BC43" s="19">
         <f t="shared" si="4"/>
-        <v>774.33333333333337</v>
+        <v>1996.3</v>
       </c>
     </row>
-    <row r="44" spans="1:55" ht="16" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:55" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A44" s="16">
         <v>225</v>
       </c>
@@ -27716,7 +28220,7 @@
       <c r="AE44" s="21">
         <v>1065</v>
       </c>
-      <c r="AF44" s="23">
+      <c r="AF44" s="21">
         <v>231</v>
       </c>
       <c r="AG44" s="19">
@@ -27757,28 +28261,42 @@
         <f t="shared" si="5"/>
         <v>751.8</v>
       </c>
-      <c r="AS44" s="24">
+      <c r="AS44" s="22">
         <v>690</v>
       </c>
-      <c r="AT44" s="24">
+      <c r="AT44" s="22">
         <v>1012</v>
       </c>
-      <c r="AU44" s="25">
+      <c r="AU44" s="22">
         <v>960</v>
       </c>
-      <c r="AV44" s="26"/>
-      <c r="AW44" s="26"/>
-      <c r="AX44" s="26"/>
-      <c r="AY44" s="26"/>
-      <c r="AZ44" s="26"/>
-      <c r="BA44" s="26"/>
-      <c r="BB44" s="26"/>
-      <c r="BC44" s="27">
+      <c r="AV44" s="23">
+        <v>4621</v>
+      </c>
+      <c r="AW44" s="22">
+        <v>4652</v>
+      </c>
+      <c r="AX44" s="22">
+        <v>911</v>
+      </c>
+      <c r="AY44" s="22">
+        <v>910</v>
+      </c>
+      <c r="AZ44" s="22">
+        <v>798</v>
+      </c>
+      <c r="BA44" s="22">
+        <v>4742</v>
+      </c>
+      <c r="BB44" s="22">
+        <v>745</v>
+      </c>
+      <c r="BC44" s="19">
         <f t="shared" si="4"/>
-        <v>887.33333333333337</v>
+        <v>2004.1</v>
       </c>
     </row>
-    <row r="45" spans="1:55" ht="16" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:55" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A45" s="16">
         <v>153</v>
       </c>
@@ -27874,7 +28392,7 @@
       <c r="AE45" s="21">
         <v>1013</v>
       </c>
-      <c r="AF45" s="23">
+      <c r="AF45" s="21">
         <v>233</v>
       </c>
       <c r="AG45" s="19">
@@ -27915,28 +28433,42 @@
         <f t="shared" si="5"/>
         <v>731.8</v>
       </c>
-      <c r="AS45" s="24">
+      <c r="AS45" s="22">
         <v>571</v>
       </c>
-      <c r="AT45" s="24">
+      <c r="AT45" s="22">
         <v>1055</v>
       </c>
-      <c r="AU45" s="25">
+      <c r="AU45" s="22">
         <v>1019</v>
       </c>
-      <c r="AV45" s="26"/>
-      <c r="AW45" s="26"/>
-      <c r="AX45" s="26"/>
-      <c r="AY45" s="26"/>
-      <c r="AZ45" s="26"/>
-      <c r="BA45" s="26"/>
-      <c r="BB45" s="26"/>
-      <c r="BC45" s="27">
+      <c r="AV45" s="23">
+        <v>4611</v>
+      </c>
+      <c r="AW45" s="22">
+        <v>4564</v>
+      </c>
+      <c r="AX45" s="22">
+        <v>909</v>
+      </c>
+      <c r="AY45" s="22">
+        <v>1009</v>
+      </c>
+      <c r="AZ45" s="22">
+        <v>1254</v>
+      </c>
+      <c r="BA45" s="22">
+        <v>4746</v>
+      </c>
+      <c r="BB45" s="22">
+        <v>856</v>
+      </c>
+      <c r="BC45" s="19">
         <f t="shared" si="4"/>
-        <v>881.66666666666663</v>
+        <v>2059.4</v>
       </c>
     </row>
-    <row r="46" spans="1:55" ht="16" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:55" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A46" s="16">
         <v>158</v>
       </c>
@@ -28032,7 +28564,7 @@
       <c r="AE46" s="21">
         <v>1016</v>
       </c>
-      <c r="AF46" s="23">
+      <c r="AF46" s="21">
         <v>231</v>
       </c>
       <c r="AG46" s="19">
@@ -28073,28 +28605,42 @@
         <f t="shared" si="5"/>
         <v>810.2</v>
       </c>
-      <c r="AS46" s="24">
+      <c r="AS46" s="22">
         <v>625</v>
       </c>
-      <c r="AT46" s="24">
+      <c r="AT46" s="22">
         <v>1020</v>
       </c>
-      <c r="AU46" s="25">
+      <c r="AU46" s="22">
         <v>914</v>
       </c>
-      <c r="AV46" s="26"/>
-      <c r="AW46" s="26"/>
-      <c r="AX46" s="26"/>
-      <c r="AY46" s="26"/>
-      <c r="AZ46" s="26"/>
-      <c r="BA46" s="26"/>
-      <c r="BB46" s="26"/>
-      <c r="BC46" s="27">
+      <c r="AV46" s="23">
+        <v>4640</v>
+      </c>
+      <c r="AW46" s="22">
+        <v>4585</v>
+      </c>
+      <c r="AX46" s="22">
+        <v>967</v>
+      </c>
+      <c r="AY46" s="22">
+        <v>1117</v>
+      </c>
+      <c r="AZ46" s="22">
+        <v>1109</v>
+      </c>
+      <c r="BA46" s="22">
+        <v>4750</v>
+      </c>
+      <c r="BB46" s="22">
+        <v>690</v>
+      </c>
+      <c r="BC46" s="19">
         <f t="shared" si="4"/>
-        <v>853</v>
+        <v>2041.7</v>
       </c>
     </row>
-    <row r="47" spans="1:55" ht="16" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:55" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A47" s="16">
         <v>154</v>
       </c>
@@ -28190,7 +28736,7 @@
       <c r="AE47" s="21">
         <v>906</v>
       </c>
-      <c r="AF47" s="23">
+      <c r="AF47" s="21">
         <v>232</v>
       </c>
       <c r="AG47" s="19">
@@ -28231,28 +28777,42 @@
         <f t="shared" si="5"/>
         <v>679.5</v>
       </c>
-      <c r="AS47" s="24">
+      <c r="AS47" s="22">
         <v>626</v>
       </c>
-      <c r="AT47" s="24">
+      <c r="AT47" s="22">
         <v>1159</v>
       </c>
-      <c r="AU47" s="25">
+      <c r="AU47" s="22">
         <v>1012</v>
       </c>
-      <c r="AV47" s="26"/>
-      <c r="AW47" s="26"/>
-      <c r="AX47" s="26"/>
-      <c r="AY47" s="26"/>
-      <c r="AZ47" s="26"/>
-      <c r="BA47" s="26"/>
-      <c r="BB47" s="26"/>
-      <c r="BC47" s="27">
+      <c r="AV47" s="23">
+        <v>4610</v>
+      </c>
+      <c r="AW47" s="22">
+        <v>4580</v>
+      </c>
+      <c r="AX47" s="22">
+        <v>1067</v>
+      </c>
+      <c r="AY47" s="22">
+        <v>622</v>
+      </c>
+      <c r="AZ47" s="22">
+        <v>1069</v>
+      </c>
+      <c r="BA47" s="22">
+        <v>4781</v>
+      </c>
+      <c r="BB47" s="22">
+        <v>691</v>
+      </c>
+      <c r="BC47" s="19">
         <f t="shared" si="4"/>
-        <v>932.33333333333337</v>
+        <v>2021.7</v>
       </c>
     </row>
-    <row r="48" spans="1:55" ht="16" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:55" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A48" s="16">
         <v>161</v>
       </c>
@@ -28348,7 +28908,7 @@
       <c r="AE48" s="21">
         <v>1211</v>
       </c>
-      <c r="AF48" s="23">
+      <c r="AF48" s="21">
         <v>231</v>
       </c>
       <c r="AG48" s="19">
@@ -28389,28 +28949,42 @@
         <f t="shared" si="5"/>
         <v>770.5</v>
       </c>
-      <c r="AS48" s="24">
+      <c r="AS48" s="22">
         <v>1015</v>
       </c>
-      <c r="AT48" s="24">
+      <c r="AT48" s="22">
         <v>1013</v>
       </c>
-      <c r="AU48" s="25">
+      <c r="AU48" s="22">
         <v>916</v>
       </c>
-      <c r="AV48" s="26"/>
-      <c r="AW48" s="26"/>
-      <c r="AX48" s="26"/>
-      <c r="AY48" s="26"/>
-      <c r="AZ48" s="26"/>
-      <c r="BA48" s="26"/>
-      <c r="BB48" s="26"/>
-      <c r="BC48" s="27">
+      <c r="AV48" s="23">
+        <v>4612</v>
+      </c>
+      <c r="AW48" s="22">
+        <v>4638</v>
+      </c>
+      <c r="AX48" s="22">
+        <v>1112</v>
+      </c>
+      <c r="AY48" s="22">
+        <v>858</v>
+      </c>
+      <c r="AZ48" s="22">
+        <v>1068</v>
+      </c>
+      <c r="BA48" s="22">
+        <v>4797</v>
+      </c>
+      <c r="BB48" s="22">
+        <v>686</v>
+      </c>
+      <c r="BC48" s="19">
         <f t="shared" si="4"/>
-        <v>981.33333333333337</v>
+        <v>2071.5</v>
       </c>
     </row>
-    <row r="49" spans="1:55" ht="16" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:55" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A49" s="16">
         <v>225</v>
       </c>
@@ -28506,7 +29080,7 @@
       <c r="AE49" s="21">
         <v>807</v>
       </c>
-      <c r="AF49" s="23">
+      <c r="AF49" s="21">
         <v>231</v>
       </c>
       <c r="AG49" s="19">
@@ -28547,28 +29121,42 @@
         <f t="shared" si="5"/>
         <v>927.9</v>
       </c>
-      <c r="AS49" s="24">
+      <c r="AS49" s="22">
         <v>503</v>
       </c>
-      <c r="AT49" s="24">
+      <c r="AT49" s="22">
         <v>752</v>
       </c>
-      <c r="AU49" s="25">
+      <c r="AU49" s="22">
         <v>960</v>
       </c>
-      <c r="AV49" s="26"/>
-      <c r="AW49" s="26"/>
-      <c r="AX49" s="26"/>
-      <c r="AY49" s="26"/>
-      <c r="AZ49" s="26"/>
-      <c r="BA49" s="26"/>
-      <c r="BB49" s="26"/>
-      <c r="BC49" s="27">
+      <c r="AV49" s="23">
+        <v>4620</v>
+      </c>
+      <c r="AW49" s="22">
+        <v>4460</v>
+      </c>
+      <c r="AX49" s="22">
+        <v>1065</v>
+      </c>
+      <c r="AY49" s="22">
+        <v>854</v>
+      </c>
+      <c r="AZ49" s="22">
+        <v>1600</v>
+      </c>
+      <c r="BA49" s="22">
+        <v>4781</v>
+      </c>
+      <c r="BB49" s="22">
+        <v>629</v>
+      </c>
+      <c r="BC49" s="19">
         <f t="shared" si="4"/>
-        <v>738.33333333333337</v>
+        <v>2022.4</v>
       </c>
     </row>
-    <row r="50" spans="1:55" ht="16" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:55" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A50" s="16">
         <v>153</v>
       </c>
@@ -28664,7 +29252,7 @@
       <c r="AE50" s="21">
         <v>1014</v>
       </c>
-      <c r="AF50" s="23">
+      <c r="AF50" s="21">
         <v>150</v>
       </c>
       <c r="AG50" s="19">
@@ -28705,28 +29293,42 @@
         <f t="shared" si="5"/>
         <v>756.7</v>
       </c>
-      <c r="AS50" s="24">
+      <c r="AS50" s="22">
         <v>745</v>
       </c>
-      <c r="AT50" s="24">
+      <c r="AT50" s="22">
         <v>1005</v>
       </c>
-      <c r="AU50" s="25">
+      <c r="AU50" s="22">
         <v>1116</v>
       </c>
-      <c r="AV50" s="26"/>
-      <c r="AW50" s="26"/>
-      <c r="AX50" s="26"/>
-      <c r="AY50" s="26"/>
-      <c r="AZ50" s="26"/>
-      <c r="BA50" s="26"/>
-      <c r="BB50" s="26"/>
-      <c r="BC50" s="27">
+      <c r="AV50" s="23">
+        <v>4628</v>
+      </c>
+      <c r="AW50" s="22">
+        <v>4643</v>
+      </c>
+      <c r="AX50" s="22">
+        <v>958</v>
+      </c>
+      <c r="AY50" s="22">
+        <v>908</v>
+      </c>
+      <c r="AZ50" s="22">
+        <v>1057</v>
+      </c>
+      <c r="BA50" s="22">
+        <v>4744</v>
+      </c>
+      <c r="BB50" s="22">
+        <v>748</v>
+      </c>
+      <c r="BC50" s="19">
         <f t="shared" si="4"/>
-        <v>955.33333333333337</v>
+        <v>2055.1999999999998</v>
       </c>
     </row>
-    <row r="51" spans="1:55" ht="16" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:55" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A51" s="16">
         <v>153</v>
       </c>
@@ -28822,7 +29424,7 @@
       <c r="AE51" s="21">
         <v>1301</v>
       </c>
-      <c r="AF51" s="23">
+      <c r="AF51" s="21">
         <v>152</v>
       </c>
       <c r="AG51" s="19">
@@ -28863,28 +29465,42 @@
         <f t="shared" si="5"/>
         <v>778.4</v>
       </c>
-      <c r="AS51" s="24">
+      <c r="AS51" s="22">
         <v>692</v>
       </c>
-      <c r="AT51" s="24">
+      <c r="AT51" s="22">
         <v>690</v>
       </c>
-      <c r="AU51" s="25">
+      <c r="AU51" s="22">
         <v>915</v>
       </c>
-      <c r="AV51" s="26"/>
-      <c r="AW51" s="26"/>
-      <c r="AX51" s="26"/>
-      <c r="AY51" s="26"/>
-      <c r="AZ51" s="26"/>
-      <c r="BA51" s="26"/>
-      <c r="BB51" s="26"/>
-      <c r="BC51" s="27">
+      <c r="AV51" s="23">
+        <v>4646</v>
+      </c>
+      <c r="AW51" s="22">
+        <v>4605</v>
+      </c>
+      <c r="AX51" s="22">
+        <v>1012</v>
+      </c>
+      <c r="AY51" s="22">
+        <v>625</v>
+      </c>
+      <c r="AZ51" s="22">
+        <v>1196</v>
+      </c>
+      <c r="BA51" s="22">
+        <v>4751</v>
+      </c>
+      <c r="BB51" s="22">
+        <v>694</v>
+      </c>
+      <c r="BC51" s="19">
         <f t="shared" si="4"/>
-        <v>765.66666666666663</v>
+        <v>1982.6</v>
       </c>
     </row>
-    <row r="52" spans="1:55" ht="16" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:55" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A52" s="16">
         <v>155</v>
       </c>
@@ -28980,7 +29596,7 @@
       <c r="AE52" s="21">
         <v>1505</v>
       </c>
-      <c r="AF52" s="23">
+      <c r="AF52" s="21">
         <v>232</v>
       </c>
       <c r="AG52" s="19">
@@ -29021,28 +29637,42 @@
         <f t="shared" si="5"/>
         <v>885.6</v>
       </c>
-      <c r="AS52" s="24">
+      <c r="AS52" s="22">
         <v>571</v>
       </c>
-      <c r="AT52" s="24">
+      <c r="AT52" s="22">
         <v>437</v>
       </c>
-      <c r="AU52" s="25">
+      <c r="AU52" s="22">
         <v>743</v>
       </c>
-      <c r="AV52" s="26"/>
-      <c r="AW52" s="26"/>
-      <c r="AX52" s="26"/>
-      <c r="AY52" s="26"/>
-      <c r="AZ52" s="26"/>
-      <c r="BA52" s="26"/>
-      <c r="BB52" s="26"/>
-      <c r="BC52" s="27">
+      <c r="AV52" s="23">
+        <v>4613</v>
+      </c>
+      <c r="AW52" s="22">
+        <v>4525</v>
+      </c>
+      <c r="AX52" s="22">
+        <v>737</v>
+      </c>
+      <c r="AY52" s="22">
+        <v>913</v>
+      </c>
+      <c r="AZ52" s="22">
+        <v>1206</v>
+      </c>
+      <c r="BA52" s="22">
+        <v>4729</v>
+      </c>
+      <c r="BB52" s="22">
+        <v>910</v>
+      </c>
+      <c r="BC52" s="19">
         <f t="shared" si="4"/>
-        <v>583.66666666666663</v>
+        <v>1938.4</v>
       </c>
     </row>
-    <row r="53" spans="1:55" ht="16" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:55" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A53" s="16">
         <v>153</v>
       </c>
@@ -29138,7 +29768,7 @@
       <c r="AE53" s="21">
         <v>1300</v>
       </c>
-      <c r="AF53" s="23">
+      <c r="AF53" s="21">
         <v>233</v>
       </c>
       <c r="AG53" s="19">
@@ -29179,28 +29809,42 @@
         <f t="shared" si="5"/>
         <v>865.7</v>
       </c>
-      <c r="AS53" s="24">
+      <c r="AS53" s="22">
         <v>696</v>
       </c>
-      <c r="AT53" s="24">
+      <c r="AT53" s="22">
         <v>630</v>
       </c>
-      <c r="AU53" s="25">
+      <c r="AU53" s="22">
         <v>749</v>
       </c>
-      <c r="AV53" s="26"/>
-      <c r="AW53" s="26"/>
-      <c r="AX53" s="26"/>
-      <c r="AY53" s="26"/>
-      <c r="AZ53" s="26"/>
-      <c r="BA53" s="26"/>
-      <c r="BB53" s="26"/>
-      <c r="BC53" s="27">
+      <c r="AV53" s="23">
+        <v>4623</v>
+      </c>
+      <c r="AW53" s="22">
+        <v>4626</v>
+      </c>
+      <c r="AX53" s="22">
+        <v>1519</v>
+      </c>
+      <c r="AY53" s="22">
+        <v>505</v>
+      </c>
+      <c r="AZ53" s="22">
+        <v>1205</v>
+      </c>
+      <c r="BA53" s="22">
+        <v>4742</v>
+      </c>
+      <c r="BB53" s="22">
+        <v>861</v>
+      </c>
+      <c r="BC53" s="19">
         <f t="shared" si="4"/>
-        <v>691.66666666666663</v>
+        <v>2015.6</v>
       </c>
     </row>
-    <row r="54" spans="1:55" ht="16" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:55" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A54" s="16">
         <v>156</v>
       </c>
@@ -29296,7 +29940,7 @@
       <c r="AE54" s="21">
         <v>628</v>
       </c>
-      <c r="AF54" s="23">
+      <c r="AF54" s="21">
         <v>232</v>
       </c>
       <c r="AG54" s="19">
@@ -29337,28 +29981,42 @@
         <f t="shared" si="5"/>
         <v>810.9</v>
       </c>
-      <c r="AS54" s="24">
+      <c r="AS54" s="22">
         <v>853</v>
       </c>
-      <c r="AT54" s="24">
+      <c r="AT54" s="22">
         <v>959</v>
       </c>
-      <c r="AU54" s="25">
+      <c r="AU54" s="22">
         <v>918</v>
       </c>
-      <c r="AV54" s="26"/>
-      <c r="AW54" s="26"/>
-      <c r="AX54" s="26"/>
-      <c r="AY54" s="26"/>
-      <c r="AZ54" s="26"/>
-      <c r="BA54" s="26"/>
-      <c r="BB54" s="26"/>
-      <c r="BC54" s="27">
+      <c r="AV54" s="23">
+        <v>4650</v>
+      </c>
+      <c r="AW54" s="22">
+        <v>4592</v>
+      </c>
+      <c r="AX54" s="22">
+        <v>963</v>
+      </c>
+      <c r="AY54" s="22">
+        <v>691</v>
+      </c>
+      <c r="AZ54" s="22">
+        <v>443</v>
+      </c>
+      <c r="BA54" s="22">
+        <v>4699</v>
+      </c>
+      <c r="BB54" s="22">
+        <v>1012</v>
+      </c>
+      <c r="BC54" s="19">
         <f t="shared" si="4"/>
-        <v>910</v>
+        <v>1978</v>
       </c>
     </row>
-    <row r="55" spans="1:55" ht="16" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:55" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A55" s="16">
         <v>155</v>
       </c>
@@ -29454,7 +30112,7 @@
       <c r="AE55" s="21">
         <v>861</v>
       </c>
-      <c r="AF55" s="23">
+      <c r="AF55" s="21">
         <v>232</v>
       </c>
       <c r="AG55" s="19">
@@ -29495,28 +30153,42 @@
         <f t="shared" si="5"/>
         <v>882.1</v>
       </c>
-      <c r="AS55" s="24">
+      <c r="AS55" s="22">
         <v>744</v>
       </c>
-      <c r="AT55" s="24">
+      <c r="AT55" s="22">
         <v>1108</v>
       </c>
-      <c r="AU55" s="25">
+      <c r="AU55" s="22">
         <v>1021</v>
       </c>
-      <c r="AV55" s="26"/>
-      <c r="AW55" s="26"/>
-      <c r="AX55" s="26"/>
-      <c r="AY55" s="26"/>
-      <c r="AZ55" s="26"/>
-      <c r="BA55" s="26"/>
-      <c r="BB55" s="26"/>
-      <c r="BC55" s="27">
+      <c r="AV55" s="23">
+        <v>4621</v>
+      </c>
+      <c r="AW55" s="22">
+        <v>4545</v>
+      </c>
+      <c r="AX55" s="22">
+        <v>1255</v>
+      </c>
+      <c r="AY55" s="22">
+        <v>634</v>
+      </c>
+      <c r="AZ55" s="22">
+        <v>801</v>
+      </c>
+      <c r="BA55" s="22">
+        <v>4728</v>
+      </c>
+      <c r="BB55" s="22">
+        <v>914</v>
+      </c>
+      <c r="BC55" s="19">
         <f t="shared" si="4"/>
-        <v>957.66666666666663</v>
+        <v>2037.1</v>
       </c>
     </row>
-    <row r="56" spans="1:55" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:55" s="15" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A56" s="5" t="s">
         <v>46</v>
       </c>
@@ -29563,17 +30235,17 @@
       <c r="AP56" s="5"/>
       <c r="AQ56" s="5"/>
       <c r="AR56" s="5"/>
-      <c r="AS56" s="22"/>
-      <c r="AT56" s="22"/>
-      <c r="AU56" s="22"/>
-      <c r="AV56" s="22"/>
-      <c r="AW56" s="22"/>
-      <c r="AX56" s="22"/>
-      <c r="AY56" s="22"/>
-      <c r="AZ56" s="22"/>
-      <c r="BA56" s="22"/>
-      <c r="BB56" s="22"/>
-      <c r="BC56" s="22"/>
+      <c r="AS56" s="5"/>
+      <c r="AT56" s="5"/>
+      <c r="AU56" s="5"/>
+      <c r="AV56" s="5"/>
+      <c r="AW56" s="5"/>
+      <c r="AX56" s="5"/>
+      <c r="AY56" s="5"/>
+      <c r="AZ56" s="5"/>
+      <c r="BA56" s="5"/>
+      <c r="BB56" s="5"/>
+      <c r="BC56" s="5"/>
     </row>
     <row r="57" spans="1:55" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A57" s="2">
@@ -29763,41 +30435,41 @@
       </c>
       <c r="AV57" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>4682</v>
       </c>
       <c r="AW57" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>4652</v>
       </c>
       <c r="AX57" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1519</v>
       </c>
       <c r="AY57" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1566</v>
       </c>
       <c r="AZ57" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1761</v>
       </c>
       <c r="BA57" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>4828</v>
       </c>
       <c r="BB57" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1211</v>
       </c>
       <c r="BC57" s="2">
         <f t="shared" si="6"/>
-        <v>2179.6666666666665</v>
+        <v>2392</v>
       </c>
     </row>
     <row r="66" spans="29:31" x14ac:dyDescent="0.35">
       <c r="AD66">
         <f>_xlfn.T.TEST(AR6:AR55, BC6:BC55, 2,3)</f>
-        <v>2.187827294487099E-4</v>
+        <v>2.5635773599770767E-19</v>
       </c>
     </row>
     <row r="71" spans="29:31" x14ac:dyDescent="0.35">
@@ -29829,6 +30501,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>